--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1124"/>
+  <dimension ref="A1:H1125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -28285,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="H821" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="822">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -28455,7 +28455,7 @@
         <v>0</v>
       </c>
       <c r="H826" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="827">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -28591,7 +28591,7 @@
         <v>0</v>
       </c>
       <c r="H830" t="n">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="831">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="834">
@@ -28704,7 +28704,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -28738,7 +28738,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28795,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="H836" t="n">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="837">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>0</v>
       </c>
       <c r="H839" t="n">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="840">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="H840" t="n">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="841">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28999,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="843">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="845">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="848">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -29203,7 +29203,7 @@
         <v>0</v>
       </c>
       <c r="H848" t="n">
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="849">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>864</v>
+        <v>872</v>
       </c>
     </row>
     <row r="851">
@@ -29316,7 +29316,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
       <c r="H852" t="n">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="853">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="H853" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="854">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="855">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="H855" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="856">
@@ -29554,7 +29554,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="860">
@@ -29622,7 +29622,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -29645,7 +29645,7 @@
         <v>0</v>
       </c>
       <c r="H861" t="n">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="862">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -29679,7 +29679,7 @@
         <v>36</v>
       </c>
       <c r="H862" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="863">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -29781,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="H865" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="866">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="H867" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="868">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="873">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -30087,7 +30087,7 @@
         <v>0</v>
       </c>
       <c r="H874" t="n">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="875">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="H876" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="877">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="878">
@@ -30200,7 +30200,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="H878" t="n">
-        <v>1093</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="879">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>956</v>
+        <v>968</v>
       </c>
     </row>
     <row r="881">
@@ -30302,7 +30302,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="882">
@@ -30438,7 +30438,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="886">
@@ -30472,7 +30472,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="H886" t="n">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="887">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="888">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="889">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/09</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="890">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="892">
@@ -30710,7 +30710,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="H893" t="n">
-        <v>2715</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="894">
@@ -30744,7 +30744,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -30767,7 +30767,7 @@
         <v>0</v>
       </c>
       <c r="H894" t="n">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="895">
@@ -30778,7 +30778,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -30801,7 +30801,7 @@
         <v>0</v>
       </c>
       <c r="H895" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="896">
@@ -30846,7 +30846,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -30869,7 +30869,7 @@
         <v>0</v>
       </c>
       <c r="H897" t="n">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="898">
@@ -30914,7 +30914,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2024/02/10</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -30937,7 +30937,7 @@
         <v>9</v>
       </c>
       <c r="H899" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="900">
@@ -30982,7 +30982,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -31005,7 +31005,7 @@
         <v>0</v>
       </c>
       <c r="H901" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="902">
@@ -31118,7 +31118,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -31141,7 +31141,7 @@
         <v>0</v>
       </c>
       <c r="H905" t="n">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="906">
@@ -31152,7 +31152,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -31175,7 +31175,7 @@
         <v>0</v>
       </c>
       <c r="H906" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="907">
@@ -31186,7 +31186,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -31209,7 +31209,7 @@
         <v>84</v>
       </c>
       <c r="H907" t="n">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="908">
@@ -31220,7 +31220,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -31243,7 +31243,7 @@
         <v>0</v>
       </c>
       <c r="H908" t="n">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="909">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -31277,7 +31277,7 @@
         <v>0</v>
       </c>
       <c r="H909" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="910">
@@ -31322,7 +31322,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -31345,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="H911" t="n">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="912">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -31379,7 +31379,7 @@
         <v>0</v>
       </c>
       <c r="H912" t="n">
-        <v>1054</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="913">
@@ -31390,7 +31390,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -31424,7 +31424,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -31447,7 +31447,7 @@
         <v>0</v>
       </c>
       <c r="H914" t="n">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="915">
@@ -31458,7 +31458,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -31481,7 +31481,7 @@
         <v>0</v>
       </c>
       <c r="H915" t="n">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="916">
@@ -31526,7 +31526,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -31549,7 +31549,7 @@
         <v>0</v>
       </c>
       <c r="H917" t="n">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="918">
@@ -31560,7 +31560,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -31583,7 +31583,7 @@
         <v>0</v>
       </c>
       <c r="H918" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="919">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -31617,7 +31617,7 @@
         <v>0</v>
       </c>
       <c r="H919" t="n">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="920">
@@ -31628,7 +31628,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -31651,7 +31651,7 @@
         <v>0</v>
       </c>
       <c r="H920" t="n">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="921">
@@ -31662,7 +31662,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -31685,7 +31685,7 @@
         <v>0</v>
       </c>
       <c r="H921" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="922">
@@ -31730,7 +31730,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -31753,7 +31753,7 @@
         <v>0</v>
       </c>
       <c r="H923" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="924">
@@ -31832,7 +31832,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2023/08/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -31855,7 +31855,7 @@
         <v>0</v>
       </c>
       <c r="H926" t="n">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="927">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -31968,7 +31968,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -32002,7 +32002,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -32025,7 +32025,7 @@
         <v>0</v>
       </c>
       <c r="H931" t="n">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="932">
@@ -32036,7 +32036,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -32059,7 +32059,7 @@
         <v>0</v>
       </c>
       <c r="H932" t="n">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="933">
@@ -32172,7 +32172,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -32195,7 +32195,7 @@
         <v>0</v>
       </c>
       <c r="H936" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="937">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -32229,7 +32229,7 @@
         <v>0</v>
       </c>
       <c r="H937" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="938">
@@ -32342,7 +32342,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -32365,7 +32365,7 @@
         <v>0</v>
       </c>
       <c r="H941" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="942">
@@ -32410,7 +32410,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -32444,7 +32444,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="H944" t="n">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="945">
@@ -32478,7 +32478,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -32501,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="H945" t="n">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="946">
@@ -32546,7 +32546,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -32569,7 +32569,7 @@
         <v>0</v>
       </c>
       <c r="H947" t="n">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="948">
@@ -32580,7 +32580,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -32648,7 +32648,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -32671,7 +32671,7 @@
         <v>0</v>
       </c>
       <c r="H950" t="n">
-        <v>1038</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="951">
@@ -32784,7 +32784,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -32807,7 +32807,7 @@
         <v>0</v>
       </c>
       <c r="H954" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="955">
@@ -32818,7 +32818,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>0</v>
       </c>
       <c r="H956" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="957">
@@ -32886,7 +32886,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -32909,7 +32909,7 @@
         <v>0</v>
       </c>
       <c r="H957" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="958">
@@ -32920,7 +32920,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -32954,7 +32954,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -33022,7 +33022,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -33045,7 +33045,7 @@
         <v>0</v>
       </c>
       <c r="H961" t="n">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="962">
@@ -33056,7 +33056,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -33226,7 +33226,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -33249,7 +33249,7 @@
         <v>0</v>
       </c>
       <c r="H967" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="968">
@@ -33260,7 +33260,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -33283,7 +33283,7 @@
         <v>0</v>
       </c>
       <c r="H968" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="969">
@@ -33362,7 +33362,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -33396,7 +33396,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -33419,7 +33419,7 @@
         <v>0</v>
       </c>
       <c r="H972" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="973">
@@ -33464,7 +33464,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -33487,7 +33487,7 @@
         <v>0</v>
       </c>
       <c r="H974" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="975">
@@ -33498,7 +33498,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -33521,7 +33521,7 @@
         <v>0</v>
       </c>
       <c r="H975" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="976">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -33589,7 +33589,7 @@
         <v>0</v>
       </c>
       <c r="H977" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="978">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -33623,7 +33623,7 @@
         <v>0</v>
       </c>
       <c r="H978" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="979">
@@ -33634,7 +33634,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -33657,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="H979" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="980">
@@ -33736,7 +33736,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -33759,7 +33759,7 @@
         <v>0</v>
       </c>
       <c r="H982" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="983">
@@ -33770,7 +33770,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -33793,7 +33793,7 @@
         <v>0</v>
       </c>
       <c r="H983" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="984">
@@ -33804,7 +33804,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -33827,7 +33827,7 @@
         <v>0</v>
       </c>
       <c r="H984" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="985">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -33963,7 +33963,7 @@
         <v>0</v>
       </c>
       <c r="H988" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="989">
@@ -34008,7 +34008,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -34031,7 +34031,7 @@
         <v>0</v>
       </c>
       <c r="H990" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="991">
@@ -34076,7 +34076,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -34099,7 +34099,7 @@
         <v>0</v>
       </c>
       <c r="H992" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="993">
@@ -34144,7 +34144,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -34167,7 +34167,7 @@
         <v>0</v>
       </c>
       <c r="H994" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="995">
@@ -34178,7 +34178,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="H995" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="996">
@@ -34212,7 +34212,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -34246,7 +34246,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -34269,7 +34269,7 @@
         <v>0</v>
       </c>
       <c r="H997" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="998">
@@ -34280,7 +34280,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -34314,7 +34314,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -34337,7 +34337,7 @@
         <v>0</v>
       </c>
       <c r="H999" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1000">
@@ -34348,7 +34348,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -34382,7 +34382,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -34405,7 +34405,7 @@
         <v>0</v>
       </c>
       <c r="H1001" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1002">
@@ -34416,7 +34416,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -34439,7 +34439,7 @@
         <v>0</v>
       </c>
       <c r="H1002" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1003">
@@ -34450,7 +34450,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/09</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -34484,7 +34484,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -34507,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="H1004" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1005">
@@ -34586,7 +34586,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -34609,7 +34609,7 @@
         <v>0</v>
       </c>
       <c r="H1007" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1008">
@@ -34620,7 +34620,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -34643,7 +34643,7 @@
         <v>0</v>
       </c>
       <c r="H1008" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1009">
@@ -34688,17 +34688,17 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/12</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  Metropolitano de Santiago</t>
+          <t>Municipalidad de Curanilahue</t>
         </is>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>AO045</t>
+          <t>MU075</t>
         </is>
       </c>
       <c r="E1010" t="n">
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1011">
@@ -34722,17 +34722,17 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>Municipalidad de Curanilahue</t>
+          <t>CFT de la Región de la Araucanía</t>
         </is>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
-          <t>MU075</t>
+          <t>CF001</t>
         </is>
       </c>
       <c r="E1011" t="n">
@@ -34745,7 +34745,7 @@
         <v>0</v>
       </c>
       <c r="H1011" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1012">
@@ -34756,17 +34756,17 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>CFT de la Región de la Araucanía</t>
+          <t>Corporación Municipal de Providencia</t>
         </is>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>CF001</t>
+          <t>CM031</t>
         </is>
       </c>
       <c r="E1012" t="n">
@@ -34779,7 +34779,7 @@
         <v>0</v>
       </c>
       <c r="H1012" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1013">
@@ -34790,17 +34790,17 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Providencia</t>
+          <t>Armada de Chile</t>
         </is>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>CM031</t>
+          <t>AD007</t>
         </is>
       </c>
       <c r="E1013" t="n">
@@ -34813,7 +34813,7 @@
         <v>0</v>
       </c>
       <c r="H1013" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014">
@@ -34824,17 +34824,17 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>Armada de Chile</t>
+          <t>Agencia de Calidad de la Educación</t>
         </is>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>AD007</t>
+          <t>AJ012</t>
         </is>
       </c>
       <c r="E1014" t="n">
@@ -34847,7 +34847,7 @@
         <v>0</v>
       </c>
       <c r="H1014" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1015">
@@ -34858,17 +34858,17 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>Agencia de Calidad de la Educación</t>
+          <t>Municipalidad de Retiro</t>
         </is>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>AJ012</t>
+          <t>MU268</t>
         </is>
       </c>
       <c r="E1015" t="n">
@@ -34881,7 +34881,7 @@
         <v>0</v>
       </c>
       <c r="H1015" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1016">
@@ -34892,17 +34892,17 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>Municipalidad de Retiro</t>
+          <t>Municipalidad de El Tabo</t>
         </is>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
-          <t>MU268</t>
+          <t>MU086</t>
         </is>
       </c>
       <c r="E1016" t="n">
@@ -34915,7 +34915,7 @@
         <v>0</v>
       </c>
       <c r="H1016" t="n">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1017">
@@ -34926,17 +34926,17 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>Municipalidad de El Tabo</t>
+          <t>Instituto Nacional del Cáncer</t>
         </is>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>MU086</t>
+          <t>AO108</t>
         </is>
       </c>
       <c r="E1017" t="n">
@@ -34949,7 +34949,7 @@
         <v>0</v>
       </c>
       <c r="H1017" t="n">
-        <v>150</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1018">
@@ -34960,17 +34960,17 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>Municipalidad de Pudahuel</t>
+          <t>Municipalidad de Casablanca</t>
         </is>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>MU231</t>
+          <t>MU030</t>
         </is>
       </c>
       <c r="E1018" t="n">
@@ -34983,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="H1018" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1019">
@@ -34994,17 +34994,17 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>Instituto Nacional del Cáncer</t>
+          <t>Municipalidad de Placilla</t>
         </is>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>AO108</t>
+          <t>MU223</t>
         </is>
       </c>
       <c r="E1019" t="n">
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="H1019" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1020">
@@ -35028,17 +35028,17 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>Municipalidad de Casablanca</t>
+          <t>Municipalidad de Villa Alemana</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>MU030</t>
+          <t>MU338</t>
         </is>
       </c>
       <c r="E1020" t="n">
@@ -35051,7 +35051,7 @@
         <v>0</v>
       </c>
       <c r="H1020" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1021">
@@ -35062,17 +35062,17 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>Municipalidad de Placilla</t>
+          <t>Gobierno Regional de Arica y Parinacota (GORE)</t>
         </is>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
-          <t>MU223</t>
+          <t>AB075</t>
         </is>
       </c>
       <c r="E1021" t="n">
@@ -35085,7 +35085,7 @@
         <v>0</v>
       </c>
       <c r="H1021" t="n">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1022">
@@ -35096,17 +35096,17 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alemana</t>
+          <t>Municipalidad de Hualpén</t>
         </is>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
-          <t>MU338</t>
+          <t>MU105</t>
         </is>
       </c>
       <c r="E1022" t="n">
@@ -35119,7 +35119,7 @@
         <v>0</v>
       </c>
       <c r="H1022" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1023">
@@ -35130,17 +35130,17 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Arica y Parinacota (GORE)</t>
+          <t>Municipalidad de Talcahuano</t>
         </is>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
-          <t>AB075</t>
+          <t>MU313</t>
         </is>
       </c>
       <c r="E1023" t="n">
@@ -35153,7 +35153,7 @@
         <v>0</v>
       </c>
       <c r="H1023" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1024">
@@ -35164,17 +35164,17 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>Municipalidad de Hualpén</t>
+          <t>Municipalidad de Torres del Paine</t>
         </is>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>MU105</t>
+          <t>MU325</t>
         </is>
       </c>
       <c r="E1024" t="n">
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="H1024" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1025">
@@ -35203,12 +35203,12 @@
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>Municipalidad de Talcahuano</t>
+          <t>Municipalidad de Iquique</t>
         </is>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
-          <t>MU313</t>
+          <t>MU112</t>
         </is>
       </c>
       <c r="E1025" t="n">
@@ -35221,7 +35221,7 @@
         <v>0</v>
       </c>
       <c r="H1025" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1026">
@@ -35232,17 +35232,17 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/02/13</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>Municipalidad de Torres del Paine</t>
+          <t>Municipalidad de Chiguayante</t>
         </is>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>MU325</t>
+          <t>MU040</t>
         </is>
       </c>
       <c r="E1026" t="n">
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="H1026" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1027">
@@ -35266,17 +35266,17 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>Municipalidad de Iquique</t>
+          <t>Municipalidad de Machalí</t>
         </is>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>MU112</t>
+          <t>MU160</t>
         </is>
       </c>
       <c r="E1027" t="n">
@@ -35289,7 +35289,7 @@
         <v>0</v>
       </c>
       <c r="H1027" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1028">
@@ -35300,17 +35300,17 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t>Municipalidad de Chiguayante</t>
+          <t>Municipalidad de San Fernando</t>
         </is>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
-          <t>MU040</t>
+          <t>MU287</t>
         </is>
       </c>
       <c r="E1028" t="n">
@@ -35323,7 +35323,7 @@
         <v>0</v>
       </c>
       <c r="H1028" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1029">
@@ -35334,17 +35334,17 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>Municipalidad de Machalí</t>
+          <t>Municipalidad de Parral</t>
         </is>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
-          <t>MU160</t>
+          <t>MU204</t>
         </is>
       </c>
       <c r="E1029" t="n">
@@ -35357,7 +35357,7 @@
         <v>0</v>
       </c>
       <c r="H1029" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1030">
@@ -35368,17 +35368,17 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>Municipalidad de San Fernando</t>
+          <t>SERVIU Región de Valparaíso</t>
         </is>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
-          <t>MU287</t>
+          <t>AP006</t>
         </is>
       </c>
       <c r="E1030" t="n">
@@ -35391,7 +35391,7 @@
         <v>0</v>
       </c>
       <c r="H1030" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1031">
@@ -35402,17 +35402,17 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>Municipalidad de Parral</t>
+          <t>Municipalidad de Río Verde</t>
         </is>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>MU204</t>
+          <t>MU275</t>
         </is>
       </c>
       <c r="E1031" t="n">
@@ -35436,17 +35436,17 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>SERVIU Región de Valparaíso</t>
+          <t>Municipalidad de Florida</t>
         </is>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
-          <t>AP006</t>
+          <t>MU090</t>
         </is>
       </c>
       <c r="E1032" t="n">
@@ -35459,7 +35459,7 @@
         <v>0</v>
       </c>
       <c r="H1032" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1033">
@@ -35470,17 +35470,17 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Verde</t>
+          <t>Subsecretaría de Obras Públicas (MOP)</t>
         </is>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t>MU275</t>
+          <t>AM001</t>
         </is>
       </c>
       <c r="E1033" t="n">
@@ -35493,7 +35493,7 @@
         <v>0</v>
       </c>
       <c r="H1033" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1034">
@@ -35504,17 +35504,17 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>Municipalidad de Florida</t>
+          <t>Comisión Administradora del Sistema de Créditos para Estudios Superiores (INGRESA)</t>
         </is>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>MU090</t>
+          <t>AJ004</t>
         </is>
       </c>
       <c r="E1034" t="n">
@@ -35527,7 +35527,7 @@
         <v>0</v>
       </c>
       <c r="H1034" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1035">
@@ -35538,17 +35538,17 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>Subsecretaría de Obras Públicas (MOP)</t>
+          <t>Hospital Padre Hurtado</t>
         </is>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
-          <t>AM001</t>
+          <t>AO013</t>
         </is>
       </c>
       <c r="E1035" t="n">
@@ -35561,7 +35561,7 @@
         <v>0</v>
       </c>
       <c r="H1035" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1036">
@@ -35572,17 +35572,17 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>Comisión Administradora del Sistema de Créditos para Estudios Superiores (INGRESA)</t>
+          <t>Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>AJ004</t>
+          <t>MU286</t>
         </is>
       </c>
       <c r="E1036" t="n">
@@ -35595,7 +35595,7 @@
         <v>0</v>
       </c>
       <c r="H1036" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1037">
@@ -35606,17 +35606,17 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>Hospital Padre Hurtado</t>
+          <t>Municipalidad de San Javier</t>
         </is>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>AO013</t>
+          <t>MU290</t>
         </is>
       </c>
       <c r="E1037" t="n">
@@ -35629,7 +35629,7 @@
         <v>0</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1038">
@@ -35640,17 +35640,17 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>Municipalidad de San Felipe</t>
+          <t>Corporación de Deportes y Recreación de San Javier Loncomilla</t>
         </is>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>MU286</t>
+          <t>CM230</t>
         </is>
       </c>
       <c r="E1038" t="n">
@@ -35674,17 +35674,17 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>Municipalidad de San Javier</t>
+          <t>Municipalidad de San Ramón</t>
         </is>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>MU290</t>
+          <t>MU301</t>
         </is>
       </c>
       <c r="E1039" t="n">
@@ -35697,7 +35697,7 @@
         <v>0</v>
       </c>
       <c r="H1039" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1040">
@@ -35708,17 +35708,17 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>Corporación de Deportes y Recreación de San Javier Loncomilla</t>
+          <t>Dirección de Compras y Contratación Pública (CHILECOMPRA)</t>
         </is>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>CM230</t>
+          <t>AE011</t>
         </is>
       </c>
       <c r="E1040" t="n">
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="H1040" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -35742,17 +35742,17 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ramón</t>
+          <t>Corporación de Fomento de la Producción (CORFO)</t>
         </is>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
-          <t>MU301</t>
+          <t>AH004</t>
         </is>
       </c>
       <c r="E1041" t="n">
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="H1041" t="n">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="1042">
@@ -35776,17 +35776,17 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>Dirección de Compras y Contratación Pública (CHILECOMPRA)</t>
+          <t>Subsecretaría de Prevención del Delito</t>
         </is>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
-          <t>AE011</t>
+          <t>AB091</t>
         </is>
       </c>
       <c r="E1042" t="n">
@@ -35799,7 +35799,7 @@
         <v>0</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1043">
@@ -35810,17 +35810,17 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>Corporación de Fomento de la Producción (CORFO)</t>
+          <t>Servicio Local de Educación Pública Llanquihue</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>AH004</t>
+          <t>AJ028</t>
         </is>
       </c>
       <c r="E1043" t="n">
@@ -35833,7 +35833,7 @@
         <v>0</v>
       </c>
       <c r="H1043" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1044">
@@ -35844,17 +35844,17 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>Subsecretaría de Prevención del Delito</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>AB091</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E1044" t="n">
@@ -35867,7 +35867,7 @@
         <v>0</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1045">
@@ -35878,17 +35878,17 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Llanquihue</t>
+          <t>Municipalidad de San Esteban</t>
         </is>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
-          <t>AJ028</t>
+          <t>MU284</t>
         </is>
       </c>
       <c r="E1045" t="n">
@@ -35901,7 +35901,7 @@
         <v>0</v>
       </c>
       <c r="H1045" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1046">
@@ -35912,17 +35912,17 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de San Pedro De La Paz</t>
         </is>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU299</t>
         </is>
       </c>
       <c r="E1046" t="n">
@@ -35935,7 +35935,7 @@
         <v>0</v>
       </c>
       <c r="H1046" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1047">
@@ -35946,17 +35946,17 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>Municipalidad de San Esteban</t>
+          <t>Municipalidad de Futrono</t>
         </is>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>MU284</t>
+          <t>MU096</t>
         </is>
       </c>
       <c r="E1047" t="n">
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="H1047" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1048">
@@ -35980,17 +35980,17 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>Municipalidad de San Pedro De La Paz</t>
+          <t>Municipalidad de Los Andes</t>
         </is>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>MU299</t>
+          <t>MU152</t>
         </is>
       </c>
       <c r="E1048" t="n">
@@ -36003,7 +36003,7 @@
         <v>0</v>
       </c>
       <c r="H1048" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1049">
@@ -36014,17 +36014,17 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>Municipalidad de Futrono</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>MU096</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E1049" t="n">
@@ -36037,7 +36037,7 @@
         <v>0</v>
       </c>
       <c r="H1049" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1050">
@@ -36048,17 +36048,17 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Andes</t>
+          <t>Superintendencia de Electricidad y Combustibles (SEC)</t>
         </is>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t>MU152</t>
+          <t>AU004</t>
         </is>
       </c>
       <c r="E1050" t="n">
@@ -36071,7 +36071,7 @@
         <v>0</v>
       </c>
       <c r="H1050" t="n">
-        <v>12</v>
+        <v>119</v>
       </c>
     </row>
     <row r="1051">
@@ -36082,17 +36082,17 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Municipalidad de Zapallar</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>MU345</t>
         </is>
       </c>
       <c r="E1051" t="n">
@@ -36105,7 +36105,7 @@
         <v>0</v>
       </c>
       <c r="H1051" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1052">
@@ -36116,17 +36116,17 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>Superintendencia de Electricidad y Combustibles (SEC)</t>
+          <t>Subsecretaría de Justicia</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>AU004</t>
+          <t>AK001</t>
         </is>
       </c>
       <c r="E1052" t="n">
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="H1052" t="n">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1053">
@@ -36150,17 +36150,17 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>Municipalidad de Zapallar</t>
+          <t>Municipalidad de OHiggins</t>
         </is>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>MU345</t>
+          <t>MU187</t>
         </is>
       </c>
       <c r="E1053" t="n">
@@ -36173,7 +36173,7 @@
         <v>0</v>
       </c>
       <c r="H1053" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1054">
@@ -36184,17 +36184,17 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>Subsecretaría de Justicia</t>
+          <t>Comisión Chilena del Cobre (COCHILCO)</t>
         </is>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>AK001</t>
+          <t>AS002</t>
         </is>
       </c>
       <c r="E1054" t="n">
@@ -36207,7 +36207,7 @@
         <v>0</v>
       </c>
       <c r="H1054" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1055">
@@ -36218,17 +36218,17 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>Municipalidad de OHiggins</t>
+          <t>Municipalidad de Olmué</t>
         </is>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>MU187</t>
+          <t>MU190</t>
         </is>
       </c>
       <c r="E1055" t="n">
@@ -36241,7 +36241,7 @@
         <v>0</v>
       </c>
       <c r="H1055" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1056">
@@ -36252,17 +36252,17 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>Comisión Chilena del Cobre (COCHILCO)</t>
+          <t>Municipalidad de Rengo</t>
         </is>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
-          <t>AS002</t>
+          <t>MU266</t>
         </is>
       </c>
       <c r="E1056" t="n">
@@ -36275,7 +36275,7 @@
         <v>0</v>
       </c>
       <c r="H1056" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1057">
@@ -36286,17 +36286,17 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>Municipalidad de Olmué</t>
+          <t>Gobierno Regional del Maule (Gore Maule)</t>
         </is>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>MU190</t>
+          <t>AB083</t>
         </is>
       </c>
       <c r="E1057" t="n">
@@ -36309,7 +36309,7 @@
         <v>0</v>
       </c>
       <c r="H1057" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1058">
@@ -36320,17 +36320,17 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>Municipalidad de Rengo</t>
+          <t>Dirección General de Concesiones (DGC)</t>
         </is>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>MU266</t>
+          <t>AM014</t>
         </is>
       </c>
       <c r="E1058" t="n">
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="H1058" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -36354,17 +36354,17 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Maule (Gore Maule)</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>AB083</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E1059" t="n">
@@ -36377,7 +36377,7 @@
         <v>0</v>
       </c>
       <c r="H1059" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -36388,17 +36388,17 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>Dirección General de Concesiones (DGC)</t>
+          <t>Municipalidad de Colina</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>AM014</t>
+          <t>MU057</t>
         </is>
       </c>
       <c r="E1060" t="n">
@@ -36411,7 +36411,7 @@
         <v>0</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="1061">
@@ -36422,17 +36422,17 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Municipalidad de San José de Maipo</t>
         </is>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>MU292</t>
         </is>
       </c>
       <c r="E1061" t="n">
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1062">
@@ -36456,17 +36456,17 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>Municipalidad de Colina</t>
+          <t>Gobierno Regional de Aysén (GORE Aysén)</t>
         </is>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>MU057</t>
+          <t>AB088</t>
         </is>
       </c>
       <c r="E1062" t="n">
@@ -36479,7 +36479,7 @@
         <v>0</v>
       </c>
       <c r="H1062" t="n">
-        <v>112</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1063">
@@ -36490,17 +36490,17 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>Municipalidad de San José de Maipo</t>
+          <t>Asociación de Municipalidades de la Provincia de Arauco</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>MU292</t>
+          <t>MA015</t>
         </is>
       </c>
       <c r="E1063" t="n">
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="H1063" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1064">
@@ -36524,17 +36524,17 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Aysén (GORE Aysén)</t>
+          <t>Subsecretaria de Evaluación Social</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>AB088</t>
+          <t>AI001</t>
         </is>
       </c>
       <c r="E1064" t="n">
@@ -36547,7 +36547,7 @@
         <v>0</v>
       </c>
       <c r="H1064" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -36558,17 +36558,17 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Arauco</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>MA015</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="E1065" t="n">
@@ -36581,7 +36581,7 @@
         <v>0</v>
       </c>
       <c r="H1065" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1066">
@@ -36592,17 +36592,17 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>Subsecretaria de Evaluación Social</t>
+          <t>Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>AI001</t>
+          <t>MU283</t>
         </is>
       </c>
       <c r="E1066" t="n">
@@ -36615,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1067">
@@ -36626,17 +36626,17 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de Licantén</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU138</t>
         </is>
       </c>
       <c r="E1067" t="n">
@@ -36649,7 +36649,7 @@
         <v>0</v>
       </c>
       <c r="H1067" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1068">
@@ -36660,17 +36660,17 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>Municipalidad de San Clemente</t>
+          <t>Municipalidad de Quemchi</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
-          <t>MU283</t>
+          <t>MU248</t>
         </is>
       </c>
       <c r="E1068" t="n">
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="H1068" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1069">
@@ -36694,17 +36694,17 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>Municipalidad de Licantén</t>
+          <t>SEREMI de Salud de OHiggins</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>MU138</t>
+          <t>AO046</t>
         </is>
       </c>
       <c r="E1069" t="n">
@@ -36717,7 +36717,7 @@
         <v>0</v>
       </c>
       <c r="H1069" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070">
@@ -36728,17 +36728,17 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>Municipalidad de Quemchi</t>
+          <t>Municipalidad de Lo Espejo</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t>MU248</t>
+          <t>MU145</t>
         </is>
       </c>
       <c r="E1070" t="n">
@@ -36751,7 +36751,7 @@
         <v>0</v>
       </c>
       <c r="H1070" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1071">
@@ -36767,12 +36767,12 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de OHiggins</t>
+          <t>Sistema de Empresas  SEP</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>AO046</t>
+          <t>EP025</t>
         </is>
       </c>
       <c r="E1071" t="n">
@@ -36785,7 +36785,7 @@
         <v>0</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1072">
@@ -36796,17 +36796,17 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Espejo</t>
+          <t>Subsecretaría de Salud Pública (MINSAL)</t>
         </is>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>MU145</t>
+          <t>AO001</t>
         </is>
       </c>
       <c r="E1072" t="n">
@@ -36819,7 +36819,7 @@
         <v>0</v>
       </c>
       <c r="H1072" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1073">
@@ -36830,17 +36830,17 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>Sistema de Empresas  SEP</t>
+          <t>Subsecretaría de Desarrollo Regional y Administrativo (SUBDERE)</t>
         </is>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>EP025</t>
+          <t>AB002</t>
         </is>
       </c>
       <c r="E1073" t="n">
@@ -36853,7 +36853,7 @@
         <v>0</v>
       </c>
       <c r="H1073" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="1074">
@@ -36864,17 +36864,17 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>Subsecretaría de Salud Pública (MINSAL)</t>
+          <t>Municipalidad de Cerrillos</t>
         </is>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>AO001</t>
+          <t>MU034</t>
         </is>
       </c>
       <c r="E1074" t="n">
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="H1074" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1075">
@@ -36898,17 +36898,17 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/14</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>Subsecretaría de Desarrollo Regional y Administrativo (SUBDERE)</t>
+          <t>Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>AB002</t>
+          <t>MU289</t>
         </is>
       </c>
       <c r="E1075" t="n">
@@ -36921,7 +36921,7 @@
         <v>0</v>
       </c>
       <c r="H1075" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1076">
@@ -36932,17 +36932,17 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>Municipalidad de Cerrillos</t>
+          <t>Municipalidad de Coelemu</t>
         </is>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>MU034</t>
+          <t>MU052</t>
         </is>
       </c>
       <c r="E1076" t="n">
@@ -36955,7 +36955,7 @@
         <v>0</v>
       </c>
       <c r="H1076" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1077">
@@ -36966,17 +36966,17 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ignacio</t>
+          <t>Parque Metropolitano de Santiago</t>
         </is>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>MU289</t>
+          <t>AP017</t>
         </is>
       </c>
       <c r="E1077" t="n">
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="H1077" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -37000,17 +37000,17 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>Municipalidad de Coelemu</t>
+          <t>Municipalidad de Valparaíso</t>
         </is>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>MU052</t>
+          <t>MU332</t>
         </is>
       </c>
       <c r="E1078" t="n">
@@ -37023,7 +37023,7 @@
         <v>0</v>
       </c>
       <c r="H1078" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1079">
@@ -37034,17 +37034,17 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>Parque Metropolitano de Santiago</t>
+          <t>Municipalidad de Máfil</t>
         </is>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
-          <t>AP017</t>
+          <t>MU162</t>
         </is>
       </c>
       <c r="E1079" t="n">
@@ -37057,7 +37057,7 @@
         <v>0</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1080">
@@ -37068,17 +37068,17 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>Municipalidad de Valparaíso</t>
+          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
         </is>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>MU332</t>
+          <t>AB089</t>
         </is>
       </c>
       <c r="E1080" t="n">
@@ -37091,7 +37091,7 @@
         <v>0</v>
       </c>
       <c r="H1080" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1081">
@@ -37102,17 +37102,17 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>Municipalidad de Máfil</t>
+          <t>Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>MU162</t>
+          <t>MU007</t>
         </is>
       </c>
       <c r="E1081" t="n">
@@ -37125,7 +37125,7 @@
         <v>0</v>
       </c>
       <c r="H1081" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1082">
@@ -37136,17 +37136,17 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
+          <t>SEREMI de Salud de Los Ríos</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>AB089</t>
+          <t>AO050</t>
         </is>
       </c>
       <c r="E1082" t="n">
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="H1082" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1083">
@@ -37170,17 +37170,17 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Municipalidad de Andacollo</t>
+          <t>Municipalidad de Quilpué</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>MU007</t>
+          <t>MU254</t>
         </is>
       </c>
       <c r="E1083" t="n">
@@ -37193,7 +37193,7 @@
         <v>0</v>
       </c>
       <c r="H1083" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1084">
@@ -37204,17 +37204,17 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de Los Ríos</t>
+          <t>Municipalidad de San Antonio</t>
         </is>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>AO050</t>
+          <t>MU280</t>
         </is>
       </c>
       <c r="E1084" t="n">
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="H1084" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1085">
@@ -37238,17 +37238,17 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Municipalidad de Quilpué</t>
+          <t>Municipalidad de Quillota</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
-          <t>MU254</t>
+          <t>MU253</t>
         </is>
       </c>
       <c r="E1085" t="n">
@@ -37261,7 +37261,7 @@
         <v>0</v>
       </c>
       <c r="H1085" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1086">
@@ -37272,17 +37272,17 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Municipalidad de San Antonio</t>
+          <t>Municipalidad de Malloa</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
-          <t>MU280</t>
+          <t>MU164</t>
         </is>
       </c>
       <c r="E1086" t="n">
@@ -37295,7 +37295,7 @@
         <v>0</v>
       </c>
       <c r="H1086" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1087">
@@ -37306,17 +37306,17 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Municipalidad de Quillota</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>MU253</t>
+          <t>MU339</t>
         </is>
       </c>
       <c r="E1087" t="n">
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="H1087" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1088">
@@ -37340,17 +37340,17 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Municipalidad de Malloa</t>
+          <t>Municipalidad de Río Ibáñez</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>MU164</t>
+          <t>MU273</t>
         </is>
       </c>
       <c r="E1088" t="n">
@@ -37363,7 +37363,7 @@
         <v>0</v>
       </c>
       <c r="H1088" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1089">
@@ -37374,17 +37374,17 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>SEREMI de Vivienda y Urbanismo Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>MU339</t>
+          <t>AP034</t>
         </is>
       </c>
       <c r="E1089" t="n">
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="H1089" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -37408,17 +37408,17 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Ibáñez</t>
+          <t>Municipalidad de Nogales</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>MU273</t>
+          <t>MU183</t>
         </is>
       </c>
       <c r="E1090" t="n">
@@ -37442,17 +37442,17 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>2024/02/03</t>
+          <t>2024/02/13</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo Región de Magallanes y Antártica Chilena</t>
+          <t>Municipalidad de Molina</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
-          <t>AP034</t>
+          <t>MU174</t>
         </is>
       </c>
       <c r="E1091" t="n">
@@ -37465,7 +37465,7 @@
         <v>0</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1092">
@@ -37476,17 +37476,17 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Municipalidad de Nogales</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>MU183</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E1092" t="n">
@@ -37510,17 +37510,17 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Municipalidad de Molina</t>
+          <t>Municipalidad de Melipeuco</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>MU174</t>
+          <t>MU172</t>
         </is>
       </c>
       <c r="E1093" t="n">
@@ -37533,7 +37533,7 @@
         <v>0</v>
       </c>
       <c r="H1093" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1094">
@@ -37544,17 +37544,17 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Diego de Almagro</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU080</t>
         </is>
       </c>
       <c r="E1094" t="n">
@@ -37567,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="H1094" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1095">
@@ -37578,17 +37578,17 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Municipalidad de Melipeuco</t>
+          <t>Servicio de Salud Antofagasta</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>MU172</t>
+          <t>AO018</t>
         </is>
       </c>
       <c r="E1095" t="n">
@@ -37601,7 +37601,7 @@
         <v>0</v>
       </c>
       <c r="H1095" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1096">
@@ -37612,17 +37612,17 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Municipalidad de Diego de Almagro</t>
+          <t>Municipalidad de Talca</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>MU080</t>
+          <t>MU312</t>
         </is>
       </c>
       <c r="E1096" t="n">
@@ -37635,7 +37635,7 @@
         <v>0</v>
       </c>
       <c r="H1096" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1097">
@@ -37646,17 +37646,17 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Servicio de Salud Antofagasta</t>
+          <t>Superintendencia de Educación Dirección Nacional</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>AO018</t>
+          <t>AJ011</t>
         </is>
       </c>
       <c r="E1097" t="n">
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="H1097" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098">
@@ -37680,17 +37680,17 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Municipalidad de Talca</t>
+          <t>Corporación Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>MU312</t>
+          <t>CM044</t>
         </is>
       </c>
       <c r="E1098" t="n">
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="H1098" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1099">
@@ -37714,17 +37714,17 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Puente Alto</t>
+          <t>SEREMI de Salud  de Antofagasta</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>CM044</t>
+          <t>AO041</t>
         </is>
       </c>
       <c r="E1099" t="n">
@@ -37737,7 +37737,7 @@
         <v>0</v>
       </c>
       <c r="H1099" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1100">
@@ -37748,17 +37748,17 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Antofagasta</t>
+          <t>Municipalidad de Papudo</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>AO041</t>
+          <t>MU202</t>
         </is>
       </c>
       <c r="E1100" t="n">
@@ -37771,7 +37771,7 @@
         <v>0</v>
       </c>
       <c r="H1100" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1101">
@@ -37782,17 +37782,17 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Municipalidad de Papudo</t>
+          <t>Municipalidad de Calera de Tango</t>
         </is>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>MU202</t>
+          <t>MU022</t>
         </is>
       </c>
       <c r="E1101" t="n">
@@ -37816,17 +37816,17 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/02/16</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Municipalidad de Calera de Tango</t>
+          <t>Municipalidad de Doñihue</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>MU022</t>
+          <t>MU081</t>
         </is>
       </c>
       <c r="E1102" t="n">
@@ -37839,7 +37839,7 @@
         <v>0</v>
       </c>
       <c r="H1102" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1103">
@@ -37850,17 +37850,17 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Municipalidad de Doñihue</t>
+          <t>SEREMI de Salud  de Valparaíso</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>MU081</t>
+          <t>AO044</t>
         </is>
       </c>
       <c r="E1103" t="n">
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="H1103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1104">
@@ -37889,12 +37889,12 @@
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Valparaíso</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>AO044</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E1104" t="n">
@@ -37907,7 +37907,7 @@
         <v>0</v>
       </c>
       <c r="H1104" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1105">
@@ -37918,17 +37918,17 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU066</t>
         </is>
       </c>
       <c r="E1105" t="n">
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="H1105" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1106">
@@ -37952,17 +37952,17 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Municipalidad de Copiapó</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>MU066</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E1106" t="n">
@@ -37975,7 +37975,7 @@
         <v>0</v>
       </c>
       <c r="H1106" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1107">
@@ -37986,17 +37986,17 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/02/12</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E1107" t="n">
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="H1107" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108">
@@ -38020,17 +38020,17 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>MU170</t>
         </is>
       </c>
       <c r="E1108" t="n">
@@ -38043,7 +38043,7 @@
         <v>0</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1109">
@@ -38054,17 +38054,17 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Municipalidad de Maullín</t>
+          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>MU170</t>
+          <t>AI002</t>
         </is>
       </c>
       <c r="E1109" t="n">
@@ -38077,7 +38077,7 @@
         <v>0</v>
       </c>
       <c r="H1109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110">
@@ -38088,17 +38088,17 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
+          <t>Municipalidad de El Bosque</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>AI002</t>
+          <t>MU082</t>
         </is>
       </c>
       <c r="E1110" t="n">
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1111">
@@ -38122,17 +38122,17 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Municipalidad de El Bosque</t>
+          <t>Subsecretaría de Redes Asistenciales</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>MU082</t>
+          <t>AO002</t>
         </is>
       </c>
       <c r="E1111" t="n">
@@ -38145,7 +38145,7 @@
         <v>0</v>
       </c>
       <c r="H1111" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112">
@@ -38156,17 +38156,17 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Subsecretaría de Redes Asistenciales</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>AO002</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E1112" t="n">
@@ -38179,7 +38179,7 @@
         <v>0</v>
       </c>
       <c r="H1112" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1113">
@@ -38190,17 +38190,17 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Subsecretaría de las Culturas y las Artes</t>
         </is>
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>BC001</t>
         </is>
       </c>
       <c r="E1113" t="n">
@@ -38213,7 +38213,7 @@
         <v>0</v>
       </c>
       <c r="H1113" t="n">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1114">
@@ -38224,17 +38224,17 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Subsecretaría de las Culturas y las Artes</t>
+          <t>Municipalidad de Constitución</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>BC001</t>
+          <t>MU064</t>
         </is>
       </c>
       <c r="E1114" t="n">
@@ -38247,7 +38247,7 @@
         <v>0</v>
       </c>
       <c r="H1114" t="n">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1115">
@@ -38263,12 +38263,12 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Municipalidad de Constitución</t>
+          <t>Municipalidad de Peñaflor</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>MU064</t>
+          <t>MU211</t>
         </is>
       </c>
       <c r="E1115" t="n">
@@ -38281,7 +38281,7 @@
         <v>0</v>
       </c>
       <c r="H1115" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1116">
@@ -38292,17 +38292,17 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñaflor</t>
+          <t>SEREMI de Salud de Aysén</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>MU211</t>
+          <t>AO052</t>
         </is>
       </c>
       <c r="E1116" t="n">
@@ -38315,7 +38315,7 @@
         <v>0</v>
       </c>
       <c r="H1116" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -38326,17 +38326,17 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de Aysén</t>
+          <t>Municipalidad de Tirúa</t>
         </is>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>AO052</t>
+          <t>MU321</t>
         </is>
       </c>
       <c r="E1117" t="n">
@@ -38349,7 +38349,7 @@
         <v>0</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1118">
@@ -38360,17 +38360,17 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Municipalidad de Ovalle</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>MU192</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E1118" t="n">
@@ -38383,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="H1118" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1119">
@@ -38394,17 +38394,17 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Municipalidad de Tirúa</t>
+          <t>Municipalidad de Santa María</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>MU321</t>
+          <t>MU307</t>
         </is>
       </c>
       <c r="E1119" t="n">
@@ -38417,7 +38417,7 @@
         <v>0</v>
       </c>
       <c r="H1119" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1120">
@@ -38428,17 +38428,17 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Lo Prado</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU146</t>
         </is>
       </c>
       <c r="E1120" t="n">
@@ -38451,7 +38451,7 @@
         <v>0</v>
       </c>
       <c r="H1120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1121">
@@ -38462,17 +38462,17 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa María</t>
+          <t>Municipalidad de Maule</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>MU307</t>
+          <t>MU169</t>
         </is>
       </c>
       <c r="E1121" t="n">
@@ -38485,7 +38485,7 @@
         <v>0</v>
       </c>
       <c r="H1121" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1122">
@@ -38496,17 +38496,17 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Prado</t>
+          <t>Municipalidad de Collipulli</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>MU146</t>
+          <t>MU058</t>
         </is>
       </c>
       <c r="E1122" t="n">
@@ -38519,7 +38519,7 @@
         <v>0</v>
       </c>
       <c r="H1122" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1123">
@@ -38530,17 +38530,17 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Municipalidad de Maule</t>
+          <t>SEREMI de Salud  Metropolitano de Santiago</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>MU169</t>
+          <t>AO045</t>
         </is>
       </c>
       <c r="E1123" t="n">
@@ -38553,7 +38553,7 @@
         <v>0</v>
       </c>
       <c r="H1123" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -38564,17 +38564,17 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Municipalidad de Collipulli</t>
+          <t>Municipalidad de Ovalle</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>MU058</t>
+          <t>MU192</t>
         </is>
       </c>
       <c r="E1124" t="n">
@@ -38587,7 +38587,41 @@
         <v>0</v>
       </c>
       <c r="H1124" t="n">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Municipalidad de Pudahuel</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>MU231</t>
+        </is>
+      </c>
+      <c r="E1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1133"/>
+  <dimension ref="A1:H1134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>647</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="68">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>7021</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="72">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>3181</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="254">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>8</v>
       </c>
       <c r="H262" t="n">
-        <v>8553</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="263">
@@ -9426,7 +9426,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>2</v>
       </c>
       <c r="H280" t="n">
-        <v>1730</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="281">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>607</v>
+        <v>629</v>
       </c>
     </row>
     <row r="312">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12509,7 +12509,7 @@
         <v>2</v>
       </c>
       <c r="H357" t="n">
-        <v>2685</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="358">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>10</v>
       </c>
       <c r="H391" t="n">
-        <v>51843</v>
+        <v>51857</v>
       </c>
     </row>
     <row r="392">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>708</v>
+        <v>740</v>
       </c>
     </row>
     <row r="411">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PROdeMU)</t>
+          <t>Fundación para la Promoción y Desarrollo de la Mujer  (PRODEMU)</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="472">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="n">
-        <v>544</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="480">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="485">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18323,7 +18323,7 @@
         <v>3</v>
       </c>
       <c r="H528" t="n">
-        <v>11308</v>
+        <v>11324</v>
       </c>
     </row>
     <row r="529">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18357,7 +18357,7 @@
         <v>6</v>
       </c>
       <c r="H529" t="n">
-        <v>2435</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="530">
@@ -18402,7 +18402,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>1889</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="535">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>5</v>
       </c>
       <c r="H536" t="n">
-        <v>13676</v>
+        <v>13710</v>
       </c>
     </row>
     <row r="537">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="n">
-        <v>1670</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="545">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="565">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="H586" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="587">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20360,10 +20360,10 @@
         <v>0</v>
       </c>
       <c r="G588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H588" t="n">
-        <v>2526</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="589">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="H599" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="600">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="H601" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="602">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21009,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="H607" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="608">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="H633" t="n">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="634">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="654">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>581</v>
       </c>
       <c r="H674" t="n">
-        <v>12377</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="675">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2023/10/03</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="F689" t="n">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="G689" t="n">
         <v>0</v>
       </c>
       <c r="H689" t="n">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="690">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="H691" t="n">
-        <v>1367</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="692">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/02/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>22</v>
       </c>
       <c r="H700" t="n">
-        <v>15690</v>
+        <v>15924</v>
       </c>
     </row>
     <row r="701">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2023/06/22</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>799</v>
+        <v>837</v>
       </c>
     </row>
     <row r="709">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>1144</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="714">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>4</v>
       </c>
       <c r="H723" t="n">
-        <v>12400</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="724">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25463,7 +25463,7 @@
         <v>0</v>
       </c>
       <c r="H738" t="n">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="739">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -25769,7 +25769,7 @@
         <v>4</v>
       </c>
       <c r="H747" t="n">
-        <v>3079</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="748">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -26052,7 +26052,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -26075,7 +26075,7 @@
         <v>0</v>
       </c>
       <c r="H756" t="n">
-        <v>4826</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="757">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="H757" t="n">
-        <v>4353</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="758">
@@ -26120,7 +26120,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -26143,7 +26143,7 @@
         <v>0</v>
       </c>
       <c r="H758" t="n">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="759">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>4</v>
       </c>
       <c r="H798" t="n">
-        <v>12107</v>
+        <v>12156</v>
       </c>
     </row>
     <row r="799">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -28319,7 +28319,7 @@
         <v>13</v>
       </c>
       <c r="H822" t="n">
-        <v>2341</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="823">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>767</v>
+        <v>781</v>
       </c>
     </row>
     <row r="890">
@@ -32070,7 +32070,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -32093,7 +32093,7 @@
         <v>0</v>
       </c>
       <c r="H933" t="n">
-        <v>554</v>
+        <v>590</v>
       </c>
     </row>
     <row r="934">
@@ -32172,7 +32172,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -32342,7 +32342,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -32365,7 +32365,7 @@
         <v>0</v>
       </c>
       <c r="H941" t="n">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="942">
@@ -32478,7 +32478,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -32501,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="H945" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="946">
@@ -33124,7 +33124,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -34348,7 +34348,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -34371,7 +34371,7 @@
         <v>0</v>
       </c>
       <c r="H1000" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1001">
@@ -34416,7 +34416,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -34439,7 +34439,7 @@
         <v>0</v>
       </c>
       <c r="H1002" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1003">
@@ -37476,7 +37476,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -37499,7 +37499,7 @@
         <v>0</v>
       </c>
       <c r="H1092" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1093">
@@ -37748,7 +37748,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -37771,7 +37771,7 @@
         <v>0</v>
       </c>
       <c r="H1100" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1101">
@@ -38802,17 +38802,17 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Municipalidad de Ovalle</t>
+          <t>Gobierno Regional de Tarapacá (GORE)</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>MU192</t>
+          <t>AB076</t>
         </is>
       </c>
       <c r="E1131" t="n">
@@ -38825,7 +38825,7 @@
         <v>0</v>
       </c>
       <c r="H1131" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -38841,12 +38841,12 @@
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Municipalidad de Pudahuel</t>
+          <t>Municipalidad de Ovalle</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>MU231</t>
+          <t>MU192</t>
         </is>
       </c>
       <c r="E1132" t="n">
@@ -38859,7 +38859,7 @@
         <v>0</v>
       </c>
       <c r="H1132" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1133">
@@ -38870,29 +38870,63 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Municipalidad de Pudahuel</t>
+        </is>
+      </c>
+      <c r="D1133" t="inlineStr">
+        <is>
+          <t>MU231</t>
+        </is>
+      </c>
+      <c r="E1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
           <t>2024/03/19</t>
         </is>
       </c>
-      <c r="C1133" t="inlineStr">
+      <c r="C1134" t="inlineStr">
         <is>
           <t>Municipalidad de Vichuquén</t>
         </is>
       </c>
-      <c r="D1133" t="inlineStr">
+      <c r="D1134" t="inlineStr">
         <is>
           <t>MU333</t>
         </is>
       </c>
-      <c r="E1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1133" t="n">
+      <c r="E1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1134" t="n">
         <v>6</v>
       </c>
     </row>

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1136"/>
+  <dimension ref="A1:H1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>106712</v>
+        <v>107856</v>
       </c>
     </row>
     <row r="71">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1304</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="123">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>81</v>
       </c>
       <c r="H153" t="n">
-        <v>56242</v>
+        <v>57095</v>
       </c>
     </row>
     <row r="154">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>19859</v>
+        <v>20128</v>
       </c>
     </row>
     <row r="157">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="166">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="193">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>3534</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="258">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="280">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="328">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>224</v>
       </c>
       <c r="H340" t="n">
-        <v>8313</v>
+        <v>8351</v>
       </c>
     </row>
     <row r="341">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>6842</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="350">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="352">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="360">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -12849,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>320</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="368">
@@ -12894,7 +12894,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/03/03</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>30038</v>
+        <v>30068</v>
       </c>
     </row>
     <row r="379">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>17457</v>
+        <v>17515</v>
       </c>
     </row>
     <row r="385">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13472,7 +13472,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>29890</v>
+        <v>30199</v>
       </c>
     </row>
     <row r="387">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>10</v>
       </c>
       <c r="H391" t="n">
-        <v>51857</v>
+        <v>52207</v>
       </c>
     </row>
     <row r="392">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>2</v>
       </c>
       <c r="H402" t="n">
-        <v>23572</v>
+        <v>23619</v>
       </c>
     </row>
     <row r="403">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>2</v>
       </c>
       <c r="H427" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="428">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="433">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="438">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="H441" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="442">
@@ -15376,7 +15376,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="443">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="486">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>586</v>
+        <v>678</v>
       </c>
     </row>
     <row r="505">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -17711,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="H510" t="n">
-        <v>4594</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="511">
@@ -17824,7 +17824,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>1927</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="528">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="n">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="533">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -18561,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="n">
-        <v>1909</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="536">
@@ -18606,7 +18606,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -18731,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="n">
-        <v>5223</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="541">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>15</v>
       </c>
       <c r="H541" t="n">
-        <v>23611</v>
+        <v>23732</v>
       </c>
     </row>
     <row r="542">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>3</v>
       </c>
       <c r="H543" t="n">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="544">
@@ -19320,7 +19320,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="H558" t="n">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="559">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="561">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>2695</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="567">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -19819,7 +19819,7 @@
         <v>21</v>
       </c>
       <c r="H572" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="573">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>3602</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="591">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>3</v>
       </c>
       <c r="H591" t="n">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="592">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20601,7 +20601,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="n">
-        <v>2023</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="596">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20703,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="H598" t="n">
-        <v>4996</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="599">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/02/09</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>1</v>
       </c>
       <c r="H613" t="n">
-        <v>6744</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="614">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21417,7 +21417,7 @@
         <v>7</v>
       </c>
       <c r="H619" t="n">
-        <v>24777</v>
+        <v>24826</v>
       </c>
     </row>
     <row r="620">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21598,7 +21598,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>5362</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="626">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21791,7 +21791,7 @@
         <v>2</v>
       </c>
       <c r="H630" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="631">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>7122</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="641">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22312,7 +22312,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -22335,7 +22335,7 @@
         <v>8</v>
       </c>
       <c r="H646" t="n">
-        <v>5820</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="647">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>6</v>
       </c>
       <c r="H650" t="n">
-        <v>1456</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="651">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>5</v>
       </c>
       <c r="H653" t="n">
-        <v>12626</v>
+        <v>12878</v>
       </c>
     </row>
     <row r="654">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>6431</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="660">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="664">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>1</v>
       </c>
       <c r="H674" t="n">
-        <v>7671</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="675">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23355,7 +23355,7 @@
         <v>9</v>
       </c>
       <c r="H676" t="n">
-        <v>11962</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="677">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="679">
@@ -23502,7 +23502,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>4377</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="685">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="F690" t="n">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G690" t="n">
         <v>0</v>
       </c>
       <c r="H690" t="n">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="691">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23933,7 +23933,7 @@
         <v>1</v>
       </c>
       <c r="H693" t="n">
-        <v>5508</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="694">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24001,7 +24001,7 @@
         <v>19</v>
       </c>
       <c r="H695" t="n">
-        <v>4157</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="696">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>0</v>
       </c>
       <c r="H698" t="n">
-        <v>1568</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="699">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24137,7 +24137,7 @@
         <v>5</v>
       </c>
       <c r="H699" t="n">
-        <v>3754</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="700">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>1</v>
       </c>
       <c r="H713" t="n">
-        <v>1402</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="714">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>0</v>
       </c>
       <c r="H715" t="n">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="716">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
       <c r="H744" t="n">
-        <v>6932</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="745">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -25803,7 +25803,7 @@
         <v>4</v>
       </c>
       <c r="H748" t="n">
-        <v>3101</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="749">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -25837,7 +25837,7 @@
         <v>34</v>
       </c>
       <c r="H749" t="n">
-        <v>7987</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="750">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25950,7 +25950,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -25964,7 +25964,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F753" t="n">
         <v>6</v>
@@ -25973,7 +25973,7 @@
         <v>49</v>
       </c>
       <c r="H753" t="n">
-        <v>19812</v>
+        <v>19816</v>
       </c>
     </row>
     <row r="754">
@@ -26120,7 +26120,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -26154,7 +26154,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -26177,7 +26177,7 @@
         <v>0</v>
       </c>
       <c r="H759" t="n">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="760">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/03/31</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -26823,7 +26823,7 @@
         <v>0</v>
       </c>
       <c r="H778" t="n">
-        <v>5086</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="779">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H781" t="n">
-        <v>2758</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="782">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -26959,7 +26959,7 @@
         <v>2</v>
       </c>
       <c r="H782" t="n">
-        <v>9770</v>
+        <v>9774</v>
       </c>
     </row>
     <row r="783">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>1313</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="787">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
       <c r="H789" t="n">
-        <v>1528</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="790">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2024/02/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -27299,7 +27299,7 @@
         <v>0</v>
       </c>
       <c r="H792" t="n">
-        <v>16327</v>
+        <v>16342</v>
       </c>
     </row>
     <row r="793">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>3</v>
       </c>
       <c r="H798" t="n">
-        <v>16607</v>
+        <v>16629</v>
       </c>
     </row>
     <row r="799">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -27945,7 +27945,7 @@
         <v>19</v>
       </c>
       <c r="H811" t="n">
-        <v>10239</v>
+        <v>10255</v>
       </c>
     </row>
     <row r="812">
@@ -27990,7 +27990,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="H813" t="n">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="814">
@@ -28126,7 +28126,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="H817" t="n">
-        <v>8521</v>
+        <v>8555</v>
       </c>
     </row>
     <row r="818">
@@ -28228,7 +28228,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -28251,7 +28251,7 @@
         <v>9</v>
       </c>
       <c r="H820" t="n">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="821">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28353,7 +28353,7 @@
         <v>13</v>
       </c>
       <c r="H823" t="n">
-        <v>2354</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="824">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="838">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="844">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="851">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="859">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2024/03/16</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -29611,7 +29611,7 @@
         <v>0</v>
       </c>
       <c r="H860" t="n">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="861">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29747,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="H864" t="n">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="865">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="870">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/30</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -30013,13 +30013,13 @@
         <v>0</v>
       </c>
       <c r="F872" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G872" t="n">
         <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="873">
@@ -30778,7 +30778,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -30971,7 +30971,7 @@
         <v>0</v>
       </c>
       <c r="H900" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="901">
@@ -31322,7 +31322,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -31345,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="H911" t="n">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="912">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -31379,7 +31379,7 @@
         <v>0</v>
       </c>
       <c r="H912" t="n">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
     <row r="913">
@@ -31662,7 +31662,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -31764,7 +31764,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -32229,7 +32229,7 @@
         <v>0</v>
       </c>
       <c r="H937" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="938">
@@ -32682,7 +32682,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -32705,7 +32705,7 @@
         <v>0</v>
       </c>
       <c r="H951" t="n">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="952">
@@ -33056,7 +33056,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -33079,7 +33079,7 @@
         <v>0</v>
       </c>
       <c r="H962" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="963">
@@ -33192,7 +33192,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -33328,7 +33328,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -33351,7 +33351,7 @@
         <v>0</v>
       </c>
       <c r="H970" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="971">
@@ -33430,7 +33430,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -33498,7 +33498,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -33521,7 +33521,7 @@
         <v>0</v>
       </c>
       <c r="H975" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="976">
@@ -33566,7 +33566,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -33736,7 +33736,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -33759,7 +33759,7 @@
         <v>0</v>
       </c>
       <c r="H982" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="983">
@@ -33770,7 +33770,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -33872,7 +33872,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -33895,7 +33895,7 @@
         <v>0</v>
       </c>
       <c r="H986" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="987">
@@ -33906,7 +33906,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -34110,7 +34110,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -34133,7 +34133,7 @@
         <v>0</v>
       </c>
       <c r="H993" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="994">
@@ -34144,7 +34144,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -34167,7 +34167,7 @@
         <v>0</v>
       </c>
       <c r="H994" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="995">
@@ -34178,7 +34178,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="H995" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="996">
@@ -34212,7 +34212,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -34348,7 +34348,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -34586,7 +34586,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -34756,7 +34756,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2024/03/09</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -35028,7 +35028,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -35266,7 +35266,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -35289,7 +35289,7 @@
         <v>0</v>
       </c>
       <c r="H1027" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1028">
@@ -35368,7 +35368,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -35391,7 +35391,7 @@
         <v>0</v>
       </c>
       <c r="H1030" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1031">
@@ -35402,7 +35402,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -35470,7 +35470,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -35493,7 +35493,7 @@
         <v>0</v>
       </c>
       <c r="H1033" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1034">
@@ -35606,7 +35606,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -35629,7 +35629,7 @@
         <v>0</v>
       </c>
       <c r="H1037" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1038">
@@ -35708,7 +35708,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2024/03/24</t>
+          <t>2024/03/31</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -35810,7 +35810,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -35946,7 +35946,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="H1047" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1048">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -36411,7 +36411,7 @@
         <v>0</v>
       </c>
       <c r="H1060" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1061">
@@ -36728,7 +36728,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -36751,7 +36751,7 @@
         <v>0</v>
       </c>
       <c r="H1070" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1071">
@@ -36796,7 +36796,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -37034,7 +37034,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -37057,7 +37057,7 @@
         <v>0</v>
       </c>
       <c r="H1079" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1080">
@@ -38020,7 +38020,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -38043,7 +38043,7 @@
         <v>0</v>
       </c>
       <c r="H1108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1109">
@@ -38462,7 +38462,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -38802,7 +38802,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -38825,7 +38825,7 @@
         <v>0</v>
       </c>
       <c r="H1131" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1132">
@@ -38996,6 +38996,74 @@
       </c>
       <c r="H1136" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>2024/04/02</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades de la Zona Central y Costa (AMUCC)</t>
+        </is>
+      </c>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>MA042</t>
+        </is>
+      </c>
+      <c r="E1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Municipalidad de Algarrobo</t>
+        </is>
+      </c>
+      <c r="D1138" t="inlineStr">
+        <is>
+          <t>MU001</t>
+        </is>
+      </c>
+      <c r="E1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1147"/>
+  <dimension ref="A1:H1148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28795,7 +28795,7 @@
         <v>0</v>
       </c>
       <c r="H836" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="837">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/14</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28999,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="843">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/04/13</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="888">
@@ -31934,7 +31934,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -31957,7 +31957,7 @@
         <v>0</v>
       </c>
       <c r="H929" t="n">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="930">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -38292,7 +38292,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2024/02/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -38315,7 +38315,7 @@
         <v>0</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1117">
@@ -38666,7 +38666,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -38689,7 +38689,7 @@
         <v>0</v>
       </c>
       <c r="H1127" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1128">
@@ -39278,17 +39278,17 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Los Lagos (Gore Los Lagos)</t>
+          <t>Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>AB087</t>
+          <t>MU227</t>
         </is>
       </c>
       <c r="E1145" t="n">
@@ -39301,7 +39301,7 @@
         <v>0</v>
       </c>
       <c r="H1145" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1146">
@@ -39317,12 +39317,12 @@
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+          <t>Gobierno Regional de Los Lagos (Gore Los Lagos)</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>AB084</t>
+          <t>AB087</t>
         </is>
       </c>
       <c r="E1146" t="n">
@@ -39335,7 +39335,7 @@
         <v>0</v>
       </c>
       <c r="H1146" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1147">
@@ -39351,24 +39351,58 @@
       </c>
       <c r="C1147" t="inlineStr">
         <is>
+          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+        </is>
+      </c>
+      <c r="D1147" t="inlineStr">
+        <is>
+          <t>AB084</t>
+        </is>
+      </c>
+      <c r="E1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>2024/04/12</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
           <t>Municipalidad de Santo Domingo</t>
         </is>
       </c>
-      <c r="D1147" t="inlineStr">
+      <c r="D1148" t="inlineStr">
         <is>
           <t>MU309</t>
         </is>
       </c>
-      <c r="E1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1147" t="n">
+      <c r="E1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1148" t="n">
         <v>18</v>
       </c>
     </row>

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1159"/>
+  <dimension ref="A1:H1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -892,7 +892,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>743</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Subsecretaría de Relaciones Exteriores (MINREL)</t>
+          <t>Oficina de Atención</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>108647</v>
+        <v>109387</v>
       </c>
     </row>
     <row r="72">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>3725</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="83">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2778</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="91">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>828</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="92">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3839,7 +3839,7 @@
         <v>3</v>
       </c>
       <c r="H102" t="n">
-        <v>2112</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>4142</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="109">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4394,7 +4394,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="121">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1315</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="123">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4547,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5199,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="H142" t="n">
-        <v>4709</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="143">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
     <row r="146">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="H147" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5573,7 +5573,7 @@
         <v>81</v>
       </c>
       <c r="H153" t="n">
-        <v>57095</v>
+        <v>58002</v>
       </c>
     </row>
     <row r="154">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2024/05/01</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>20130</v>
+        <v>20412</v>
       </c>
     </row>
     <row r="157">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>712</v>
+        <v>729</v>
       </c>
     </row>
     <row r="158">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>4062</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="167">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>27</v>
       </c>
       <c r="H190" t="n">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="191">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>309</v>
+        <v>398</v>
       </c>
     </row>
     <row r="193">
@@ -7386,7 +7386,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>16879</v>
+        <v>16969</v>
       </c>
     </row>
     <row r="208">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>1792</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="228">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>1092</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="249">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="n">
-        <v>1758</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="255">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -9290,7 +9290,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="264">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9562,7 +9562,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>2355</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="272">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>3</v>
       </c>
       <c r="H276" t="n">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="277">
@@ -9766,7 +9766,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2024/04/06</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="278">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>395</v>
+        <v>424</v>
       </c>
     </row>
     <row r="288">
@@ -10344,7 +10344,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>422</v>
+        <v>455</v>
       </c>
     </row>
     <row r="295">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -10503,7 +10503,7 @@
         <v>12</v>
       </c>
       <c r="H298" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="299">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>543</v>
+        <v>585</v>
       </c>
     </row>
     <row r="302">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="334">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="338">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>224</v>
       </c>
       <c r="H340" t="n">
-        <v>8458</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="341">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>7130</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="350">
@@ -12282,7 +12282,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="352">
@@ -12520,7 +12520,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12543,7 +12543,7 @@
         <v>6</v>
       </c>
       <c r="H358" t="n">
-        <v>1889</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="359">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12577,7 +12577,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="360">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12611,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="H360" t="n">
-        <v>377</v>
+        <v>404</v>
       </c>
     </row>
     <row r="361">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>30068</v>
+        <v>30589</v>
       </c>
     </row>
     <row r="379">
@@ -13642,7 +13642,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v>10</v>
       </c>
       <c r="H391" t="n">
-        <v>52707</v>
+        <v>53204</v>
       </c>
     </row>
     <row r="392">
@@ -13710,7 +13710,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>2</v>
       </c>
       <c r="H402" t="n">
-        <v>23631</v>
+        <v>23688</v>
       </c>
     </row>
     <row r="403">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="424">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="435">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="439">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>450</v>
       </c>
       <c r="H446" t="n">
-        <v>5648</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="447">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>2074</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="452">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="461">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H464" t="n">
-        <v>473</v>
+        <v>515</v>
       </c>
     </row>
     <row r="465">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>462</v>
+        <v>477</v>
       </c>
     </row>
     <row r="472">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="481">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>3</v>
       </c>
       <c r="H488" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="489">
@@ -17042,7 +17042,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="H492" t="n">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="493">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="496">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>1</v>
       </c>
       <c r="H499" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="500">
@@ -17518,7 +17518,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/04</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>678</v>
+        <v>744</v>
       </c>
     </row>
     <row r="506">
@@ -17892,7 +17892,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -18153,7 +18153,7 @@
         <v>62</v>
       </c>
       <c r="H523" t="n">
-        <v>16037</v>
+        <v>16185</v>
       </c>
     </row>
     <row r="524">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18289,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>7185</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="528">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="n">
-        <v>933</v>
+        <v>948</v>
       </c>
     </row>
     <row r="534">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18654,16 +18654,16 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>183</v>
+        <v>694</v>
       </c>
       <c r="F538" t="n">
         <v>45</v>
       </c>
       <c r="G538" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H538" t="n">
-        <v>4945</v>
+        <v>13868</v>
       </c>
     </row>
     <row r="539">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18742,7 +18742,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="n">
-        <v>5544</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="542">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>3</v>
       </c>
       <c r="H544" t="n">
-        <v>1420</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="545">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="n">
-        <v>1949</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="561">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="n">
-        <v>2470</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="565">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>21</v>
       </c>
       <c r="H573" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="574">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>1107</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="582">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -20408,7 +20408,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="n">
-        <v>2539</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="591">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="H591" t="n">
-        <v>3646</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="592">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20499,7 +20499,7 @@
         <v>3</v>
       </c>
       <c r="H592" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="593">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>4</v>
       </c>
       <c r="H593" t="n">
-        <v>2087</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="H596" t="n">
-        <v>2067</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="597">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>18</v>
       </c>
       <c r="H610" t="n">
-        <v>4415</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="611">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>1</v>
       </c>
       <c r="H614" t="n">
-        <v>6855</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="615">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>24</v>
       </c>
       <c r="H615" t="n">
-        <v>16410</v>
+        <v>16626</v>
       </c>
     </row>
     <row r="616">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -21451,7 +21451,7 @@
         <v>7</v>
       </c>
       <c r="H620" t="n">
-        <v>24901</v>
+        <v>24939</v>
       </c>
     </row>
     <row r="621">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>6</v>
       </c>
       <c r="H623" t="n">
-        <v>12266</v>
+        <v>12281</v>
       </c>
     </row>
     <row r="624">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/04</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>209</v>
       </c>
       <c r="H638" t="n">
-        <v>30155</v>
+        <v>30206</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>13404</v>
+        <v>13439</v>
       </c>
     </row>
     <row r="640">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>0</v>
       </c>
       <c r="H641" t="n">
-        <v>7128</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="642">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>0</v>
       </c>
       <c r="H645" t="n">
-        <v>2134</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="646">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -22369,7 +22369,7 @@
         <v>8</v>
       </c>
       <c r="H647" t="n">
-        <v>5964</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="648">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22879,7 +22879,7 @@
         <v>2</v>
       </c>
       <c r="H662" t="n">
-        <v>6777</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="663">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>5447</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="671">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>1</v>
       </c>
       <c r="H671" t="n">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="672">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>1</v>
       </c>
       <c r="H673" t="n">
-        <v>1499</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="674">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23287,7 +23287,7 @@
         <v>4</v>
       </c>
       <c r="H674" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="675">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -23389,7 +23389,7 @@
         <v>9</v>
       </c>
       <c r="H677" t="n">
-        <v>12056</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="678">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>2</v>
       </c>
       <c r="H678" t="n">
-        <v>2275</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="679">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="H679" t="n">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="680">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>7</v>
       </c>
       <c r="H680" t="n">
-        <v>4218</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="681">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>4456</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="686">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -23967,7 +23967,7 @@
         <v>1</v>
       </c>
       <c r="H694" t="n">
-        <v>5569</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="695">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24001,7 +24001,7 @@
         <v>5</v>
       </c>
       <c r="H695" t="n">
-        <v>7509</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="696">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>5430</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="698">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24137,7 +24137,7 @@
         <v>0</v>
       </c>
       <c r="H699" t="n">
-        <v>1596</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="700">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>5</v>
       </c>
       <c r="H700" t="n">
-        <v>3786</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="701">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="H704" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="705">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>17</v>
       </c>
       <c r="H707" t="n">
-        <v>9153</v>
+        <v>9157</v>
       </c>
     </row>
     <row r="708">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>1</v>
       </c>
       <c r="H714" t="n">
-        <v>1413</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="715">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="H717" t="n">
-        <v>189</v>
+        <v>255</v>
       </c>
     </row>
     <row r="718">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -25066,7 +25066,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="H727" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="728">
@@ -25168,7 +25168,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -25304,7 +25304,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H734" t="n">
-        <v>3419</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="735">
@@ -25406,7 +25406,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2024/02/16</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -25429,7 +25429,7 @@
         <v>57</v>
       </c>
       <c r="H737" t="n">
-        <v>12920</v>
+        <v>13141</v>
       </c>
     </row>
     <row r="738">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="742">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
       <c r="H744" t="n">
-        <v>2469</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="745">
@@ -25678,7 +25678,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -25701,7 +25701,7 @@
         <v>0</v>
       </c>
       <c r="H745" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="746">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25905,7 +25905,7 @@
         <v>34</v>
       </c>
       <c r="H751" t="n">
-        <v>8173</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="752">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -26041,7 +26041,7 @@
         <v>49</v>
       </c>
       <c r="H755" t="n">
-        <v>20000</v>
+        <v>20154</v>
       </c>
     </row>
     <row r="756">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="H757" t="n">
-        <v>18866</v>
+        <v>19040</v>
       </c>
     </row>
     <row r="758">
@@ -26154,7 +26154,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -26177,7 +26177,7 @@
         <v>0</v>
       </c>
       <c r="H759" t="n">
-        <v>5086</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="760">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -26279,7 +26279,7 @@
         <v>23</v>
       </c>
       <c r="H762" t="n">
-        <v>5251</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="763">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -26857,7 +26857,7 @@
         <v>1</v>
       </c>
       <c r="H779" t="n">
-        <v>24844</v>
+        <v>25154</v>
       </c>
     </row>
     <row r="780">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -26891,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>5152</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="781">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27095,7 +27095,7 @@
         <v>9</v>
       </c>
       <c r="H786" t="n">
-        <v>5007</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="787">
@@ -27140,7 +27140,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="H788" t="n">
-        <v>1388</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="789">
@@ -27242,7 +27242,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -27265,7 +27265,7 @@
         <v>0</v>
       </c>
       <c r="H791" t="n">
-        <v>1648</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="792">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="H798" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="799">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -27571,7 +27571,7 @@
         <v>3</v>
       </c>
       <c r="H800" t="n">
-        <v>16840</v>
+        <v>16851</v>
       </c>
     </row>
     <row r="801">
@@ -27820,7 +27820,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -27843,7 +27843,7 @@
         <v>40</v>
       </c>
       <c r="H808" t="n">
-        <v>24103</v>
+        <v>24212</v>
       </c>
     </row>
     <row r="809">
@@ -27854,7 +27854,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -27877,7 +27877,7 @@
         <v>0</v>
       </c>
       <c r="H809" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="810">
@@ -27990,7 +27990,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -28013,7 +28013,7 @@
         <v>19</v>
       </c>
       <c r="H813" t="n">
-        <v>10342</v>
+        <v>10369</v>
       </c>
     </row>
     <row r="814">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>1161</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="816">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="H819" t="n">
-        <v>8634</v>
+        <v>8682</v>
       </c>
     </row>
     <row r="820">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -28319,7 +28319,7 @@
         <v>9</v>
       </c>
       <c r="H822" t="n">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="823">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28353,7 +28353,7 @@
         <v>0</v>
       </c>
       <c r="H823" t="n">
-        <v>1124</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="824">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -28455,7 +28455,7 @@
         <v>4</v>
       </c>
       <c r="H826" t="n">
-        <v>7793</v>
+        <v>8257</v>
       </c>
     </row>
     <row r="827">
@@ -28500,7 +28500,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="H828" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="829">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="834">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
       <c r="H837" t="n">
-        <v>1098</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="838">
@@ -28908,7 +28908,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -28931,7 +28931,7 @@
         <v>0</v>
       </c>
       <c r="H840" t="n">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="841">
@@ -28942,7 +28942,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29033,7 +29033,7 @@
         <v>0</v>
       </c>
       <c r="H843" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="844">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="H846" t="n">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="847">
@@ -29180,7 +29180,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -29214,7 +29214,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -29237,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="H849" t="n">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="850">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -29611,7 +29611,7 @@
         <v>0</v>
       </c>
       <c r="H860" t="n">
-        <v>828</v>
+        <v>836</v>
       </c>
     </row>
     <row r="861">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -29679,7 +29679,7 @@
         <v>0</v>
       </c>
       <c r="H862" t="n">
-        <v>904</v>
+        <v>912</v>
       </c>
     </row>
     <row r="863">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -29781,7 +29781,7 @@
         <v>0</v>
       </c>
       <c r="H865" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="866">
@@ -29826,7 +29826,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="H867" t="n">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="868">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="870">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="H870" t="n">
-        <v>871</v>
+        <v>881</v>
       </c>
     </row>
     <row r="871">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="873">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="878">
@@ -30200,7 +30200,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="H878" t="n">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="879">
@@ -30336,7 +30336,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="H882" t="n">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="883">
@@ -30608,7 +30608,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -30631,7 +30631,7 @@
         <v>0</v>
       </c>
       <c r="H890" t="n">
-        <v>1115</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="891">
@@ -30982,7 +30982,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -31005,7 +31005,7 @@
         <v>0</v>
       </c>
       <c r="H901" t="n">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="902">
@@ -31084,7 +31084,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
       <c r="H904" t="n">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="905">
@@ -31186,7 +31186,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -31209,7 +31209,7 @@
         <v>0</v>
       </c>
       <c r="H907" t="n">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="908">
@@ -31220,7 +31220,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -31243,7 +31243,7 @@
         <v>0</v>
       </c>
       <c r="H908" t="n">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="909">
@@ -31322,7 +31322,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -31345,7 +31345,7 @@
         <v>9</v>
       </c>
       <c r="H911" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="912">
@@ -31424,7 +31424,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -31447,7 +31447,7 @@
         <v>0</v>
       </c>
       <c r="H914" t="n">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="915">
@@ -31492,7 +31492,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="H916" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="917">
@@ -31628,7 +31628,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -31651,7 +31651,7 @@
         <v>0</v>
       </c>
       <c r="H920" t="n">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="921">
@@ -31832,7 +31832,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -31855,7 +31855,7 @@
         <v>0</v>
       </c>
       <c r="H926" t="n">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="927">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -31889,7 +31889,7 @@
         <v>0</v>
       </c>
       <c r="H927" t="n">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
     <row r="928">
@@ -31934,7 +31934,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -31957,7 +31957,7 @@
         <v>0</v>
       </c>
       <c r="H929" t="n">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="930">
@@ -32308,7 +32308,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -32331,7 +32331,7 @@
         <v>0</v>
       </c>
       <c r="H940" t="n">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="941">
@@ -32444,7 +32444,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="H944" t="n">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="945">
@@ -32478,7 +32478,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -32501,7 +32501,7 @@
         <v>21</v>
       </c>
       <c r="H945" t="n">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="946">
@@ -32512,7 +32512,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -32535,7 +32535,7 @@
         <v>0</v>
       </c>
       <c r="H946" t="n">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="947">
@@ -32546,7 +32546,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -32569,7 +32569,7 @@
         <v>0</v>
       </c>
       <c r="H947" t="n">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="948">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -32637,7 +32637,7 @@
         <v>0</v>
       </c>
       <c r="H949" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="950">
@@ -32818,7 +32818,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -32841,7 +32841,7 @@
         <v>0</v>
       </c>
       <c r="H955" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="956">
@@ -33022,7 +33022,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -33045,7 +33045,7 @@
         <v>0</v>
       </c>
       <c r="H961" t="n">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="962">
@@ -33192,7 +33192,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -33215,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="H966" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="967">
@@ -33294,7 +33294,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -33317,7 +33317,7 @@
         <v>0</v>
       </c>
       <c r="H969" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="970">
@@ -33430,7 +33430,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -33453,7 +33453,7 @@
         <v>0</v>
       </c>
       <c r="H973" t="n">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="974">
@@ -33532,7 +33532,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -33668,7 +33668,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -33736,7 +33736,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -33759,7 +33759,7 @@
         <v>0</v>
       </c>
       <c r="H982" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="983">
@@ -33974,7 +33974,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -33997,7 +33997,7 @@
         <v>0</v>
       </c>
       <c r="H989" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="990">
@@ -34008,7 +34008,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -34031,7 +34031,7 @@
         <v>0</v>
       </c>
       <c r="H990" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="991">
@@ -34042,7 +34042,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -34065,7 +34065,7 @@
         <v>0</v>
       </c>
       <c r="H991" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="992">
@@ -34144,7 +34144,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -34167,7 +34167,7 @@
         <v>0</v>
       </c>
       <c r="H994" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="995">
@@ -34178,7 +34178,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="H995" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="996">
@@ -34212,7 +34212,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -34235,7 +34235,7 @@
         <v>0</v>
       </c>
       <c r="H996" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="997">
@@ -34246,7 +34246,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -34269,7 +34269,7 @@
         <v>0</v>
       </c>
       <c r="H997" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="998">
@@ -34280,7 +34280,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -34303,7 +34303,7 @@
         <v>0</v>
       </c>
       <c r="H998" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="999">
@@ -34348,7 +34348,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -34371,7 +34371,7 @@
         <v>0</v>
       </c>
       <c r="H1000" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1001">
@@ -34620,7 +34620,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -34643,7 +34643,7 @@
         <v>0</v>
       </c>
       <c r="H1008" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1009">
@@ -34654,7 +34654,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -34677,7 +34677,7 @@
         <v>0</v>
       </c>
       <c r="H1009" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1010">
@@ -34858,7 +34858,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -34994,7 +34994,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="H1019" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1020">
@@ -35028,7 +35028,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -35051,7 +35051,7 @@
         <v>0</v>
       </c>
       <c r="H1020" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1021">
@@ -35198,7 +35198,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -35266,7 +35266,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -35289,7 +35289,7 @@
         <v>0</v>
       </c>
       <c r="H1027" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1028">
@@ -35334,7 +35334,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -35357,7 +35357,7 @@
         <v>0</v>
       </c>
       <c r="H1029" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1030">
@@ -35538,7 +35538,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -35561,7 +35561,7 @@
         <v>0</v>
       </c>
       <c r="H1035" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1036">
@@ -35572,7 +35572,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -35595,7 +35595,7 @@
         <v>0</v>
       </c>
       <c r="H1036" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1037">
@@ -35674,7 +35674,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -35697,7 +35697,7 @@
         <v>0</v>
       </c>
       <c r="H1039" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1040">
@@ -35742,7 +35742,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="H1041" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1042">
@@ -35776,7 +35776,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -35799,7 +35799,7 @@
         <v>0</v>
       </c>
       <c r="H1042" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1043">
@@ -35844,7 +35844,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -35867,7 +35867,7 @@
         <v>0</v>
       </c>
       <c r="H1044" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1045">
@@ -35912,17 +35912,17 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>Comisión Administradora del Sistema de Créditos para Estudios Superiores (INGRESA)</t>
+          <t>Hospital Padre Hurtado</t>
         </is>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>AJ004</t>
+          <t>AO013</t>
         </is>
       </c>
       <c r="E1046" t="n">
@@ -35935,7 +35935,7 @@
         <v>0</v>
       </c>
       <c r="H1046" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1047">
@@ -35946,17 +35946,17 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>Hospital Padre Hurtado</t>
+          <t>Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>AO013</t>
+          <t>MU286</t>
         </is>
       </c>
       <c r="E1047" t="n">
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="H1047" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1048">
@@ -35980,17 +35980,17 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>Municipalidad de San Felipe</t>
+          <t>Municipalidad de San Javier</t>
         </is>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
-          <t>MU286</t>
+          <t>MU290</t>
         </is>
       </c>
       <c r="E1048" t="n">
@@ -36003,7 +36003,7 @@
         <v>0</v>
       </c>
       <c r="H1048" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1049">
@@ -36014,17 +36014,17 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>Municipalidad de San Javier</t>
+          <t>Corporación de Deportes y Recreación de San Javier Loncomilla</t>
         </is>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
-          <t>MU290</t>
+          <t>CM230</t>
         </is>
       </c>
       <c r="E1049" t="n">
@@ -36037,7 +36037,7 @@
         <v>0</v>
       </c>
       <c r="H1049" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1050">
@@ -36048,17 +36048,17 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>Corporación de Deportes y Recreación de San Javier Loncomilla</t>
+          <t>Municipalidad de San Ramón</t>
         </is>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
-          <t>CM230</t>
+          <t>MU301</t>
         </is>
       </c>
       <c r="E1050" t="n">
@@ -36071,7 +36071,7 @@
         <v>0</v>
       </c>
       <c r="H1050" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1051">
@@ -36082,17 +36082,17 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ramón</t>
+          <t>Dirección de Compras y Contratación Pública (CHILECOMPRA)</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
-          <t>MU301</t>
+          <t>AE011</t>
         </is>
       </c>
       <c r="E1051" t="n">
@@ -36105,7 +36105,7 @@
         <v>0</v>
       </c>
       <c r="H1051" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -36116,17 +36116,17 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>Dirección de Compras y Contratación Pública (CHILECOMPRA)</t>
+          <t>Corporación de Fomento de la Producción (CORFO)</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
-          <t>AE011</t>
+          <t>AH004</t>
         </is>
       </c>
       <c r="E1052" t="n">
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1053">
@@ -36150,17 +36150,17 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>Corporación de Fomento de la Producción (CORFO)</t>
+          <t>Subsecretaría de Prevención del Delito</t>
         </is>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>AH004</t>
+          <t>AB091</t>
         </is>
       </c>
       <c r="E1053" t="n">
@@ -36173,7 +36173,7 @@
         <v>0</v>
       </c>
       <c r="H1053" t="n">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1054">
@@ -36184,17 +36184,17 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>Subsecretaría de Prevención del Delito</t>
+          <t>Municipalidad de Peñalolén</t>
         </is>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>AB091</t>
+          <t>MU212</t>
         </is>
       </c>
       <c r="E1054" t="n">
@@ -36207,7 +36207,7 @@
         <v>0</v>
       </c>
       <c r="H1054" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1055">
@@ -36218,17 +36218,17 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñalolén</t>
+          <t>Municipalidad de San Esteban</t>
         </is>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>MU212</t>
+          <t>MU284</t>
         </is>
       </c>
       <c r="E1055" t="n">
@@ -36241,7 +36241,7 @@
         <v>0</v>
       </c>
       <c r="H1055" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1056">
@@ -36252,17 +36252,17 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>Municipalidad de San Esteban</t>
+          <t>Municipalidad de San Pedro De La Paz</t>
         </is>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
-          <t>MU284</t>
+          <t>MU299</t>
         </is>
       </c>
       <c r="E1056" t="n">
@@ -36275,7 +36275,7 @@
         <v>0</v>
       </c>
       <c r="H1056" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1057">
@@ -36286,17 +36286,17 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>Municipalidad de San Pedro De La Paz</t>
+          <t>Municipalidad de Futrono</t>
         </is>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
-          <t>MU299</t>
+          <t>MU096</t>
         </is>
       </c>
       <c r="E1057" t="n">
@@ -36309,7 +36309,7 @@
         <v>0</v>
       </c>
       <c r="H1057" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1058">
@@ -36320,17 +36320,17 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>Municipalidad de Futrono</t>
+          <t>Municipalidad de Los Andes</t>
         </is>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
-          <t>MU096</t>
+          <t>MU152</t>
         </is>
       </c>
       <c r="E1058" t="n">
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="H1058" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1059">
@@ -36354,17 +36354,17 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Andes</t>
+          <t>Municipalidad de Lo Barnechea</t>
         </is>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>MU152</t>
+          <t>MU144</t>
         </is>
       </c>
       <c r="E1059" t="n">
@@ -36377,7 +36377,7 @@
         <v>0</v>
       </c>
       <c r="H1059" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1060">
@@ -36388,17 +36388,17 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Barnechea</t>
+          <t>Superintendencia de Electricidad y Combustibles (SEC)</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>MU144</t>
+          <t>AU004</t>
         </is>
       </c>
       <c r="E1060" t="n">
@@ -36411,7 +36411,7 @@
         <v>0</v>
       </c>
       <c r="H1060" t="n">
-        <v>32</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1061">
@@ -36422,17 +36422,17 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>Superintendencia de Electricidad y Combustibles (SEC)</t>
+          <t>Municipalidad de Zapallar</t>
         </is>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
-          <t>AU004</t>
+          <t>MU345</t>
         </is>
       </c>
       <c r="E1061" t="n">
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="H1061" t="n">
-        <v>161</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1062">
@@ -36456,17 +36456,17 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>Municipalidad de Zapallar</t>
+          <t>Subsecretaría de Justicia</t>
         </is>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>MU345</t>
+          <t>AK001</t>
         </is>
       </c>
       <c r="E1062" t="n">
@@ -36479,7 +36479,7 @@
         <v>0</v>
       </c>
       <c r="H1062" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1063">
@@ -36490,17 +36490,17 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>Subsecretaría de Justicia</t>
+          <t>Municipalidad de OHiggins</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>AK001</t>
+          <t>MU187</t>
         </is>
       </c>
       <c r="E1063" t="n">
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="H1063" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1064">
@@ -36524,17 +36524,17 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>Municipalidad de OHiggins</t>
+          <t>Comisión Chilena del Cobre (COCHILCO)</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>MU187</t>
+          <t>AS002</t>
         </is>
       </c>
       <c r="E1064" t="n">
@@ -36547,7 +36547,7 @@
         <v>0</v>
       </c>
       <c r="H1064" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1065">
@@ -36558,17 +36558,17 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>Comisión Chilena del Cobre (COCHILCO)</t>
+          <t>Municipalidad de Olmué</t>
         </is>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>AS002</t>
+          <t>MU190</t>
         </is>
       </c>
       <c r="E1065" t="n">
@@ -36581,7 +36581,7 @@
         <v>0</v>
       </c>
       <c r="H1065" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1066">
@@ -36592,17 +36592,17 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>Municipalidad de Olmué</t>
+          <t>Municipalidad de Rengo</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>MU190</t>
+          <t>MU266</t>
         </is>
       </c>
       <c r="E1066" t="n">
@@ -36615,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="H1066" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1067">
@@ -36626,17 +36626,17 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>Municipalidad de Rengo</t>
+          <t>Gobierno Regional del Maule (Gore Maule)</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>MU266</t>
+          <t>AB083</t>
         </is>
       </c>
       <c r="E1067" t="n">
@@ -36649,7 +36649,7 @@
         <v>0</v>
       </c>
       <c r="H1067" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1068">
@@ -36660,17 +36660,17 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Maule (Gore Maule)</t>
+          <t>Dirección General de Concesiones (DGC)</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
-          <t>AB083</t>
+          <t>AM014</t>
         </is>
       </c>
       <c r="E1068" t="n">
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="H1068" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1069">
@@ -36694,17 +36694,17 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>Dirección General de Concesiones (DGC)</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
-          <t>AM014</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E1069" t="n">
@@ -36733,12 +36733,12 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Municipalidad de Colina</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>MU057</t>
         </is>
       </c>
       <c r="E1070" t="n">
@@ -36751,7 +36751,7 @@
         <v>0</v>
       </c>
       <c r="H1070" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1071">
@@ -36762,17 +36762,17 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>Municipalidad de Colina</t>
+          <t>Municipalidad de San José de Maipo</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>MU057</t>
+          <t>MU292</t>
         </is>
       </c>
       <c r="E1071" t="n">
@@ -36785,7 +36785,7 @@
         <v>0</v>
       </c>
       <c r="H1071" t="n">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1072">
@@ -36796,17 +36796,17 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>Municipalidad de San José de Maipo</t>
+          <t>Gobierno Regional de Aysén (GORE Aysén)</t>
         </is>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>MU292</t>
+          <t>AB088</t>
         </is>
       </c>
       <c r="E1072" t="n">
@@ -36819,7 +36819,7 @@
         <v>0</v>
       </c>
       <c r="H1072" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1073">
@@ -36830,17 +36830,17 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Aysén (GORE Aysén)</t>
+          <t>Asociación de Municipalidades de la Provincia de Arauco</t>
         </is>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>AB088</t>
+          <t>MA015</t>
         </is>
       </c>
       <c r="E1073" t="n">
@@ -36853,7 +36853,7 @@
         <v>0</v>
       </c>
       <c r="H1073" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1074">
@@ -36864,17 +36864,17 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Arauco</t>
+          <t>Subsecretaria de Evaluación Social</t>
         </is>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>MA015</t>
+          <t>AI001</t>
         </is>
       </c>
       <c r="E1074" t="n">
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="H1074" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -36898,17 +36898,17 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
         <is>
-          <t>Subsecretaria de Evaluación Social</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>AI001</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="E1075" t="n">
@@ -36921,7 +36921,7 @@
         <v>0</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1076">
@@ -36932,17 +36932,17 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>MU283</t>
         </is>
       </c>
       <c r="E1076" t="n">
@@ -36955,7 +36955,7 @@
         <v>0</v>
       </c>
       <c r="H1076" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1077">
@@ -36966,17 +36966,17 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Municipalidad de San Clemente</t>
+          <t>Municipalidad de Licantén</t>
         </is>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
-          <t>MU283</t>
+          <t>MU138</t>
         </is>
       </c>
       <c r="E1077" t="n">
@@ -37000,17 +37000,17 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
         <is>
-          <t>Municipalidad de Licantén</t>
+          <t>Municipalidad de Quemchi</t>
         </is>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>MU138</t>
+          <t>MU248</t>
         </is>
       </c>
       <c r="E1078" t="n">
@@ -37023,7 +37023,7 @@
         <v>0</v>
       </c>
       <c r="H1078" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1079">
@@ -37034,17 +37034,17 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t>Municipalidad de Quemchi</t>
+          <t>SEREMI de Salud de OHiggins</t>
         </is>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
-          <t>MU248</t>
+          <t>AO046</t>
         </is>
       </c>
       <c r="E1079" t="n">
@@ -37057,7 +37057,7 @@
         <v>0</v>
       </c>
       <c r="H1079" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -37068,17 +37068,17 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de OHiggins</t>
+          <t>Municipalidad de Lo Espejo</t>
         </is>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>AO046</t>
+          <t>MU145</t>
         </is>
       </c>
       <c r="E1080" t="n">
@@ -37091,7 +37091,7 @@
         <v>0</v>
       </c>
       <c r="H1080" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1081">
@@ -37102,17 +37102,17 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Espejo</t>
+          <t>Sistema de Empresas  SEP</t>
         </is>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>MU145</t>
+          <t>EP025</t>
         </is>
       </c>
       <c r="E1081" t="n">
@@ -37125,7 +37125,7 @@
         <v>0</v>
       </c>
       <c r="H1081" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1082">
@@ -37136,17 +37136,17 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t>Sistema de Empresas  SEP</t>
+          <t>Subsecretaría de Salud Pública (MINSAL)</t>
         </is>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>EP025</t>
+          <t>AO001</t>
         </is>
       </c>
       <c r="E1082" t="n">
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="H1082" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1083">
@@ -37170,17 +37170,17 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
         <is>
-          <t>Subsecretaría de Salud Pública (MINSAL)</t>
+          <t>Subsecretaría de Desarrollo Regional y Administrativo (SUBDERE)</t>
         </is>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>AO001</t>
+          <t>AB002</t>
         </is>
       </c>
       <c r="E1083" t="n">
@@ -37193,7 +37193,7 @@
         <v>0</v>
       </c>
       <c r="H1083" t="n">
-        <v>4</v>
+        <v>83</v>
       </c>
     </row>
     <row r="1084">
@@ -37204,17 +37204,17 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
         <is>
-          <t>Subsecretaría de Desarrollo Regional y Administrativo (SUBDERE)</t>
+          <t>Municipalidad de Cerrillos</t>
         </is>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>AB002</t>
+          <t>MU034</t>
         </is>
       </c>
       <c r="E1084" t="n">
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="H1084" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1085">
@@ -37238,17 +37238,17 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t>Municipalidad de Cerrillos</t>
+          <t>Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
-          <t>MU034</t>
+          <t>MU289</t>
         </is>
       </c>
       <c r="E1085" t="n">
@@ -37261,7 +37261,7 @@
         <v>0</v>
       </c>
       <c r="H1085" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1086">
@@ -37277,12 +37277,12 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ignacio</t>
+          <t>Municipalidad de Coelemu</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
-          <t>MU289</t>
+          <t>MU052</t>
         </is>
       </c>
       <c r="E1086" t="n">
@@ -37306,17 +37306,17 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
         <is>
-          <t>Municipalidad de Coelemu</t>
+          <t>Parque Metropolitano de Santiago</t>
         </is>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>MU052</t>
+          <t>AP017</t>
         </is>
       </c>
       <c r="E1087" t="n">
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="H1087" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -37340,17 +37340,17 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>Parque Metropolitano de Santiago</t>
+          <t>Municipalidad de Valparaíso</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>AP017</t>
+          <t>MU332</t>
         </is>
       </c>
       <c r="E1088" t="n">
@@ -37363,7 +37363,7 @@
         <v>0</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1089">
@@ -37374,17 +37374,17 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
         <is>
-          <t>Municipalidad de Valparaíso</t>
+          <t>Municipalidad de Máfil</t>
         </is>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>MU332</t>
+          <t>MU162</t>
         </is>
       </c>
       <c r="E1089" t="n">
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="H1089" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1090">
@@ -37408,17 +37408,17 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
         <is>
-          <t>Municipalidad de Máfil</t>
+          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
         </is>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>MU162</t>
+          <t>AB089</t>
         </is>
       </c>
       <c r="E1090" t="n">
@@ -37431,7 +37431,7 @@
         <v>0</v>
       </c>
       <c r="H1090" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1091">
@@ -37442,17 +37442,17 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
+          <t>Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
-          <t>AB089</t>
+          <t>MU007</t>
         </is>
       </c>
       <c r="E1091" t="n">
@@ -37465,7 +37465,7 @@
         <v>0</v>
       </c>
       <c r="H1091" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1092">
@@ -37476,17 +37476,17 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
         <is>
-          <t>Municipalidad de Andacollo</t>
+          <t>SEREMI de Salud de Los Ríos</t>
         </is>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>MU007</t>
+          <t>AO050</t>
         </is>
       </c>
       <c r="E1092" t="n">
@@ -37499,7 +37499,7 @@
         <v>0</v>
       </c>
       <c r="H1092" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1093">
@@ -37510,17 +37510,17 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de Los Ríos</t>
+          <t>Municipalidad de Quilpué</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>AO050</t>
+          <t>MU254</t>
         </is>
       </c>
       <c r="E1093" t="n">
@@ -37533,7 +37533,7 @@
         <v>0</v>
       </c>
       <c r="H1093" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1094">
@@ -37544,17 +37544,17 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Municipalidad de Quilpué</t>
+          <t>Municipalidad de San Antonio</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>MU254</t>
+          <t>MU280</t>
         </is>
       </c>
       <c r="E1094" t="n">
@@ -37567,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="H1094" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1095">
@@ -37578,17 +37578,17 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Municipalidad de San Antonio</t>
+          <t>Municipalidad de Quillota</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>MU280</t>
+          <t>MU253</t>
         </is>
       </c>
       <c r="E1095" t="n">
@@ -37601,7 +37601,7 @@
         <v>0</v>
       </c>
       <c r="H1095" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1096">
@@ -37612,17 +37612,17 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Municipalidad de Quillota</t>
+          <t>Municipalidad de Malloa</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>MU253</t>
+          <t>MU164</t>
         </is>
       </c>
       <c r="E1096" t="n">
@@ -37646,17 +37646,17 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Municipalidad de Malloa</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>MU164</t>
+          <t>MU339</t>
         </is>
       </c>
       <c r="E1097" t="n">
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="H1097" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1098">
@@ -37680,17 +37680,17 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Municipalidad de Río Ibáñez</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>MU339</t>
+          <t>MU273</t>
         </is>
       </c>
       <c r="E1098" t="n">
@@ -37714,17 +37714,17 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Ibáñez</t>
+          <t>SEREMI de Vivienda y Urbanismo Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>MU273</t>
+          <t>AP034</t>
         </is>
       </c>
       <c r="E1099" t="n">
@@ -37737,7 +37737,7 @@
         <v>0</v>
       </c>
       <c r="H1099" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1100">
@@ -37748,17 +37748,17 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo Región de Magallanes y Antártica Chilena</t>
+          <t>Municipalidad de Pitrufquén</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>AP034</t>
+          <t>MU222</t>
         </is>
       </c>
       <c r="E1100" t="n">
@@ -37771,7 +37771,7 @@
         <v>0</v>
       </c>
       <c r="H1100" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1101">
@@ -37782,17 +37782,17 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Municipalidad de Pitrufquén</t>
+          <t>Municipalidad de Nogales</t>
         </is>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>MU222</t>
+          <t>MU183</t>
         </is>
       </c>
       <c r="E1101" t="n">
@@ -37805,7 +37805,7 @@
         <v>0</v>
       </c>
       <c r="H1101" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1102">
@@ -37816,17 +37816,17 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Municipalidad de Nogales</t>
+          <t>Municipalidad de Molina</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>MU183</t>
+          <t>MU174</t>
         </is>
       </c>
       <c r="E1102" t="n">
@@ -37839,7 +37839,7 @@
         <v>0</v>
       </c>
       <c r="H1102" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1103">
@@ -37850,17 +37850,17 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Municipalidad de Molina</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>MU174</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E1103" t="n">
@@ -37873,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="H1103" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1104">
@@ -37884,17 +37884,17 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Melipeuco</t>
         </is>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU172</t>
         </is>
       </c>
       <c r="E1104" t="n">
@@ -37907,7 +37907,7 @@
         <v>0</v>
       </c>
       <c r="H1104" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1105">
@@ -37918,17 +37918,17 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>Municipalidad de Melipeuco</t>
+          <t>Municipalidad de Diego de Almagro</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t>MU172</t>
+          <t>MU080</t>
         </is>
       </c>
       <c r="E1105" t="n">
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="H1105" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1106">
@@ -37952,17 +37952,17 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/02/17</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Municipalidad de Diego de Almagro</t>
+          <t>Servicio de Salud Antofagasta</t>
         </is>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>MU080</t>
+          <t>AO018</t>
         </is>
       </c>
       <c r="E1106" t="n">
@@ -37975,7 +37975,7 @@
         <v>0</v>
       </c>
       <c r="H1106" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1107">
@@ -37986,17 +37986,17 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Servicio de Salud Antofagasta</t>
+          <t>Municipalidad de Talca</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>AO018</t>
+          <t>MU312</t>
         </is>
       </c>
       <c r="E1107" t="n">
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="H1107" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1108">
@@ -38020,17 +38020,17 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Municipalidad de Talca</t>
+          <t>Superintendencia de Educación Dirección Nacional</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>MU312</t>
+          <t>AJ011</t>
         </is>
       </c>
       <c r="E1108" t="n">
@@ -38043,7 +38043,7 @@
         <v>0</v>
       </c>
       <c r="H1108" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -38054,17 +38054,17 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Superintendencia de Educación Dirección Nacional</t>
+          <t>Corporación Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>AJ011</t>
+          <t>CM044</t>
         </is>
       </c>
       <c r="E1109" t="n">
@@ -38077,7 +38077,7 @@
         <v>0</v>
       </c>
       <c r="H1109" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1110">
@@ -38088,17 +38088,17 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Puente Alto</t>
+          <t>SEREMI de Salud  de Antofagasta</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>CM044</t>
+          <t>AO041</t>
         </is>
       </c>
       <c r="E1110" t="n">
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="H1110" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1111">
@@ -38122,17 +38122,17 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Antofagasta</t>
+          <t>Municipalidad de Papudo</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>AO041</t>
+          <t>MU202</t>
         </is>
       </c>
       <c r="E1111" t="n">
@@ -38145,7 +38145,7 @@
         <v>0</v>
       </c>
       <c r="H1111" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1112">
@@ -38156,17 +38156,17 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Municipalidad de Papudo</t>
+          <t>Municipalidad de Calera de Tango</t>
         </is>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>MU202</t>
+          <t>MU022</t>
         </is>
       </c>
       <c r="E1112" t="n">
@@ -38190,17 +38190,17 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Municipalidad de Calera de Tango</t>
+          <t>Municipalidad de Doñihue</t>
         </is>
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>MU022</t>
+          <t>MU081</t>
         </is>
       </c>
       <c r="E1113" t="n">
@@ -38224,17 +38224,17 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Municipalidad de Doñihue</t>
+          <t>SEREMI de Salud  de Valparaíso</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>MU081</t>
+          <t>AO044</t>
         </is>
       </c>
       <c r="E1114" t="n">
@@ -38247,7 +38247,7 @@
         <v>0</v>
       </c>
       <c r="H1114" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1115">
@@ -38258,17 +38258,17 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Valparaíso</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>AO044</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E1115" t="n">
@@ -38281,7 +38281,7 @@
         <v>0</v>
       </c>
       <c r="H1115" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1116">
@@ -38292,17 +38292,17 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>MU066</t>
         </is>
       </c>
       <c r="E1116" t="n">
@@ -38331,12 +38331,12 @@
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Municipalidad de Copiapó</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>MU066</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E1117" t="n">
@@ -38349,7 +38349,7 @@
         <v>0</v>
       </c>
       <c r="H1117" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1118">
@@ -38360,17 +38360,17 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E1118" t="n">
@@ -38383,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="H1118" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1119">
@@ -38394,17 +38394,17 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>MU170</t>
         </is>
       </c>
       <c r="E1119" t="n">
@@ -38417,7 +38417,7 @@
         <v>0</v>
       </c>
       <c r="H1119" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1120">
@@ -38433,12 +38433,12 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Municipalidad de Maullín</t>
+          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>MU170</t>
+          <t>AI002</t>
         </is>
       </c>
       <c r="E1120" t="n">
@@ -38451,7 +38451,7 @@
         <v>0</v>
       </c>
       <c r="H1120" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -38462,17 +38462,17 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
+          <t>Municipalidad de El Bosque</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>AI002</t>
+          <t>MU082</t>
         </is>
       </c>
       <c r="E1121" t="n">
@@ -38485,7 +38485,7 @@
         <v>0</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1122">
@@ -38496,17 +38496,17 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Municipalidad de El Bosque</t>
+          <t>Subsecretaría de Redes Asistenciales</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>MU082</t>
+          <t>AO002</t>
         </is>
       </c>
       <c r="E1122" t="n">
@@ -38519,7 +38519,7 @@
         <v>0</v>
       </c>
       <c r="H1122" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -38530,17 +38530,17 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Subsecretaría de Redes Asistenciales</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>AO002</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E1123" t="n">
@@ -38553,7 +38553,7 @@
         <v>0</v>
       </c>
       <c r="H1123" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1124">
@@ -38564,17 +38564,17 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Subsecretaría de las Culturas y las Artes</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>BC001</t>
         </is>
       </c>
       <c r="E1124" t="n">
@@ -38587,7 +38587,7 @@
         <v>0</v>
       </c>
       <c r="H1124" t="n">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1125">
@@ -38603,12 +38603,12 @@
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Subsecretaría de las Culturas y las Artes</t>
+          <t>Municipalidad de Constitución</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>BC001</t>
+          <t>MU064</t>
         </is>
       </c>
       <c r="E1125" t="n">
@@ -38621,7 +38621,7 @@
         <v>0</v>
       </c>
       <c r="H1125" t="n">
-        <v>153</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1126">
@@ -38632,17 +38632,17 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Municipalidad de Constitución</t>
+          <t>Municipalidad de Peñaflor</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>MU064</t>
+          <t>MU211</t>
         </is>
       </c>
       <c r="E1126" t="n">
@@ -38655,7 +38655,7 @@
         <v>0</v>
       </c>
       <c r="H1126" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1127">
@@ -38666,17 +38666,17 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñaflor</t>
+          <t>SEREMI de Salud de Aysén</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>MU211</t>
+          <t>AO052</t>
         </is>
       </c>
       <c r="E1127" t="n">
@@ -38689,7 +38689,7 @@
         <v>0</v>
       </c>
       <c r="H1127" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1128">
@@ -38700,17 +38700,17 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de Aysén</t>
+          <t>Municipalidad de Tirúa</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>AO052</t>
+          <t>MU321</t>
         </is>
       </c>
       <c r="E1128" t="n">
@@ -38723,7 +38723,7 @@
         <v>0</v>
       </c>
       <c r="H1128" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1129">
@@ -38734,17 +38734,17 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Municipalidad de Tirúa</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>MU321</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E1129" t="n">
@@ -38768,17 +38768,17 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Santa María</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU307</t>
         </is>
       </c>
       <c r="E1130" t="n">
@@ -38791,7 +38791,7 @@
         <v>0</v>
       </c>
       <c r="H1130" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1131">
@@ -38802,17 +38802,17 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa María</t>
+          <t>Municipalidad de Lo Prado</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>MU307</t>
+          <t>MU146</t>
         </is>
       </c>
       <c r="E1131" t="n">
@@ -38836,17 +38836,17 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Prado</t>
+          <t>Municipalidad de Santa Bárbara</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>MU146</t>
+          <t>MU304</t>
         </is>
       </c>
       <c r="E1132" t="n">
@@ -38870,17 +38870,17 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa Bárbara</t>
+          <t>Municipalidad de Maule</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>MU304</t>
+          <t>MU169</t>
         </is>
       </c>
       <c r="E1133" t="n">
@@ -38904,17 +38904,17 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Municipalidad de Maule</t>
+          <t>Municipalidad de Collipulli</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>MU169</t>
+          <t>MU058</t>
         </is>
       </c>
       <c r="E1134" t="n">
@@ -38927,7 +38927,7 @@
         <v>0</v>
       </c>
       <c r="H1134" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1135">
@@ -38938,17 +38938,17 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>Municipalidad de Collipulli</t>
+          <t>SEREMI de Salud  Metropolitano de Santiago</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>MU058</t>
+          <t>AO045</t>
         </is>
       </c>
       <c r="E1135" t="n">
@@ -38961,7 +38961,7 @@
         <v>0</v>
       </c>
       <c r="H1135" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1136">
@@ -38972,17 +38972,17 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  Metropolitano de Santiago</t>
+          <t>Gobierno Regional de Tarapacá (GORE)</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>AO045</t>
+          <t>AB076</t>
         </is>
       </c>
       <c r="E1136" t="n">
@@ -38995,7 +38995,7 @@
         <v>0</v>
       </c>
       <c r="H1136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -39006,17 +39006,17 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Tarapacá (GORE)</t>
+          <t>Municipalidad de Ovalle</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>AB076</t>
+          <t>MU192</t>
         </is>
       </c>
       <c r="E1137" t="n">
@@ -39029,7 +39029,7 @@
         <v>0</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1138">
@@ -39040,17 +39040,17 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Municipalidad de Ovalle</t>
+          <t>Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>MU192</t>
+          <t>MU231</t>
         </is>
       </c>
       <c r="E1138" t="n">
@@ -39063,7 +39063,7 @@
         <v>0</v>
       </c>
       <c r="H1138" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1139">
@@ -39074,17 +39074,17 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Municipalidad de Pudahuel</t>
+          <t>Municipalidad de Vichuquén</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>MU231</t>
+          <t>MU333</t>
         </is>
       </c>
       <c r="E1139" t="n">
@@ -39097,7 +39097,7 @@
         <v>0</v>
       </c>
       <c r="H1139" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1140">
@@ -39108,17 +39108,17 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Municipalidad de Vichuquén</t>
+          <t>Municipalidad de Lanco</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>MU333</t>
+          <t>MU133</t>
         </is>
       </c>
       <c r="E1140" t="n">
@@ -39131,7 +39131,7 @@
         <v>0</v>
       </c>
       <c r="H1140" t="n">
-        <v>18</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1141">
@@ -39142,7 +39142,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -39210,17 +39210,17 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Llanquihue</t>
+          <t>Gobierno Regional de Coquimbo  GORECOQUIMBO</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>AJ028</t>
+          <t>AB079</t>
         </is>
       </c>
       <c r="E1143" t="n">
@@ -39233,7 +39233,7 @@
         <v>0</v>
       </c>
       <c r="H1143" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1144">
@@ -39244,17 +39244,17 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Municipalidad de La Serena</t>
+          <t>Servicio Local de Educación Pública Llanquihue</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>MU126</t>
+          <t>AJ028</t>
         </is>
       </c>
       <c r="E1144" t="n">
@@ -39267,7 +39267,7 @@
         <v>0</v>
       </c>
       <c r="H1144" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1145">
@@ -39278,17 +39278,17 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Municipalidad de La Serena</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>MU126</t>
         </is>
       </c>
       <c r="E1145" t="n">
@@ -39301,7 +39301,7 @@
         <v>0</v>
       </c>
       <c r="H1145" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1146">
@@ -39312,17 +39312,17 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Subsecretaría de la Niñez</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>AI009</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E1146" t="n">
@@ -39335,7 +39335,7 @@
         <v>0</v>
       </c>
       <c r="H1146" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1147">
@@ -39346,17 +39346,17 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Universidad de Magallanes</t>
+          <t>Subsecretaría de la Niñez</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>UN016</t>
+          <t>AI009</t>
         </is>
       </c>
       <c r="E1147" t="n">
@@ -39369,7 +39369,7 @@
         <v>0</v>
       </c>
       <c r="H1147" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148">
@@ -39380,17 +39380,17 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de San Antonio (AMPSA)</t>
+          <t>Universidad de Magallanes</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>MA061</t>
+          <t>UN016</t>
         </is>
       </c>
       <c r="E1148" t="n">
@@ -39403,7 +39403,7 @@
         <v>0</v>
       </c>
       <c r="H1148" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1149">
@@ -39414,17 +39414,17 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Municipalidad de Primavera</t>
+          <t>Asociación de Municipalidades de la Provincia de San Antonio (AMPSA)</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>MU227</t>
+          <t>MA061</t>
         </is>
       </c>
       <c r="E1149" t="n">
@@ -39437,7 +39437,7 @@
         <v>0</v>
       </c>
       <c r="H1149" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1150">
@@ -39448,17 +39448,17 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Los Lagos (Gore Los Lagos)</t>
+          <t>Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>AB087</t>
+          <t>MU227</t>
         </is>
       </c>
       <c r="E1150" t="n">
@@ -39471,7 +39471,7 @@
         <v>0</v>
       </c>
       <c r="H1150" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1151">
@@ -39487,12 +39487,12 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+          <t>Gobierno Regional de Los Lagos (Gore Los Lagos)</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>AB084</t>
+          <t>AB087</t>
         </is>
       </c>
       <c r="E1151" t="n">
@@ -39505,7 +39505,7 @@
         <v>0</v>
       </c>
       <c r="H1151" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1152">
@@ -39521,12 +39521,12 @@
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Municipalidad de Santo Domingo</t>
+          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>MU309</t>
+          <t>AB084</t>
         </is>
       </c>
       <c r="E1152" t="n">
@@ -39539,7 +39539,7 @@
         <v>0</v>
       </c>
       <c r="H1152" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1153">
@@ -39550,17 +39550,17 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Municipalidad de San Gregorio</t>
+          <t>Municipalidad de Santo Domingo</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>MU288</t>
+          <t>MU309</t>
         </is>
       </c>
       <c r="E1153" t="n">
@@ -39573,7 +39573,7 @@
         <v>0</v>
       </c>
       <c r="H1153" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1154">
@@ -39584,21 +39584,21 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Dirección de Planeamiento (DIRPLAN)</t>
+          <t>Municipalidad de San Gregorio</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
-          <t>AM009</t>
+          <t>MU288</t>
         </is>
       </c>
       <c r="E1154" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F1154" t="n">
         <v>0</v>
@@ -39607,7 +39607,7 @@
         <v>0</v>
       </c>
       <c r="H1154" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1155">
@@ -39618,21 +39618,21 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Dirección de Planeamiento (DIRPLAN)</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>AM009</t>
         </is>
       </c>
       <c r="E1155" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F1155" t="n">
         <v>0</v>
@@ -39641,7 +39641,7 @@
         <v>0</v>
       </c>
       <c r="H1155" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1156">
@@ -39652,17 +39652,17 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2024/04/21</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Municipalidad de San Rosendo</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>MU302</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E1156" t="n">
@@ -39675,7 +39675,7 @@
         <v>0</v>
       </c>
       <c r="H1156" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1157">
@@ -39686,17 +39686,17 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/04/21</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>SERVIU Región de la Araucanía</t>
+          <t>Municipalidad de San Rosendo</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
-          <t>AP011</t>
+          <t>MU302</t>
         </is>
       </c>
       <c r="E1157" t="n">
@@ -39709,7 +39709,7 @@
         <v>0</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1158">
@@ -39720,17 +39720,17 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Valparaíso  (GORE)</t>
+          <t>SERVIU Región de la Araucanía</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>AB080</t>
+          <t>AP011</t>
         </is>
       </c>
       <c r="E1158" t="n">
@@ -39743,7 +39743,7 @@
         <v>0</v>
       </c>
       <c r="H1158" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159">
@@ -39759,25 +39759,127 @@
       </c>
       <c r="C1159" t="inlineStr">
         <is>
+          <t>Gobierno Regional de Valparaíso  (GORE)</t>
+        </is>
+      </c>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>AB080</t>
+        </is>
+      </c>
+      <c r="E1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>2024/05/03</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
           <t>Municipalidad de Ercilla</t>
         </is>
       </c>
-      <c r="D1159" t="inlineStr">
+      <c r="D1160" t="inlineStr">
         <is>
           <t>MU088</t>
         </is>
       </c>
-      <c r="E1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1159" t="n">
+      <c r="E1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1160" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>2024/05/10</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Gobierno Regional de La Araucanía (Gore Araucanía)</t>
+        </is>
+      </c>
+      <c r="D1161" t="inlineStr">
+        <is>
+          <t>AB085</t>
+        </is>
+      </c>
+      <c r="E1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>2024/05/10</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Comisión Administradora del Sistema de Créditos para Estudios Superiores (INGRESA)</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>AJ004</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1162"/>
+  <dimension ref="A1:H1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28704,7 +28704,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="n">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="839">
@@ -28976,7 +28976,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -28999,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="H842" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="843">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="H845" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="846">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="H851" t="n">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="852">
@@ -29316,7 +29316,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -29339,7 +29339,7 @@
         <v>0</v>
       </c>
       <c r="H852" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="853">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="855">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="857">
@@ -29554,7 +29554,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="860">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29747,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="H864" t="n">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="865">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="H866" t="n">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="867">
@@ -29860,7 +29860,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="872">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -30053,7 +30053,7 @@
         <v>0</v>
       </c>
       <c r="H873" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="874">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="H876" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="877">
@@ -30234,7 +30234,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -30257,7 +30257,7 @@
         <v>0</v>
       </c>
       <c r="H879" t="n">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="880">
@@ -30404,7 +30404,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="885">
@@ -30438,7 +30438,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="886">
@@ -30472,7 +30472,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="H886" t="n">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="887">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="888">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="H888" t="n">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="889">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2024/04/13</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="890">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="893">
@@ -30710,7 +30710,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -30733,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="H893" t="n">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="894">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -30835,7 +30835,7 @@
         <v>0</v>
       </c>
       <c r="H896" t="n">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="897">
@@ -30846,7 +30846,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -30869,7 +30869,7 @@
         <v>0</v>
       </c>
       <c r="H897" t="n">
-        <v>639</v>
+        <v>655</v>
       </c>
     </row>
     <row r="898">
@@ -30880,7 +30880,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -30903,7 +30903,7 @@
         <v>0</v>
       </c>
       <c r="H898" t="n">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="899">
@@ -30914,7 +30914,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -30937,7 +30937,7 @@
         <v>0</v>
       </c>
       <c r="H899" t="n">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="900">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -30971,7 +30971,7 @@
         <v>0</v>
       </c>
       <c r="H900" t="n">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="901">
@@ -31016,7 +31016,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -31152,7 +31152,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -31175,7 +31175,7 @@
         <v>0</v>
       </c>
       <c r="H906" t="n">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="907">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -31277,7 +31277,7 @@
         <v>0</v>
       </c>
       <c r="H909" t="n">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="910">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -31379,7 +31379,7 @@
         <v>0</v>
       </c>
       <c r="H912" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="913">
@@ -31390,7 +31390,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -31413,7 +31413,7 @@
         <v>0</v>
       </c>
       <c r="H913" t="n">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="914">
@@ -31458,7 +31458,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -31481,7 +31481,7 @@
         <v>0</v>
       </c>
       <c r="H915" t="n">
-        <v>868</v>
+        <v>878</v>
       </c>
     </row>
     <row r="916">
@@ -31526,7 +31526,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -31549,7 +31549,7 @@
         <v>0</v>
       </c>
       <c r="H917" t="n">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="918">
@@ -31560,7 +31560,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -31583,7 +31583,7 @@
         <v>0</v>
       </c>
       <c r="H918" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="919">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -31617,7 +31617,7 @@
         <v>84</v>
       </c>
       <c r="H919" t="n">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="920">
@@ -31662,7 +31662,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -31685,7 +31685,7 @@
         <v>0</v>
       </c>
       <c r="H921" t="n">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="922">
@@ -31730,7 +31730,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -31753,7 +31753,7 @@
         <v>0</v>
       </c>
       <c r="H923" t="n">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="924">
@@ -31764,7 +31764,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -31787,7 +31787,7 @@
         <v>0</v>
       </c>
       <c r="H924" t="n">
-        <v>1070</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="925">
@@ -31798,7 +31798,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -31900,7 +31900,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -31968,7 +31968,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -31991,7 +31991,7 @@
         <v>0</v>
       </c>
       <c r="H930" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="931">
@@ -32002,7 +32002,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -32025,7 +32025,7 @@
         <v>0</v>
       </c>
       <c r="H931" t="n">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="932">
@@ -32138,7 +32138,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -32161,7 +32161,7 @@
         <v>0</v>
       </c>
       <c r="H935" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="936">
@@ -32172,7 +32172,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -32195,7 +32195,7 @@
         <v>0</v>
       </c>
       <c r="H936" t="n">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="937">
@@ -32376,7 +32376,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -32399,7 +32399,7 @@
         <v>0</v>
       </c>
       <c r="H942" t="n">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="943">
@@ -32580,7 +32580,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -32603,7 +32603,7 @@
         <v>0</v>
       </c>
       <c r="H948" t="n">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="949">
@@ -32716,7 +32716,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -32739,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="H952" t="n">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="953">
@@ -32750,7 +32750,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -32773,7 +32773,7 @@
         <v>0</v>
       </c>
       <c r="H953" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="954">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>0</v>
       </c>
       <c r="H956" t="n">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="957">
@@ -32886,7 +32886,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -32909,7 +32909,7 @@
         <v>0</v>
       </c>
       <c r="H957" t="n">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="958">
@@ -32954,7 +32954,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -32977,7 +32977,7 @@
         <v>0</v>
       </c>
       <c r="H959" t="n">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="960">
@@ -32988,7 +32988,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -33158,7 +33158,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -33181,7 +33181,7 @@
         <v>0</v>
       </c>
       <c r="H965" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="966">
@@ -33226,7 +33226,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -33260,7 +33260,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -33283,7 +33283,7 @@
         <v>0</v>
       </c>
       <c r="H968" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="969">
@@ -33294,7 +33294,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -33328,7 +33328,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -33351,7 +33351,7 @@
         <v>0</v>
       </c>
       <c r="H970" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="971">
@@ -33362,7 +33362,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -33385,7 +33385,7 @@
         <v>0</v>
       </c>
       <c r="H971" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="972">
@@ -33498,7 +33498,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -33521,7 +33521,7 @@
         <v>0</v>
       </c>
       <c r="H975" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="976">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -33623,7 +33623,7 @@
         <v>0</v>
       </c>
       <c r="H978" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="979">
@@ -33634,7 +33634,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -33657,7 +33657,7 @@
         <v>0</v>
       </c>
       <c r="H979" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="980">
@@ -33702,7 +33702,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="H981" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="982">
@@ -33736,7 +33736,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -33759,7 +33759,7 @@
         <v>0</v>
       </c>
       <c r="H982" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="983">
@@ -33770,7 +33770,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -33793,7 +33793,7 @@
         <v>0</v>
       </c>
       <c r="H983" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="984">
@@ -33804,7 +33804,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -33827,7 +33827,7 @@
         <v>0</v>
       </c>
       <c r="H984" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="985">
@@ -33872,7 +33872,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -33895,7 +33895,7 @@
         <v>0</v>
       </c>
       <c r="H986" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="987">
@@ -33906,7 +33906,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -33929,7 +33929,7 @@
         <v>0</v>
       </c>
       <c r="H987" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="988">
@@ -34110,7 +34110,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -34133,7 +34133,7 @@
         <v>0</v>
       </c>
       <c r="H993" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="994">
@@ -34382,7 +34382,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -34405,7 +34405,7 @@
         <v>0</v>
       </c>
       <c r="H1001" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1002">
@@ -34484,7 +34484,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -34507,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="H1004" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1005">
@@ -34586,7 +34586,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -34609,7 +34609,7 @@
         <v>0</v>
       </c>
       <c r="H1007" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1008">
@@ -34722,7 +34722,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -34745,7 +34745,7 @@
         <v>0</v>
       </c>
       <c r="H1011" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1012">
@@ -34790,7 +34790,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -34813,7 +34813,7 @@
         <v>0</v>
       </c>
       <c r="H1013" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1014">
@@ -34824,7 +34824,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -34847,7 +34847,7 @@
         <v>0</v>
       </c>
       <c r="H1014" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1015">
@@ -34892,7 +34892,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -34915,7 +34915,7 @@
         <v>0</v>
       </c>
       <c r="H1016" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1017">
@@ -34960,7 +34960,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -35164,7 +35164,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="H1024" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1025">
@@ -35232,7 +35232,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="H1026" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1027">
@@ -35300,7 +35300,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -35323,7 +35323,7 @@
         <v>0</v>
       </c>
       <c r="H1028" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1029">
@@ -35436,7 +35436,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -35459,7 +35459,7 @@
         <v>0</v>
       </c>
       <c r="H1032" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1033">
@@ -35640,7 +35640,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -35663,7 +35663,7 @@
         <v>0</v>
       </c>
       <c r="H1038" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1039">
@@ -35708,7 +35708,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="H1040" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1041">
@@ -35810,7 +35810,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -35833,7 +35833,7 @@
         <v>0</v>
       </c>
       <c r="H1043" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1044">
@@ -35878,7 +35878,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -35901,7 +35901,7 @@
         <v>0</v>
       </c>
       <c r="H1045" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1046">
@@ -35912,7 +35912,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -35935,7 +35935,7 @@
         <v>0</v>
       </c>
       <c r="H1046" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1047">
@@ -35980,7 +35980,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -36003,7 +36003,7 @@
         <v>0</v>
       </c>
       <c r="H1048" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1049">
@@ -36116,7 +36116,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="H1052" t="n">
-        <v>167</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1053">
@@ -36150,7 +36150,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -36173,7 +36173,7 @@
         <v>0</v>
       </c>
       <c r="H1053" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1054">
@@ -36218,7 +36218,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -36241,7 +36241,7 @@
         <v>0</v>
       </c>
       <c r="H1055" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1056">
@@ -36252,7 +36252,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -36275,7 +36275,7 @@
         <v>0</v>
       </c>
       <c r="H1056" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1057">
@@ -36286,7 +36286,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -36309,7 +36309,7 @@
         <v>0</v>
       </c>
       <c r="H1057" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1058">
@@ -36354,7 +36354,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -36422,7 +36422,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2024/04/04</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="H1061" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1062">
@@ -36456,7 +36456,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -36479,7 +36479,7 @@
         <v>0</v>
       </c>
       <c r="H1062" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1063">
@@ -36592,7 +36592,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -36615,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="H1066" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1067">
@@ -36626,7 +36626,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -36649,7 +36649,7 @@
         <v>0</v>
       </c>
       <c r="H1067" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1068">
@@ -36660,7 +36660,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="H1068" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1069">
@@ -36694,7 +36694,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -36717,7 +36717,7 @@
         <v>0</v>
       </c>
       <c r="H1069" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1070">
@@ -36728,7 +36728,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -36751,7 +36751,7 @@
         <v>0</v>
       </c>
       <c r="H1070" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1071">
@@ -36796,7 +36796,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -36819,7 +36819,7 @@
         <v>0</v>
       </c>
       <c r="H1072" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1073">
@@ -36864,7 +36864,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -36898,7 +36898,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -36921,7 +36921,7 @@
         <v>0</v>
       </c>
       <c r="H1075" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1076">
@@ -36932,7 +36932,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
@@ -36955,7 +36955,7 @@
         <v>0</v>
       </c>
       <c r="H1076" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1077">
@@ -37000,7 +37000,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -37023,7 +37023,7 @@
         <v>0</v>
       </c>
       <c r="H1078" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1079">
@@ -37136,7 +37136,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -37170,7 +37170,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -37193,7 +37193,7 @@
         <v>0</v>
       </c>
       <c r="H1083" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1084">
@@ -37238,7 +37238,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -37261,7 +37261,7 @@
         <v>0</v>
       </c>
       <c r="H1085" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1086">
@@ -37306,7 +37306,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -37408,7 +37408,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -37431,7 +37431,7 @@
         <v>0</v>
       </c>
       <c r="H1090" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1091">
@@ -37442,7 +37442,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -37465,7 +37465,7 @@
         <v>0</v>
       </c>
       <c r="H1091" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1092">
@@ -37476,7 +37476,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -37499,7 +37499,7 @@
         <v>0</v>
       </c>
       <c r="H1092" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1093">
@@ -37510,7 +37510,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -37612,7 +37612,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -37635,7 +37635,7 @@
         <v>0</v>
       </c>
       <c r="H1096" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1097">
@@ -37646,7 +37646,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="H1097" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1098">
@@ -37680,7 +37680,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="H1098" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1099">
@@ -37714,7 +37714,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -37782,7 +37782,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -37805,7 +37805,7 @@
         <v>0</v>
       </c>
       <c r="H1101" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1102">
@@ -37952,7 +37952,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2024/02/17</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -37986,7 +37986,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="H1107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1108">
@@ -38020,7 +38020,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -38043,7 +38043,7 @@
         <v>0</v>
       </c>
       <c r="H1108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1109">
@@ -38054,7 +38054,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -38077,7 +38077,7 @@
         <v>0</v>
       </c>
       <c r="H1109" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1110">
@@ -38258,7 +38258,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -38281,7 +38281,7 @@
         <v>0</v>
       </c>
       <c r="H1115" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1116">
@@ -38292,7 +38292,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -38315,7 +38315,7 @@
         <v>0</v>
       </c>
       <c r="H1116" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1117">
@@ -38360,7 +38360,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -38383,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="H1118" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1119">
@@ -38394,7 +38394,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -38417,7 +38417,7 @@
         <v>0</v>
       </c>
       <c r="H1119" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1120">
@@ -38428,7 +38428,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -38496,7 +38496,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -38530,17 +38530,17 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Presidencia de la República</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>AA001</t>
         </is>
       </c>
       <c r="E1123" t="n">
@@ -38553,7 +38553,7 @@
         <v>0</v>
       </c>
       <c r="H1123" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -38564,17 +38564,17 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Subsecretaría de las Culturas y las Artes</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>BC001</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E1124" t="n">
@@ -38587,7 +38587,7 @@
         <v>0</v>
       </c>
       <c r="H1124" t="n">
-        <v>153</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1125">
@@ -38598,17 +38598,17 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Municipalidad de Constitución</t>
+          <t>Subsecretaría de las Culturas y las Artes</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>MU064</t>
+          <t>BC001</t>
         </is>
       </c>
       <c r="E1125" t="n">
@@ -38621,7 +38621,7 @@
         <v>0</v>
       </c>
       <c r="H1125" t="n">
-        <v>18</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1126">
@@ -38632,17 +38632,17 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñaflor</t>
+          <t>Municipalidad de Constitución</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>MU211</t>
+          <t>MU064</t>
         </is>
       </c>
       <c r="E1126" t="n">
@@ -38655,7 +38655,7 @@
         <v>0</v>
       </c>
       <c r="H1126" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1127">
@@ -38666,17 +38666,17 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de Aysén</t>
+          <t>Municipalidad de Peñaflor</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>AO052</t>
+          <t>MU211</t>
         </is>
       </c>
       <c r="E1127" t="n">
@@ -38689,7 +38689,7 @@
         <v>0</v>
       </c>
       <c r="H1127" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1128">
@@ -38700,17 +38700,17 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Municipalidad de Tirúa</t>
+          <t>SEREMI de Salud de Aysén</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>MU321</t>
+          <t>AO052</t>
         </is>
       </c>
       <c r="E1128" t="n">
@@ -38723,7 +38723,7 @@
         <v>0</v>
       </c>
       <c r="H1128" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1129">
@@ -38734,17 +38734,17 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Tirúa</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU321</t>
         </is>
       </c>
       <c r="E1129" t="n">
@@ -38757,7 +38757,7 @@
         <v>0</v>
       </c>
       <c r="H1129" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1130">
@@ -38768,17 +38768,17 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa María</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>MU307</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E1130" t="n">
@@ -38791,7 +38791,7 @@
         <v>0</v>
       </c>
       <c r="H1130" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1131">
@@ -38802,17 +38802,17 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Prado</t>
+          <t>Municipalidad de Santa María</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>MU146</t>
+          <t>MU307</t>
         </is>
       </c>
       <c r="E1131" t="n">
@@ -38836,17 +38836,17 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa Bárbara</t>
+          <t>Municipalidad de Lo Prado</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>MU304</t>
+          <t>MU146</t>
         </is>
       </c>
       <c r="E1132" t="n">
@@ -38859,7 +38859,7 @@
         <v>0</v>
       </c>
       <c r="H1132" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1133">
@@ -38870,17 +38870,17 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Municipalidad de Maule</t>
+          <t>Municipalidad de Santa Bárbara</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>MU169</t>
+          <t>MU304</t>
         </is>
       </c>
       <c r="E1133" t="n">
@@ -38904,17 +38904,17 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Municipalidad de Collipulli</t>
+          <t>Municipalidad de Maule</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>MU058</t>
+          <t>MU169</t>
         </is>
       </c>
       <c r="E1134" t="n">
@@ -38938,17 +38938,17 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  Metropolitano de Santiago</t>
+          <t>Municipalidad de Collipulli</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>AO045</t>
+          <t>MU058</t>
         </is>
       </c>
       <c r="E1135" t="n">
@@ -38961,7 +38961,7 @@
         <v>0</v>
       </c>
       <c r="H1135" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1136">
@@ -38972,17 +38972,17 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Tarapacá (GORE)</t>
+          <t>SEREMI de Salud  Metropolitano de Santiago</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>AB076</t>
+          <t>AO045</t>
         </is>
       </c>
       <c r="E1136" t="n">
@@ -38995,7 +38995,7 @@
         <v>0</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1137">
@@ -39006,17 +39006,17 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Municipalidad de Ovalle</t>
+          <t>Gobierno Regional de Tarapacá (GORE)</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>MU192</t>
+          <t>AB076</t>
         </is>
       </c>
       <c r="E1137" t="n">
@@ -39029,7 +39029,7 @@
         <v>0</v>
       </c>
       <c r="H1137" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -39040,17 +39040,17 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Municipalidad de Pudahuel</t>
+          <t>Municipalidad de Ovalle</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>MU231</t>
+          <t>MU192</t>
         </is>
       </c>
       <c r="E1138" t="n">
@@ -39063,7 +39063,7 @@
         <v>0</v>
       </c>
       <c r="H1138" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1139">
@@ -39074,17 +39074,17 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>Municipalidad de Vichuquén</t>
+          <t>Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>MU333</t>
+          <t>MU231</t>
         </is>
       </c>
       <c r="E1139" t="n">
@@ -39097,7 +39097,7 @@
         <v>0</v>
       </c>
       <c r="H1139" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1140">
@@ -39108,17 +39108,17 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Municipalidad de Lanco</t>
+          <t>Municipalidad de Vichuquén</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>MU133</t>
+          <t>MU333</t>
         </is>
       </c>
       <c r="E1140" t="n">
@@ -39131,7 +39131,7 @@
         <v>0</v>
       </c>
       <c r="H1140" t="n">
-        <v>245</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1141">
@@ -39142,17 +39142,17 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>2024/05/05</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Zona Central y Costa (AMUCC)</t>
+          <t>Municipalidad de Lanco</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>MA042</t>
+          <t>MU133</t>
         </is>
       </c>
       <c r="E1141" t="n">
@@ -39165,7 +39165,7 @@
         <v>0</v>
       </c>
       <c r="H1141" t="n">
-        <v>13</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1142">
@@ -39176,17 +39176,17 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>2024/04/05</t>
+          <t>2024/05/05</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Asociación de Municipalidades de la Zona Central y Costa (AMUCC)</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MA042</t>
         </is>
       </c>
       <c r="E1142" t="n">
@@ -39199,7 +39199,7 @@
         <v>0</v>
       </c>
       <c r="H1142" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1143">
@@ -39210,17 +39210,17 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Coquimbo  GORECOQUIMBO</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>AB079</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E1143" t="n">
@@ -39233,7 +39233,7 @@
         <v>0</v>
       </c>
       <c r="H1143" t="n">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1144">
@@ -39249,12 +39249,12 @@
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Llanquihue</t>
+          <t>Gobierno Regional de Coquimbo  GORECOQUIMBO</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>AJ028</t>
+          <t>AB079</t>
         </is>
       </c>
       <c r="E1144" t="n">
@@ -39267,7 +39267,7 @@
         <v>0</v>
       </c>
       <c r="H1144" t="n">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1145">
@@ -39278,17 +39278,17 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Municipalidad de La Serena</t>
+          <t>Servicio Local de Educación Pública Llanquihue</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>MU126</t>
+          <t>AJ028</t>
         </is>
       </c>
       <c r="E1145" t="n">
@@ -39301,7 +39301,7 @@
         <v>0</v>
       </c>
       <c r="H1145" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1146">
@@ -39312,17 +39312,17 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Municipalidad de La Serena</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>MU126</t>
         </is>
       </c>
       <c r="E1146" t="n">
@@ -39335,7 +39335,7 @@
         <v>0</v>
       </c>
       <c r="H1146" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1147">
@@ -39346,17 +39346,17 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/11</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Subsecretaría de la Niñez</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>AI009</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E1147" t="n">
@@ -39369,7 +39369,7 @@
         <v>0</v>
       </c>
       <c r="H1147" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1148">
@@ -39380,17 +39380,17 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Universidad de Magallanes</t>
+          <t>Subsecretaría de la Niñez</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>UN016</t>
+          <t>AI009</t>
         </is>
       </c>
       <c r="E1148" t="n">
@@ -39403,7 +39403,7 @@
         <v>0</v>
       </c>
       <c r="H1148" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149">
@@ -39414,17 +39414,17 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de San Antonio (AMPSA)</t>
+          <t>Universidad de Magallanes</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>MA061</t>
+          <t>UN016</t>
         </is>
       </c>
       <c r="E1149" t="n">
@@ -39437,7 +39437,7 @@
         <v>0</v>
       </c>
       <c r="H1149" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1150">
@@ -39448,17 +39448,17 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/03</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Municipalidad de Primavera</t>
+          <t>Asociación de Municipalidades de la Provincia de San Antonio (AMPSA)</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>MU227</t>
+          <t>MA061</t>
         </is>
       </c>
       <c r="E1150" t="n">
@@ -39471,7 +39471,7 @@
         <v>0</v>
       </c>
       <c r="H1150" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1151">
@@ -39482,17 +39482,17 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Los Lagos (Gore Los Lagos)</t>
+          <t>Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>AB087</t>
+          <t>MU227</t>
         </is>
       </c>
       <c r="E1151" t="n">
@@ -39505,7 +39505,7 @@
         <v>0</v>
       </c>
       <c r="H1151" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1152">
@@ -39516,17 +39516,17 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+          <t>Gobierno Regional de Los Lagos (Gore Los Lagos)</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>AB084</t>
+          <t>AB087</t>
         </is>
       </c>
       <c r="E1152" t="n">
@@ -39539,7 +39539,7 @@
         <v>0</v>
       </c>
       <c r="H1152" t="n">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1153">
@@ -39550,17 +39550,17 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Municipalidad de Santo Domingo</t>
+          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>MU309</t>
+          <t>AB084</t>
         </is>
       </c>
       <c r="E1153" t="n">
@@ -39573,7 +39573,7 @@
         <v>0</v>
       </c>
       <c r="H1153" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1154">
@@ -39584,17 +39584,17 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Municipalidad de San Gregorio</t>
+          <t>Municipalidad de Santo Domingo</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
-          <t>MU288</t>
+          <t>MU309</t>
         </is>
       </c>
       <c r="E1154" t="n">
@@ -39607,7 +39607,7 @@
         <v>0</v>
       </c>
       <c r="H1154" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1155">
@@ -39618,21 +39618,21 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Dirección de Planeamiento (DIRPLAN)</t>
+          <t>Municipalidad de San Gregorio</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>AM009</t>
+          <t>MU288</t>
         </is>
       </c>
       <c r="E1155" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F1155" t="n">
         <v>0</v>
@@ -39641,7 +39641,7 @@
         <v>0</v>
       </c>
       <c r="H1155" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1156">
@@ -39652,21 +39652,21 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Dirección de Planeamiento (DIRPLAN)</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>AM009</t>
         </is>
       </c>
       <c r="E1156" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F1156" t="n">
         <v>0</v>
@@ -39675,7 +39675,7 @@
         <v>0</v>
       </c>
       <c r="H1156" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1157">
@@ -39686,17 +39686,17 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>2024/04/21</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Municipalidad de San Rosendo</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
-          <t>MU302</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E1157" t="n">
@@ -39709,7 +39709,7 @@
         <v>0</v>
       </c>
       <c r="H1157" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1158">
@@ -39720,17 +39720,17 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/04/21</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>SERVIU Región de la Araucanía</t>
+          <t>Municipalidad de San Rosendo</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>AP011</t>
+          <t>MU302</t>
         </is>
       </c>
       <c r="E1158" t="n">
@@ -39743,7 +39743,7 @@
         <v>0</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1159">
@@ -39754,17 +39754,17 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>2024/05/03</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Valparaíso  (GORE)</t>
+          <t>SERVIU Región de la Araucanía</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>AB080</t>
+          <t>AP011</t>
         </is>
       </c>
       <c r="E1159" t="n">
@@ -39777,7 +39777,7 @@
         <v>0</v>
       </c>
       <c r="H1159" t="n">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1160">
@@ -39793,12 +39793,12 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>Municipalidad de Ercilla</t>
+          <t>Gobierno Regional de Valparaíso  (GORE)</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
-          <t>MU088</t>
+          <t>AB080</t>
         </is>
       </c>
       <c r="E1160" t="n">
@@ -39811,7 +39811,7 @@
         <v>0</v>
       </c>
       <c r="H1160" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1161">
@@ -39822,17 +39822,17 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Gobierno Regional de La Araucanía (Gore Araucanía)</t>
+          <t>Municipalidad de Ercilla</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>AB085</t>
+          <t>MU088</t>
         </is>
       </c>
       <c r="E1161" t="n">
@@ -39845,7 +39845,7 @@
         <v>0</v>
       </c>
       <c r="H1161" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1162">
@@ -39856,30 +39856,132 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
+          <t>2024/05/13</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Gobierno Regional de La Araucanía (Gore Araucanía)</t>
+        </is>
+      </c>
+      <c r="D1162" t="inlineStr">
+        <is>
+          <t>AB085</t>
+        </is>
+      </c>
+      <c r="E1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
           <t>2024/05/10</t>
         </is>
       </c>
-      <c r="C1162" t="inlineStr">
+      <c r="C1163" t="inlineStr">
         <is>
           <t>Comisión Administradora del Sistema de Créditos para Estudios Superiores (INGRESA)</t>
         </is>
       </c>
-      <c r="D1162" t="inlineStr">
+      <c r="D1163" t="inlineStr">
         <is>
           <t>AJ004</t>
         </is>
       </c>
-      <c r="E1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1162" t="n">
+      <c r="E1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1163" t="n">
         <v>63</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>2024/05/15</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>SEREMI de Vivienda y Urbanismo Región de Los Ríos</t>
+        </is>
+      </c>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>AP031</t>
+        </is>
+      </c>
+      <c r="E1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>2024/05/15</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Municipalidad de San Nicolás</t>
+        </is>
+      </c>
+      <c r="D1165" t="inlineStr">
+        <is>
+          <t>MU295</t>
+        </is>
+      </c>
+      <c r="E1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -28908,7 +28908,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="848">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29407,7 +29407,7 @@
         <v>0</v>
       </c>
       <c r="H854" t="n">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="855">
@@ -29486,7 +29486,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -29509,7 +29509,7 @@
         <v>0</v>
       </c>
       <c r="H857" t="n">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="858">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="n">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="864">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -29985,7 +29985,7 @@
         <v>0</v>
       </c>
       <c r="H871" t="n">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="872">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="892">
@@ -30778,7 +30778,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -30801,7 +30801,7 @@
         <v>0</v>
       </c>
       <c r="H895" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="896">
@@ -30846,7 +30846,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2023/10/04</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -32444,7 +32444,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="H944" t="n">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="945">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>0</v>
       </c>
       <c r="H956" t="n">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="957">
@@ -34144,7 +34144,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -34167,7 +34167,7 @@
         <v>0</v>
       </c>
       <c r="H994" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="995">
@@ -35164,7 +35164,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -36014,7 +36014,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -36037,7 +36037,7 @@
         <v>0</v>
       </c>
       <c r="H1049" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1050">
@@ -37782,7 +37782,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -37805,7 +37805,7 @@
         <v>0</v>
       </c>
       <c r="H1101" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1102">
@@ -37816,7 +37816,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -38734,7 +38734,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -38757,7 +38757,7 @@
         <v>0</v>
       </c>
       <c r="H1129" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1130">
@@ -39006,7 +39006,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -39029,7 +39029,7 @@
         <v>0</v>
       </c>
       <c r="H1137" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1138">
@@ -39210,7 +39210,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -39233,7 +39233,7 @@
         <v>0</v>
       </c>
       <c r="H1143" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1144">
@@ -39720,7 +39720,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -39743,7 +39743,7 @@
         <v>0</v>
       </c>
       <c r="H1158" t="n">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1159">
@@ -39788,7 +39788,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -39811,7 +39811,7 @@
         <v>0</v>
       </c>
       <c r="H1160" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1161">
@@ -40094,7 +40094,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -40117,7 +40117,7 @@
         <v>0</v>
       </c>
       <c r="H1169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170">
@@ -40264,7 +40264,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -40287,7 +40287,7 @@
         <v>0</v>
       </c>
       <c r="H1174" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1175">

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>761</v>
+        <v>773</v>
       </c>
     </row>
     <row r="48">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1815</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="104">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>4600</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="170">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6253,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>10577</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="174">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6423,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>537</v>
+        <v>616</v>
       </c>
     </row>
     <row r="179">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6559,7 +6559,7 @@
         <v>7</v>
       </c>
       <c r="H182" t="n">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="183">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>5849</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="200">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>29047</v>
+        <v>29363</v>
       </c>
     </row>
     <row r="213">
@@ -7658,7 +7658,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="225">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2024/05/11</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>6636</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="245">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>1121</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="252">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1523</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="259">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>22</v>
       </c>
       <c r="H262" t="n">
-        <v>1554</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="263">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/16</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>2112</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="265">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -9993,7 +9993,7 @@
         <v>2</v>
       </c>
       <c r="H283" t="n">
-        <v>1794</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="284">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>6440</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="296">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="304">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>356</v>
+        <v>385</v>
       </c>
     </row>
     <row r="307">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>2848</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="310">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11557,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>440</v>
+        <v>515</v>
       </c>
     </row>
     <row r="330">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13189,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>28144</v>
+        <v>28150</v>
       </c>
     </row>
     <row r="378">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13291,7 +13291,7 @@
         <v>51</v>
       </c>
       <c r="H380" t="n">
-        <v>35465</v>
+        <v>35466</v>
       </c>
     </row>
     <row r="381">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="410">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="419">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>317</v>
+        <v>338</v>
       </c>
     </row>
     <row r="427">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>279</v>
+        <v>324</v>
       </c>
     </row>
     <row r="432">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>1010</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="435">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15569,7 +15569,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="448">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="461">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16453,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="n">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="474">
@@ -16566,7 +16566,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -16589,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="478">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16861,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H485" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="486">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="493">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="535">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -18595,7 +18595,7 @@
         <v>3</v>
       </c>
       <c r="H536" t="n">
-        <v>11527</v>
+        <v>11704</v>
       </c>
     </row>
     <row r="537">
@@ -18674,7 +18674,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="540">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -18799,7 +18799,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="n">
-        <v>1956</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="543">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>5</v>
       </c>
       <c r="H544" t="n">
-        <v>14077</v>
+        <v>14268</v>
       </c>
     </row>
     <row r="545">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>5</v>
       </c>
       <c r="H546" t="n">
-        <v>8155</v>
+        <v>8169</v>
       </c>
     </row>
     <row r="547">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>1849</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="553">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>48</v>
       </c>
       <c r="H554" t="n">
-        <v>12384</v>
+        <v>12422</v>
       </c>
     </row>
     <row r="555">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>14</v>
       </c>
       <c r="H556" t="n">
-        <v>6761</v>
+        <v>6778</v>
       </c>
     </row>
     <row r="557">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>1279</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="560">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19411,7 +19411,7 @@
         <v>1</v>
       </c>
       <c r="H560" t="n">
-        <v>15743</v>
+        <v>15821</v>
       </c>
     </row>
     <row r="561">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19830,7 +19830,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="H573" t="n">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="574">
@@ -19966,7 +19966,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -19989,7 +19989,7 @@
         <v>0</v>
       </c>
       <c r="H577" t="n">
-        <v>6415</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="578">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>35</v>
       </c>
       <c r="H578" t="n">
-        <v>3807</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="579">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>13052</v>
+        <v>13123</v>
       </c>
     </row>
     <row r="584">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20737,7 +20737,7 @@
         <v>4</v>
       </c>
       <c r="H599" t="n">
-        <v>2121</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="600">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -20873,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="H603" t="n">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="604">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21170,7 +21170,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F612" t="n">
         <v>0</v>
@@ -21394,7 +21394,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -21496,7 +21496,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="H622" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="623">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>2519</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="624">
@@ -21734,7 +21734,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -21757,7 +21757,7 @@
         <v>6</v>
       </c>
       <c r="H629" t="n">
-        <v>12675</v>
+        <v>12687</v>
       </c>
     </row>
     <row r="630">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="H631" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="632">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="H632" t="n">
-        <v>5567</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="633">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>120</v>
       </c>
       <c r="H636" t="n">
-        <v>12041</v>
+        <v>12050</v>
       </c>
     </row>
     <row r="637">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -22199,7 +22199,7 @@
         <v>33</v>
       </c>
       <c r="H642" t="n">
-        <v>907</v>
+        <v>929</v>
       </c>
     </row>
     <row r="643">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22233,7 +22233,7 @@
         <v>1</v>
       </c>
       <c r="H643" t="n">
-        <v>6622</v>
+        <v>6803</v>
       </c>
     </row>
     <row r="644">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>209</v>
       </c>
       <c r="H644" t="n">
-        <v>30517</v>
+        <v>30667</v>
       </c>
     </row>
     <row r="645">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>1819</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="650">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>9</v>
       </c>
       <c r="H656" t="n">
-        <v>22238</v>
+        <v>22246</v>
       </c>
     </row>
     <row r="657">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>3825</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="664">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>7012</v>
+        <v>7022</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>3775</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="668">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23128,7 +23128,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -23151,7 +23151,7 @@
         <v>0</v>
       </c>
       <c r="H670" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="671">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>2603</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="673">
@@ -23264,7 +23264,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23468,7 +23468,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -23491,7 +23491,7 @@
         <v>4</v>
       </c>
       <c r="H680" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="681">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>581</v>
       </c>
       <c r="H682" t="n">
-        <v>12547</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="683">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>7</v>
       </c>
       <c r="H686" t="n">
-        <v>4319</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="687">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/16</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="H687" t="n">
-        <v>1013</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="688">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="H691" t="n">
-        <v>4510</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="692">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24035,7 +24035,7 @@
         <v>7</v>
       </c>
       <c r="H696" t="n">
-        <v>15104</v>
+        <v>15110</v>
       </c>
     </row>
     <row r="697">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>1</v>
       </c>
       <c r="H700" t="n">
-        <v>5614</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="701">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24205,7 +24205,7 @@
         <v>5</v>
       </c>
       <c r="H701" t="n">
-        <v>7540</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="702">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>22</v>
       </c>
       <c r="H708" t="n">
-        <v>16311</v>
+        <v>16531</v>
       </c>
     </row>
     <row r="709">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>17</v>
       </c>
       <c r="H713" t="n">
-        <v>9165</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="714">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24828,7 +24828,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -24851,7 +24851,7 @@
         <v>1</v>
       </c>
       <c r="H720" t="n">
-        <v>1425</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="721">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="H739" t="n">
-        <v>6106</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="740">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -25837,7 +25837,7 @@
         <v>1</v>
       </c>
       <c r="H749" t="n">
-        <v>8849</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="750">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25905,7 +25905,7 @@
         <v>0</v>
       </c>
       <c r="H751" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="752">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H765" t="n">
-        <v>5499</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="766">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="n">
-        <v>4406</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="767">
@@ -26426,7 +26426,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26721,7 +26721,7 @@
         <v>6</v>
       </c>
       <c r="H775" t="n">
-        <v>5342</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="776">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -26857,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="780">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -26925,7 +26925,7 @@
         <v>8</v>
       </c>
       <c r="H781" t="n">
-        <v>31816</v>
+        <v>31987</v>
       </c>
     </row>
     <row r="782">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H784" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="785">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
       <c r="H789" t="n">
-        <v>2815</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="790">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>2</v>
       </c>
       <c r="H790" t="n">
-        <v>10019</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="791">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27435,7 +27435,7 @@
         <v>2</v>
       </c>
       <c r="H796" t="n">
-        <v>18088</v>
+        <v>18089</v>
       </c>
     </row>
     <row r="797">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="H797" t="n">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="798">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>21</v>
       </c>
       <c r="H798" t="n">
-        <v>13385</v>
+        <v>13474</v>
       </c>
     </row>
     <row r="799">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="H799" t="n">
-        <v>242</v>
+        <v>292</v>
       </c>
     </row>
     <row r="800">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2024/06/08</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28217,7 +28217,7 @@
         <v>19</v>
       </c>
       <c r="H819" t="n">
-        <v>10535</v>
+        <v>10537</v>
       </c>
     </row>
     <row r="820">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -28489,7 +28489,7 @@
         <v>70</v>
       </c>
       <c r="H827" t="n">
-        <v>16483</v>
+        <v>16505</v>
       </c>
     </row>
     <row r="828">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/15</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -28625,7 +28625,7 @@
         <v>13</v>
       </c>
       <c r="H831" t="n">
-        <v>2571</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="832">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="H846" t="n">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="847">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="H850" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="851">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -30597,7 +30597,7 @@
         <v>0</v>
       </c>
       <c r="H889" t="n">
-        <v>456</v>
+        <v>810</v>
       </c>
     </row>
     <row r="890">
@@ -32376,7 +32376,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -32399,7 +32399,7 @@
         <v>0</v>
       </c>
       <c r="H942" t="n">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="943">
@@ -32410,7 +32410,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -32433,7 +32433,7 @@
         <v>0</v>
       </c>
       <c r="H943" t="n">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="944">
@@ -33498,7 +33498,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -34314,7 +34314,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -35606,7 +35606,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -35629,7 +35629,7 @@
         <v>0</v>
       </c>
       <c r="H1037" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1038">
@@ -36558,7 +36558,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -36581,7 +36581,7 @@
         <v>0</v>
       </c>
       <c r="H1065" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1066">
@@ -37748,7 +37748,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -37771,7 +37771,7 @@
         <v>0</v>
       </c>
       <c r="H1100" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1101">
@@ -37952,7 +37952,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -37975,7 +37975,7 @@
         <v>0</v>
       </c>
       <c r="H1106" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1107">
@@ -37986,7 +37986,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="H1107" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1108">
@@ -38020,7 +38020,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -38043,7 +38043,7 @@
         <v>0</v>
       </c>
       <c r="H1108" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1109">
@@ -39992,7 +39992,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -40015,7 +40015,7 @@
         <v>0</v>
       </c>
       <c r="H1166" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1167">

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>511</v>
+        <v>910</v>
       </c>
     </row>
     <row r="60">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/06/10</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>165</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>6746</v>
+        <v>6752</v>
       </c>
     </row>
     <row r="72">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="104">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3935,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
     <row r="106">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>4979</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="172">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>5880</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="202">
@@ -9120,7 +9120,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>3194</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="259">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>3</v>
       </c>
       <c r="H281" t="n">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="282">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -10673,7 +10673,7 @@
         <v>12</v>
       </c>
       <c r="H303" t="n">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>10</v>
       </c>
       <c r="H396" t="n">
-        <v>55729</v>
+        <v>55730</v>
       </c>
     </row>
     <row r="397">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>2</v>
       </c>
       <c r="H407" t="n">
-        <v>23716</v>
+        <v>23731</v>
       </c>
     </row>
     <row r="408">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>865</v>
+        <v>894</v>
       </c>
     </row>
     <row r="417">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -15161,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>324</v>
+        <v>375</v>
       </c>
     </row>
     <row r="436">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="447">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="457">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15906,10 +15906,10 @@
         <v>286</v>
       </c>
       <c r="G457" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>5331</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="458">
@@ -15954,7 +15954,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -16147,7 +16147,7 @@
         <v>4</v>
       </c>
       <c r="H464" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="465">
@@ -16362,7 +16362,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -16385,7 +16385,7 @@
         <v>0</v>
       </c>
       <c r="H471" t="n">
-        <v>6298</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="472">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="484">
@@ -16804,7 +16804,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="H484" t="n">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="485">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="n">
-        <v>1017</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="490">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="500">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="519">
@@ -17994,7 +17994,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="n">
-        <v>3097</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="520">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/06/30</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -18504,7 +18504,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>44</v>
       </c>
       <c r="H545" t="n">
-        <v>18548</v>
+        <v>18547</v>
       </c>
     </row>
     <row r="546">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="547">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>1973</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="550">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>6336</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="555">
@@ -19524,7 +19524,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20272,7 +20272,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -20295,7 +20295,7 @@
         <v>21</v>
       </c>
       <c r="H586" t="n">
-        <v>2034</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="587">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>3820</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="605">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="H612" t="n">
-        <v>5541</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="613">
@@ -21462,7 +21462,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2024/05/02</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/27</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>24</v>
       </c>
       <c r="H628" t="n">
-        <v>17202</v>
+        <v>17223</v>
       </c>
     </row>
     <row r="629">
@@ -21870,7 +21870,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -21893,7 +21893,7 @@
         <v>7</v>
       </c>
       <c r="H633" t="n">
-        <v>25205</v>
+        <v>25245</v>
       </c>
     </row>
     <row r="634">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/27</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="H639" t="n">
-        <v>5577</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="640">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>33</v>
       </c>
       <c r="H649" t="n">
-        <v>929</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="650">
@@ -22448,7 +22448,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -22471,7 +22471,7 @@
         <v>1</v>
       </c>
       <c r="H650" t="n">
-        <v>6935</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="651">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>209</v>
       </c>
       <c r="H651" t="n">
-        <v>30861</v>
+        <v>30898</v>
       </c>
     </row>
     <row r="652">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22675,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="H656" t="n">
-        <v>1838</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="657">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>9</v>
       </c>
       <c r="H663" t="n">
-        <v>22489</v>
+        <v>22529</v>
       </c>
     </row>
     <row r="664">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>14</v>
       </c>
       <c r="H678" t="n">
-        <v>5413</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="679">
@@ -23536,7 +23536,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23559,7 +23559,7 @@
         <v>8</v>
       </c>
       <c r="H682" t="n">
-        <v>2305</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="683">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>5773</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="685">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23831,7 +23831,7 @@
         <v>581</v>
       </c>
       <c r="H690" t="n">
-        <v>12642</v>
+        <v>12694</v>
       </c>
     </row>
     <row r="691">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="H693" t="n">
-        <v>374</v>
+        <v>462</v>
       </c>
     </row>
     <row r="694">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>6</v>
       </c>
       <c r="H698" t="n">
-        <v>2466</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="699">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>1645</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="714">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="n">
-        <v>1221</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="730">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="H743" t="n">
-        <v>4683</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="744">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="H747" t="n">
-        <v>6137</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="748">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="H749" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="750">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25905,7 +25905,7 @@
         <v>57</v>
       </c>
       <c r="H751" t="n">
-        <v>13519</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="752">
@@ -26086,7 +26086,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -26109,7 +26109,7 @@
         <v>1</v>
       </c>
       <c r="H757" t="n">
-        <v>9369</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="758">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26211,7 +26211,7 @@
         <v>0</v>
       </c>
       <c r="H760" t="n">
-        <v>7165</v>
+        <v>7187</v>
       </c>
     </row>
     <row r="761">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26517,7 +26517,7 @@
         <v>49</v>
       </c>
       <c r="H769" t="n">
-        <v>20490</v>
+        <v>20509</v>
       </c>
     </row>
     <row r="770">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -26687,7 +26687,7 @@
         <v>0</v>
       </c>
       <c r="H774" t="n">
-        <v>4487</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="775">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -26959,7 +26959,7 @@
         <v>0</v>
       </c>
       <c r="H782" t="n">
-        <v>6151</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="783">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="H802" t="n">
-        <v>1487</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="803">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -27741,7 +27741,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>1809</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="806">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -28557,7 +28557,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="n">
-        <v>1177</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="830">
@@ -28704,7 +28704,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/27</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>13</v>
       </c>
       <c r="H839" t="n">
-        <v>2681</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="840">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="845">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="848">
@@ -29248,7 +29248,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -30087,7 +30087,7 @@
         <v>0</v>
       </c>
       <c r="H874" t="n">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="875">
@@ -30166,7 +30166,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="H877" t="n">
-        <v>928</v>
+        <v>936</v>
       </c>
     </row>
     <row r="878">
@@ -30438,7 +30438,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>901</v>
+        <v>911</v>
       </c>
     </row>
     <row r="886">
@@ -31390,7 +31390,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -31560,7 +31560,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -31583,7 +31583,7 @@
         <v>0</v>
       </c>
       <c r="H918" t="n">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="919">
@@ -31934,7 +31934,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -31957,7 +31957,7 @@
         <v>0</v>
       </c>
       <c r="H929" t="n">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="930">
@@ -32240,7 +32240,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -32263,7 +32263,7 @@
         <v>0</v>
       </c>
       <c r="H938" t="n">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="939">
@@ -32274,7 +32274,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -32376,7 +32376,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -32410,7 +32410,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -32433,7 +32433,7 @@
         <v>0</v>
       </c>
       <c r="H943" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="944">
@@ -33804,7 +33804,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -34042,7 +34042,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -34178,7 +34178,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -34314,7 +34314,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -34382,7 +34382,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -34790,7 +34790,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -34813,7 +34813,7 @@
         <v>0</v>
       </c>
       <c r="H1013" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1014">
@@ -34926,7 +34926,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -34949,7 +34949,7 @@
         <v>0</v>
       </c>
       <c r="H1017" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1018">
@@ -35708,7 +35708,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -36116,7 +36116,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -36139,7 +36139,7 @@
         <v>0</v>
       </c>
       <c r="H1052" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1053">
@@ -37646,7 +37646,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="H1097" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1098">
@@ -38394,7 +38394,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -38417,7 +38417,7 @@
         <v>0</v>
       </c>
       <c r="H1119" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1120">
@@ -38428,7 +38428,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -38451,7 +38451,7 @@
         <v>0</v>
       </c>
       <c r="H1120" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1121">
@@ -38564,7 +38564,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -38587,7 +38587,7 @@
         <v>0</v>
       </c>
       <c r="H1124" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1125">
@@ -39618,7 +39618,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -39641,7 +39641,7 @@
         <v>0</v>
       </c>
       <c r="H1155" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1156">
@@ -40060,7 +40060,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -40366,7 +40366,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -40570,7 +40570,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -40774,7 +40774,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1197"/>
+  <dimension ref="A1:H1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +552,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1093</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="7">
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -620,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -654,7 +654,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -858,7 +858,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>784</v>
+        <v>821</v>
       </c>
     </row>
     <row r="48">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024/06/28</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>358</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>910</v>
+        <v>970</v>
       </c>
     </row>
     <row r="60">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/03</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>109592</v>
+        <v>111982</v>
       </c>
     </row>
     <row r="74">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3499,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>2839</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="93">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>3108</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="94">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>405</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>261</v>
+        <v>305</v>
       </c>
     </row>
     <row r="124">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>1405</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="125">
@@ -4598,7 +4598,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>411</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5437,7 +5437,7 @@
         <v>2</v>
       </c>
       <c r="H149" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5743,7 +5743,7 @@
         <v>81</v>
       </c>
       <c r="H158" t="n">
-        <v>59861</v>
+        <v>60944</v>
       </c>
     </row>
     <row r="159">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>20938</v>
+        <v>21210</v>
       </c>
     </row>
     <row r="162">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>2928</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>4985</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="172">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>10931</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="176">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>740</v>
+        <v>764</v>
       </c>
     </row>
     <row r="198">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>17159</v>
+        <v>17247</v>
       </c>
     </row>
     <row r="213">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="217">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7783,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>9005</v>
+        <v>9087</v>
       </c>
     </row>
     <row r="219">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
     <row r="232">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>1887</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="233">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8372,7 +8372,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8542,7 +8542,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -8905,7 +8905,7 @@
         <v>8</v>
       </c>
       <c r="H251" t="n">
-        <v>975</v>
+        <v>985</v>
       </c>
     </row>
     <row r="252">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="n">
-        <v>1795</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="260">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>3732</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="263">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9755,7 +9755,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>2586</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="277">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="281">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>3</v>
       </c>
       <c r="H281" t="n">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="282">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="283">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>689</v>
+        <v>703</v>
       </c>
     </row>
     <row r="285">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -10537,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>523</v>
+        <v>572</v>
       </c>
     </row>
     <row r="300">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="n">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="305">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="307">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="n">
-        <v>1521</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="311">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -11829,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="H337" t="n">
-        <v>950</v>
+        <v>954</v>
       </c>
     </row>
     <row r="338">
@@ -11908,7 +11908,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -11931,7 +11931,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="341">
@@ -12078,7 +12078,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12101,7 +12101,7 @@
         <v>224</v>
       </c>
       <c r="H345" t="n">
-        <v>9249</v>
+        <v>9285</v>
       </c>
     </row>
     <row r="346">
@@ -12384,7 +12384,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>7975</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="355">
@@ -12418,7 +12418,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="356">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="362">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -12713,7 +12713,7 @@
         <v>6</v>
       </c>
       <c r="H363" t="n">
-        <v>1977</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="364">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="365">
@@ -12860,7 +12860,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="369">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>10</v>
       </c>
       <c r="H396" t="n">
-        <v>55730</v>
+        <v>56205</v>
       </c>
     </row>
     <row r="397">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -13869,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>8901</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="398">
@@ -13880,7 +13880,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>9802</v>
+        <v>9819</v>
       </c>
     </row>
     <row r="406">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>15386</v>
+        <v>15397</v>
       </c>
     </row>
     <row r="409">
@@ -14322,7 +14322,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="412">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>426</v>
+        <v>200</v>
       </c>
     </row>
     <row r="428">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -15025,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="432">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="H432" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="433">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>2</v>
       </c>
       <c r="H437" t="n">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="438">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>1075</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="439">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -15410,7 +15410,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="444">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -15705,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H451" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="452">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>97</v>
+        <v>208</v>
       </c>
     </row>
     <row r="459">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="n">
-        <v>2218</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="464">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H472" t="n">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="473">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -16623,7 +16623,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="n">
-        <v>959</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="479">
@@ -16668,7 +16668,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="484">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2024/07/06</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="487">
@@ -17008,7 +17008,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>649</v>
+        <v>671</v>
       </c>
     </row>
     <row r="491">
@@ -17110,7 +17110,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -17133,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H493" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="494">
@@ -17144,7 +17144,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="n">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="495">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/07/14</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="500">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17756,7 +17756,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -17779,7 +17779,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="n">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="513">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>4803</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="525">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="527">
@@ -18844,7 +18844,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -18867,7 +18867,7 @@
         <v>6</v>
       </c>
       <c r="H544" t="n">
-        <v>2572</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="545">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="n">
-        <v>982</v>
+        <v>991</v>
       </c>
     </row>
     <row r="547">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>1981</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="550">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>5</v>
       </c>
       <c r="H553" t="n">
-        <v>8191</v>
+        <v>8205</v>
       </c>
     </row>
     <row r="554">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>15</v>
       </c>
       <c r="H555" t="n">
-        <v>24273</v>
+        <v>24362</v>
       </c>
     </row>
     <row r="556">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -19309,7 +19309,7 @@
         <v>3</v>
       </c>
       <c r="H557" t="n">
-        <v>1536</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="558">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>1914</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="560">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="575">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -20023,7 +20023,7 @@
         <v>49</v>
       </c>
       <c r="H578" t="n">
-        <v>5486</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="579">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -20159,7 +20159,7 @@
         <v>17</v>
       </c>
       <c r="H582" t="n">
-        <v>11148</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="583">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20490,7 +20490,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F592" t="n">
         <v>33</v>
@@ -20499,7 +20499,7 @@
         <v>121</v>
       </c>
       <c r="H592" t="n">
-        <v>2277</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="593">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>1313</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="595">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="H604" t="n">
-        <v>3822</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="605">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -21054,7 +21054,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -21077,7 +21077,7 @@
         <v>0</v>
       </c>
       <c r="H609" t="n">
-        <v>2179</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="610">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>1</v>
       </c>
       <c r="H627" t="n">
-        <v>7199</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="628">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2024/07/27</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -21723,7 +21723,7 @@
         <v>24</v>
       </c>
       <c r="H628" t="n">
-        <v>17223</v>
+        <v>17442</v>
       </c>
     </row>
     <row r="629">
@@ -21802,7 +21802,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -21825,7 +21825,7 @@
         <v>1</v>
       </c>
       <c r="H631" t="n">
-        <v>1594</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="632">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>1092</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="635">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>1</v>
       </c>
       <c r="H635" t="n">
-        <v>1213</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="636">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>6</v>
       </c>
       <c r="H636" t="n">
-        <v>12965</v>
+        <v>13059</v>
       </c>
     </row>
     <row r="637">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/07/06</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="641">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>33</v>
       </c>
       <c r="H649" t="n">
-        <v>1045</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="650">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>209</v>
       </c>
       <c r="H651" t="n">
-        <v>30898</v>
+        <v>30947</v>
       </c>
     </row>
     <row r="652">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -22573,7 +22573,7 @@
         <v>0</v>
       </c>
       <c r="H653" t="n">
-        <v>2716</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="654">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>7151</v>
+        <v>7157</v>
       </c>
     </row>
     <row r="655">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="660">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>8</v>
       </c>
       <c r="H660" t="n">
-        <v>6186</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="661">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>9</v>
       </c>
       <c r="H663" t="n">
-        <v>22529</v>
+        <v>22616</v>
       </c>
     </row>
     <row r="664">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="H673" t="n">
-        <v>7195</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="674">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="n">
-        <v>5798</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="685">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>1</v>
       </c>
       <c r="H685" t="n">
-        <v>1328</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="686">
@@ -23706,7 +23706,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -23729,7 +23729,7 @@
         <v>1</v>
       </c>
       <c r="H687" t="n">
-        <v>1768</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="688">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -23763,7 +23763,7 @@
         <v>4</v>
       </c>
       <c r="H688" t="n">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="689">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23865,7 +23865,7 @@
         <v>9</v>
       </c>
       <c r="H691" t="n">
-        <v>12349</v>
+        <v>12455</v>
       </c>
     </row>
     <row r="692">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>20</v>
       </c>
       <c r="H700" t="n">
-        <v>2287</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="701">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="H705" t="n">
-        <v>2530</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="706">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="H713" t="n">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="714">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>5</v>
       </c>
       <c r="H714" t="n">
-        <v>3935</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="715">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/04</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25259,7 +25259,7 @@
         <v>1</v>
       </c>
       <c r="H732" t="n">
-        <v>4733</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="733">
@@ -25304,7 +25304,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H748" t="n">
-        <v>3488</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="749">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -26018,7 +26018,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="H755" t="n">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="756">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>4</v>
       </c>
       <c r="H764" t="n">
-        <v>3243</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="765">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26381,7 +26381,7 @@
         <v>34</v>
       </c>
       <c r="H765" t="n">
-        <v>8491</v>
+        <v>8521</v>
       </c>
     </row>
     <row r="766">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26426,7 +26426,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26517,7 +26517,7 @@
         <v>49</v>
       </c>
       <c r="H769" t="n">
-        <v>20509</v>
+        <v>20648</v>
       </c>
     </row>
     <row r="770">
@@ -26562,7 +26562,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -26585,7 +26585,7 @@
         <v>0</v>
       </c>
       <c r="H771" t="n">
-        <v>19238</v>
+        <v>19307</v>
       </c>
     </row>
     <row r="772">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -26687,7 +26687,7 @@
         <v>0</v>
       </c>
       <c r="H774" t="n">
-        <v>4490</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="775">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>23</v>
       </c>
       <c r="H776" t="n">
-        <v>5335</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="777">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>253</v>
       </c>
       <c r="H790" t="n">
-        <v>4853</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="791">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -27333,7 +27333,7 @@
         <v>1</v>
       </c>
       <c r="H793" t="n">
-        <v>25695</v>
+        <v>26006</v>
       </c>
     </row>
     <row r="794">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27435,7 +27435,7 @@
         <v>1</v>
       </c>
       <c r="H796" t="n">
-        <v>9818</v>
+        <v>9956</v>
       </c>
     </row>
     <row r="797">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>2</v>
       </c>
       <c r="H798" t="n">
-        <v>10193</v>
+        <v>10286</v>
       </c>
     </row>
     <row r="799">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -27537,7 +27537,7 @@
         <v>1</v>
       </c>
       <c r="H799" t="n">
-        <v>3484</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="800">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -27571,7 +27571,7 @@
         <v>9</v>
       </c>
       <c r="H800" t="n">
-        <v>5357</v>
+        <v>5461</v>
       </c>
     </row>
     <row r="801">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="H802" t="n">
-        <v>1511</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="803">
@@ -27718,7 +27718,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -27741,7 +27741,7 @@
         <v>0</v>
       </c>
       <c r="H805" t="n">
-        <v>1860</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="806">
@@ -27922,7 +27922,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -27945,7 +27945,7 @@
         <v>0</v>
       </c>
       <c r="H811" t="n">
-        <v>6863</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="812">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -28285,7 +28285,7 @@
         <v>2</v>
       </c>
       <c r="H821" t="n">
-        <v>1905</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="822">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -28319,7 +28319,7 @@
         <v>39</v>
       </c>
       <c r="H822" t="n">
-        <v>23292</v>
+        <v>23395</v>
       </c>
     </row>
     <row r="823">
@@ -28330,7 +28330,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -28353,7 +28353,7 @@
         <v>0</v>
       </c>
       <c r="H823" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="824">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -28489,7 +28489,7 @@
         <v>19</v>
       </c>
       <c r="H827" t="n">
-        <v>10652</v>
+        <v>10679</v>
       </c>
     </row>
     <row r="828">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -28557,7 +28557,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="n">
-        <v>1183</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="830">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="H833" t="n">
-        <v>9003</v>
+        <v>9129</v>
       </c>
     </row>
     <row r="834">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -28795,7 +28795,7 @@
         <v>9</v>
       </c>
       <c r="H836" t="n">
-        <v>2458</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="837">
@@ -28874,7 +28874,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -28897,7 +28897,7 @@
         <v>13</v>
       </c>
       <c r="H839" t="n">
-        <v>2720</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="840">
@@ -29078,7 +29078,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="H845" t="n">
-        <v>137</v>
+        <v>358</v>
       </c>
     </row>
     <row r="846">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="848">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -29384,7 +29384,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="H856" t="n">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="857">
@@ -29554,7 +29554,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="H859" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="860">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -29611,7 +29611,7 @@
         <v>0</v>
       </c>
       <c r="H860" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="861">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -29724,7 +29724,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -29747,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="H864" t="n">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="865">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>852</v>
+        <v>860</v>
       </c>
     </row>
     <row r="876">
@@ -30200,7 +30200,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="H878" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="879">
@@ -30268,7 +30268,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="H880" t="n">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="881">
@@ -30336,7 +30336,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="H882" t="n">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="883">
@@ -30404,7 +30404,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
       <c r="H884" t="n">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="885">
@@ -30506,7 +30506,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -30529,7 +30529,7 @@
         <v>0</v>
       </c>
       <c r="H887" t="n">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="888">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -30597,7 +30597,7 @@
         <v>36</v>
       </c>
       <c r="H889" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
     </row>
     <row r="890">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="H892" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="893">
@@ -30778,7 +30778,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -30801,7 +30801,7 @@
         <v>0</v>
       </c>
       <c r="H895" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="896">
@@ -30880,7 +30880,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -30903,7 +30903,7 @@
         <v>0</v>
       </c>
       <c r="H898" t="n">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="899">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/03</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -30971,7 +30971,7 @@
         <v>0</v>
       </c>
       <c r="H900" t="n">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="901">
@@ -31016,7 +31016,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="H902" t="n">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="903">
@@ -31050,7 +31050,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -31073,7 +31073,7 @@
         <v>0</v>
       </c>
       <c r="H903" t="n">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="904">
@@ -31084,7 +31084,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
       <c r="H904" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="905">
@@ -31118,7 +31118,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -31141,7 +31141,7 @@
         <v>0</v>
       </c>
       <c r="H905" t="n">
-        <v>1145</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="906">
@@ -31322,7 +31322,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -31345,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="H911" t="n">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="912">
@@ -31492,7 +31492,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="H916" t="n">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="917">
@@ -31764,7 +31764,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -31787,7 +31787,7 @@
         <v>0</v>
       </c>
       <c r="H924" t="n">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="925">
@@ -31968,7 +31968,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -31991,7 +31991,7 @@
         <v>0</v>
       </c>
       <c r="H930" t="n">
-        <v>898</v>
+        <v>908</v>
       </c>
     </row>
     <row r="931">
@@ -32002,7 +32002,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -32138,7 +32138,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -32161,7 +32161,7 @@
         <v>0</v>
       </c>
       <c r="H935" t="n">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="936">
@@ -32172,7 +32172,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -32195,7 +32195,7 @@
         <v>0</v>
       </c>
       <c r="H936" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="937">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -32229,7 +32229,7 @@
         <v>0</v>
       </c>
       <c r="H937" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="938">
@@ -32274,7 +32274,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -32297,7 +32297,7 @@
         <v>0</v>
       </c>
       <c r="H939" t="n">
-        <v>1094</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="940">
@@ -32444,7 +32444,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="H944" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="945">
@@ -32716,7 +32716,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -32739,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="H952" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="953">
@@ -32988,7 +32988,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -33011,7 +33011,7 @@
         <v>21</v>
       </c>
       <c r="H960" t="n">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="961">
@@ -33192,7 +33192,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -33215,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="H966" t="n">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="967">
@@ -33260,7 +33260,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -33283,7 +33283,7 @@
         <v>0</v>
       </c>
       <c r="H968" t="n">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="969">
@@ -33396,7 +33396,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -33419,7 +33419,7 @@
         <v>0</v>
       </c>
       <c r="H972" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="973">
@@ -33430,7 +33430,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2023/11/23</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -33453,7 +33453,7 @@
         <v>0</v>
       </c>
       <c r="H973" t="n">
-        <v>1014</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="974">
@@ -33668,7 +33668,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -33691,7 +33691,7 @@
         <v>0</v>
       </c>
       <c r="H980" t="n">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="981">
@@ -33702,7 +33702,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="H981" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="982">
@@ -33940,7 +33940,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -33963,7 +33963,7 @@
         <v>0</v>
       </c>
       <c r="H988" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="989">
@@ -34110,7 +34110,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -34133,7 +34133,7 @@
         <v>0</v>
       </c>
       <c r="H993" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="994">
@@ -34348,7 +34348,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -34371,7 +34371,7 @@
         <v>0</v>
       </c>
       <c r="H1000" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="1001">
@@ -34382,7 +34382,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -34405,7 +34405,7 @@
         <v>0</v>
       </c>
       <c r="H1001" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1002">
@@ -34484,7 +34484,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -34507,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="H1004" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1005">
@@ -34552,7 +34552,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -34575,7 +34575,7 @@
         <v>0</v>
       </c>
       <c r="H1006" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1007">
@@ -34654,7 +34654,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -34677,7 +34677,7 @@
         <v>0</v>
       </c>
       <c r="H1009" t="n">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="1010">
@@ -34688,7 +34688,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="H1010" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1011">
@@ -34722,7 +34722,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -34745,7 +34745,7 @@
         <v>0</v>
       </c>
       <c r="H1011" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1012">
@@ -34756,7 +34756,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -34779,7 +34779,7 @@
         <v>0</v>
       </c>
       <c r="H1012" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1013">
@@ -34790,7 +34790,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -34858,7 +34858,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -34881,7 +34881,7 @@
         <v>0</v>
       </c>
       <c r="H1015" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1016">
@@ -34960,7 +34960,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -34983,7 +34983,7 @@
         <v>0</v>
       </c>
       <c r="H1018" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1019">
@@ -35096,7 +35096,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -35119,7 +35119,7 @@
         <v>0</v>
       </c>
       <c r="H1022" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1023">
@@ -35164,7 +35164,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="H1024" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1025">
@@ -35198,7 +35198,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -35232,7 +35232,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="H1026" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1027">
@@ -35368,7 +35368,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -35402,7 +35402,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -35425,7 +35425,7 @@
         <v>0</v>
       </c>
       <c r="H1031" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1032">
@@ -35436,7 +35436,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -35459,7 +35459,7 @@
         <v>0</v>
       </c>
       <c r="H1032" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1033">
@@ -35504,7 +35504,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -35527,7 +35527,7 @@
         <v>0</v>
       </c>
       <c r="H1034" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1035">
@@ -35640,7 +35640,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -35674,7 +35674,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -35697,7 +35697,7 @@
         <v>0</v>
       </c>
       <c r="H1039" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1040">
@@ -35776,7 +35776,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -35799,7 +35799,7 @@
         <v>0</v>
       </c>
       <c r="H1042" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1043">
@@ -35844,7 +35844,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -35867,7 +35867,7 @@
         <v>0</v>
       </c>
       <c r="H1044" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1045">
@@ -35878,7 +35878,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -35901,7 +35901,7 @@
         <v>0</v>
       </c>
       <c r="H1045" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1046">
@@ -35912,7 +35912,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -35980,7 +35980,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -36003,7 +36003,7 @@
         <v>0</v>
       </c>
       <c r="H1048" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1049">
@@ -36014,7 +36014,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -36082,7 +36082,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -36105,7 +36105,7 @@
         <v>0</v>
       </c>
       <c r="H1051" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1052">
@@ -36218,7 +36218,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -36241,7 +36241,7 @@
         <v>0</v>
       </c>
       <c r="H1055" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1056">
@@ -36286,7 +36286,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -36309,7 +36309,7 @@
         <v>0</v>
       </c>
       <c r="H1057" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1058">
@@ -36354,7 +36354,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -36377,7 +36377,7 @@
         <v>0</v>
       </c>
       <c r="H1059" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1060">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -36411,7 +36411,7 @@
         <v>0</v>
       </c>
       <c r="H1060" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1061">
@@ -36490,7 +36490,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="H1063" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1064">
@@ -36524,7 +36524,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -36547,7 +36547,7 @@
         <v>0</v>
       </c>
       <c r="H1064" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1065">
@@ -36558,7 +36558,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -36581,7 +36581,7 @@
         <v>0</v>
       </c>
       <c r="H1065" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1066">
@@ -36592,7 +36592,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -36694,7 +36694,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -36717,7 +36717,7 @@
         <v>0</v>
       </c>
       <c r="H1069" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1070">
@@ -36898,7 +36898,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -36921,7 +36921,7 @@
         <v>0</v>
       </c>
       <c r="H1075" t="n">
-        <v>290</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1076">
@@ -37136,7 +37136,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="H1082" t="n">
-        <v>140</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1083">
@@ -37306,7 +37306,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -37329,7 +37329,7 @@
         <v>0</v>
       </c>
       <c r="H1087" t="n">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="1088">
@@ -37340,7 +37340,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/04</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -37408,7 +37408,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -37431,7 +37431,7 @@
         <v>0</v>
       </c>
       <c r="H1090" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1091">
@@ -37476,7 +37476,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -37499,7 +37499,7 @@
         <v>0</v>
       </c>
       <c r="H1092" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1093">
@@ -37544,7 +37544,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -37782,7 +37782,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -37805,7 +37805,7 @@
         <v>0</v>
       </c>
       <c r="H1101" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1102">
@@ -38122,7 +38122,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -38145,7 +38145,7 @@
         <v>0</v>
       </c>
       <c r="H1111" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1112">
@@ -38258,7 +38258,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -38281,7 +38281,7 @@
         <v>0</v>
       </c>
       <c r="H1115" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1116">
@@ -38292,7 +38292,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -38315,7 +38315,7 @@
         <v>0</v>
       </c>
       <c r="H1116" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1117">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -38349,7 +38349,7 @@
         <v>0</v>
       </c>
       <c r="H1117" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1118">
@@ -38462,7 +38462,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -38485,7 +38485,7 @@
         <v>0</v>
       </c>
       <c r="H1121" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1122">
@@ -38530,7 +38530,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -38553,7 +38553,7 @@
         <v>0</v>
       </c>
       <c r="H1123" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1124">
@@ -38598,7 +38598,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -38621,7 +38621,7 @@
         <v>0</v>
       </c>
       <c r="H1125" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1126">
@@ -38700,7 +38700,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -38723,7 +38723,7 @@
         <v>0</v>
       </c>
       <c r="H1128" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1129">
@@ -38938,7 +38938,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -38961,7 +38961,7 @@
         <v>0</v>
       </c>
       <c r="H1135" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1136">
@@ -39108,7 +39108,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -39131,7 +39131,7 @@
         <v>0</v>
       </c>
       <c r="H1140" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1141">
@@ -39414,7 +39414,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -39437,7 +39437,7 @@
         <v>0</v>
       </c>
       <c r="H1149" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1150">
@@ -39482,7 +39482,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -39505,7 +39505,7 @@
         <v>0</v>
       </c>
       <c r="H1151" t="n">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1152">
@@ -39652,7 +39652,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -39856,7 +39856,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -39924,7 +39924,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/10</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -40332,7 +40332,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -40355,7 +40355,7 @@
         <v>0</v>
       </c>
       <c r="H1176" t="n">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1177">
@@ -40366,7 +40366,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -40389,7 +40389,7 @@
         <v>0</v>
       </c>
       <c r="H1177" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1178">
@@ -40400,7 +40400,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -40423,7 +40423,7 @@
         <v>0</v>
       </c>
       <c r="H1178" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1179">
@@ -40638,7 +40638,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -40661,7 +40661,7 @@
         <v>0</v>
       </c>
       <c r="H1185" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1186">
@@ -40706,7 +40706,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -40729,7 +40729,7 @@
         <v>0</v>
       </c>
       <c r="H1187" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1188">
@@ -40740,17 +40740,17 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Dirección General de Obras Públicas (DGOP)</t>
+          <t>Corporación Municipal de Educación y Salud de San Bernardo</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>AM002</t>
+          <t>CM033</t>
         </is>
       </c>
       <c r="E1188" t="n">
@@ -40774,17 +40774,17 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Educación y Salud de San Bernardo</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>CM033</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E1189" t="n">
@@ -40808,17 +40808,17 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Municipalidad de Sierra Gorda</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>MU310</t>
         </is>
       </c>
       <c r="E1190" t="n">
@@ -40831,7 +40831,7 @@
         <v>0</v>
       </c>
       <c r="H1190" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1191">
@@ -40847,12 +40847,12 @@
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Municipalidad de Sierra Gorda</t>
+          <t>Subsecretaría de Salud Pública (MINSAL)</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>MU310</t>
+          <t>AO001</t>
         </is>
       </c>
       <c r="E1191" t="n">
@@ -40865,7 +40865,7 @@
         <v>0</v>
       </c>
       <c r="H1191" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192">
@@ -40876,17 +40876,17 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Subsecretaría de Salud Pública (MINSAL)</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>AO001</t>
+          <t>MU011</t>
         </is>
       </c>
       <c r="E1192" t="n">
@@ -40899,7 +40899,7 @@
         <v>0</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1193">
@@ -40910,17 +40910,17 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Asociación de Municipalidades de la Región del Biobío</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>MU011</t>
+          <t>MA036</t>
         </is>
       </c>
       <c r="E1193" t="n">
@@ -40933,7 +40933,7 @@
         <v>0</v>
       </c>
       <c r="H1193" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1194">
@@ -40944,17 +40944,17 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región del Biobío</t>
+          <t>Gobierno Regional de Los Ríos (GORE de Los Ríos)</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>MA036</t>
+          <t>AB086</t>
         </is>
       </c>
       <c r="E1194" t="n">
@@ -40967,7 +40967,7 @@
         <v>0</v>
       </c>
       <c r="H1194" t="n">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1195">
@@ -40978,17 +40978,17 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Los Ríos (GORE de Los Ríos)</t>
+          <t>Consejo Nacional de Televisión (CNTV)</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>AB086</t>
+          <t>AG003</t>
         </is>
       </c>
       <c r="E1195" t="n">
@@ -41001,7 +41001,7 @@
         <v>0</v>
       </c>
       <c r="H1195" t="n">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1196">
@@ -41012,17 +41012,17 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Televisión (CNTV)</t>
+          <t>Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>AG003</t>
+          <t>MU282</t>
         </is>
       </c>
       <c r="E1196" t="n">
@@ -41035,40 +41035,6 @@
         <v>0</v>
       </c>
       <c r="H1196" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>TA_Otras_autoridades</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>2024/07/19</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>Municipalidad de San Carlos</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>MU282</t>
-        </is>
-      </c>
-      <c r="E1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1197" t="n">
         <v>30</v>
       </c>
     </row>

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1199"/>
+  <dimension ref="A1:H1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>970</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="60">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>8060</v>
+        <v>8207</v>
       </c>
     </row>
     <row r="75">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5709,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="H157" t="n">
-        <v>14552</v>
+        <v>14971</v>
       </c>
     </row>
     <row r="158">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>898</v>
+        <v>909</v>
       </c>
     </row>
     <row r="166">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>2946</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="171">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6298,7 +6298,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>11178</v>
+        <v>11389</v>
       </c>
     </row>
     <row r="176">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="204">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/07/20</t>
+          <t>2024/08/17</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>763</v>
+        <v>801</v>
       </c>
     </row>
     <row r="239">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>3012</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="243">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>4729</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="256">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>2</v>
       </c>
       <c r="H285" t="n">
-        <v>1848</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="286">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>6531</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="298">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>2640</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="312">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>1378</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="373">
@@ -13234,7 +13234,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>28154</v>
+        <v>28166</v>
       </c>
     </row>
     <row r="380">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>51</v>
       </c>
       <c r="H382" t="n">
-        <v>35759</v>
+        <v>35961</v>
       </c>
     </row>
     <row r="383">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>31425</v>
+        <v>31689</v>
       </c>
     </row>
     <row r="384">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -13699,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>20010</v>
+        <v>20045</v>
       </c>
     </row>
     <row r="393">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="n">
-        <v>11083</v>
+        <v>11086</v>
       </c>
     </row>
     <row r="395">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -13835,7 +13835,7 @@
         <v>10</v>
       </c>
       <c r="H396" t="n">
-        <v>56239</v>
+        <v>56346</v>
       </c>
     </row>
     <row r="397">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>15397</v>
+        <v>15406</v>
       </c>
     </row>
     <row r="409">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>894</v>
+        <v>901</v>
       </c>
     </row>
     <row r="417">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>479</v>
+        <v>550</v>
       </c>
     </row>
     <row r="428">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/06/27</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>2</v>
       </c>
       <c r="H436" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
     </row>
     <row r="437">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="H448" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="449">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -15671,7 +15671,7 @@
         <v>0</v>
       </c>
       <c r="H450" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="451">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="H456" t="n">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="457">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="H458" t="n">
-        <v>5347</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="459">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="462">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
     </row>
     <row r="463">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="n">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="489">
@@ -17076,7 +17076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -17099,7 +17099,7 @@
         <v>0</v>
       </c>
       <c r="H492" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="493">
@@ -17552,7 +17552,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/08/18</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -18232,7 +18232,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -18255,7 +18255,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>4827</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="527">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/17</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -18901,7 +18901,7 @@
         <v>3</v>
       </c>
       <c r="H545" t="n">
-        <v>11788</v>
+        <v>11846</v>
       </c>
     </row>
     <row r="546">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>5</v>
       </c>
       <c r="H553" t="n">
-        <v>14423</v>
+        <v>14693</v>
       </c>
     </row>
     <row r="554">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="n">
-        <v>980</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="567">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -20034,7 +20034,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="n">
-        <v>2543</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="580">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="582">
@@ -20306,7 +20306,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -20329,7 +20329,7 @@
         <v>35</v>
       </c>
       <c r="H587" t="n">
-        <v>3944</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="588">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>7</v>
       </c>
       <c r="H593" t="n">
-        <v>5230</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="594">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -20805,7 +20805,7 @@
         <v>2</v>
       </c>
       <c r="H601" t="n">
-        <v>4995</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="602">
@@ -21190,7 +21190,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -21213,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="H613" t="n">
-        <v>3172</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="614">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="628">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>6</v>
       </c>
       <c r="H638" t="n">
-        <v>13076</v>
+        <v>13099</v>
       </c>
     </row>
     <row r="639">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22301,7 +22301,7 @@
         <v>120</v>
       </c>
       <c r="H645" t="n">
-        <v>12338</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="646">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>33</v>
       </c>
       <c r="H651" t="n">
-        <v>1092</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="652">
@@ -22856,7 +22856,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -22924,7 +22924,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>2688</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="665">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>3896</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="673">
@@ -23604,7 +23604,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="H686" t="n">
-        <v>5928</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="687">
@@ -23774,7 +23774,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -23797,7 +23797,7 @@
         <v>1</v>
       </c>
       <c r="H689" t="n">
-        <v>1867</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="690">
@@ -23842,7 +23842,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -23865,7 +23865,7 @@
         <v>1</v>
       </c>
       <c r="H691" t="n">
-        <v>8079</v>
+        <v>8087</v>
       </c>
     </row>
     <row r="692">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -24046,7 +24046,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
       <c r="H697" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="698">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24409,7 +24409,7 @@
         <v>7</v>
       </c>
       <c r="H707" t="n">
-        <v>15112</v>
+        <v>15738</v>
       </c>
     </row>
     <row r="708">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>1522</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="711">
@@ -24522,7 +24522,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -24545,7 +24545,7 @@
         <v>1</v>
       </c>
       <c r="H711" t="n">
-        <v>5677</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="712">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>5614</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="715">
@@ -24896,7 +24896,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="H722" t="n">
-        <v>4157</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="723">
@@ -25134,7 +25134,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -25157,7 +25157,7 @@
         <v>213</v>
       </c>
       <c r="H729" t="n">
-        <v>3750</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="730">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="H732" t="n">
-        <v>1239</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="733">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="H733" t="n">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="734">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -25395,7 +25395,7 @@
         <v>0</v>
       </c>
       <c r="H736" t="n">
-        <v>4120</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="737">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25712,7 +25712,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="H746" t="n">
-        <v>4811</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="747">
@@ -25984,7 +25984,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -26007,7 +26007,7 @@
         <v>57</v>
       </c>
       <c r="H754" t="n">
-        <v>13617</v>
+        <v>13731</v>
       </c>
     </row>
     <row r="755">
@@ -26188,7 +26188,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -26211,7 +26211,7 @@
         <v>1</v>
       </c>
       <c r="H760" t="n">
-        <v>9518</v>
+        <v>9621</v>
       </c>
     </row>
     <row r="761">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -26313,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="H763" t="n">
-        <v>7245</v>
+        <v>7248</v>
       </c>
     </row>
     <row r="764">
@@ -26460,7 +26460,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -26483,7 +26483,7 @@
         <v>34</v>
       </c>
       <c r="H768" t="n">
-        <v>8595</v>
+        <v>8622</v>
       </c>
     </row>
     <row r="769">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>0</v>
       </c>
       <c r="H776" t="n">
-        <v>5927</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="777">
@@ -26766,7 +26766,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -26789,7 +26789,7 @@
         <v>0</v>
       </c>
       <c r="H777" t="n">
-        <v>4511</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="778">
@@ -26800,7 +26800,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="H790" t="n">
-        <v>770</v>
+        <v>805</v>
       </c>
     </row>
     <row r="791">
@@ -27310,7 +27310,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -27333,7 +27333,7 @@
         <v>253</v>
       </c>
       <c r="H793" t="n">
-        <v>4941</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="794">
@@ -27378,7 +27378,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -27401,7 +27401,7 @@
         <v>0</v>
       </c>
       <c r="H795" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="796">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="H800" t="n">
-        <v>2933</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="801">
@@ -27752,7 +27752,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/17</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -27775,7 +27775,7 @@
         <v>0</v>
       </c>
       <c r="H806" t="n">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="807">
@@ -27888,7 +27888,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/17</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -27911,7 +27911,7 @@
         <v>0</v>
       </c>
       <c r="H810" t="n">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="811">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -28183,7 +28183,7 @@
         <v>4</v>
       </c>
       <c r="H818" t="n">
-        <v>12834</v>
+        <v>13041</v>
       </c>
     </row>
     <row r="819">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>70</v>
       </c>
       <c r="H838" t="n">
-        <v>16913</v>
+        <v>16937</v>
       </c>
     </row>
     <row r="839">
@@ -29146,7 +29146,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -29169,7 +29169,7 @@
         <v>0</v>
       </c>
       <c r="H847" t="n">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="848">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="H855" t="n">
-        <v>1128</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="856">
@@ -30812,7 +30812,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -30835,7 +30835,7 @@
         <v>0</v>
       </c>
       <c r="H896" t="n">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="897">
@@ -30948,7 +30948,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -30971,7 +30971,7 @@
         <v>0</v>
       </c>
       <c r="H900" t="n">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="901">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -31379,7 +31379,7 @@
         <v>0</v>
       </c>
       <c r="H912" t="n">
-        <v>809</v>
+        <v>816</v>
       </c>
     </row>
     <row r="913">
@@ -31390,7 +31390,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -31413,7 +31413,7 @@
         <v>95</v>
       </c>
       <c r="H913" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="914">
@@ -31900,7 +31900,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -31923,7 +31923,7 @@
         <v>0</v>
       </c>
       <c r="H928" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="929">
@@ -32002,7 +32002,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -32025,7 +32025,7 @@
         <v>0</v>
       </c>
       <c r="H931" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="932">
@@ -32716,7 +32716,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -32739,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="H952" t="n">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="953">
@@ -33022,7 +33022,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -33045,7 +33045,7 @@
         <v>0</v>
       </c>
       <c r="H961" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="962">
@@ -33260,7 +33260,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -33283,7 +33283,7 @@
         <v>0</v>
       </c>
       <c r="H968" t="n">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="969">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -33702,7 +33702,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2023/05/13</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="H981" t="n">
-        <v>426</v>
+        <v>516</v>
       </c>
     </row>
     <row r="982">
@@ -34552,7 +34552,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -34575,7 +34575,7 @@
         <v>0</v>
       </c>
       <c r="H1006" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1007">
@@ -35028,7 +35028,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -35051,7 +35051,7 @@
         <v>0</v>
       </c>
       <c r="H1020" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1021">
@@ -36864,7 +36864,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -36887,7 +36887,7 @@
         <v>0</v>
       </c>
       <c r="H1074" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1075">
@@ -37782,7 +37782,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -37986,7 +37986,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="H1107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1108">
@@ -38088,7 +38088,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="H1110" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1111">
@@ -39210,7 +39210,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/08/17</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -39233,7 +39233,7 @@
         <v>0</v>
       </c>
       <c r="H1143" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1144">
@@ -39754,7 +39754,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -39777,7 +39777,7 @@
         <v>0</v>
       </c>
       <c r="H1159" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1160">
@@ -40604,7 +40604,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -40627,7 +40627,7 @@
         <v>0</v>
       </c>
       <c r="H1184" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1185">
@@ -41046,7 +41046,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -41069,7 +41069,7 @@
         <v>0</v>
       </c>
       <c r="H1197" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1198">
@@ -41138,6 +41138,108 @@
       </c>
       <c r="H1199" t="n">
         <v>42</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Municipalidad de Ninhue</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>MU182</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2024/08/22</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>Municipalidad de Puchuncaví</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>MU229</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2024/08/22</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>Gobierno Regional de Atacama (GORE)</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>AB078</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5641,7 +5641,7 @@
         <v>27</v>
       </c>
       <c r="H155" t="n">
-        <v>3668</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="156">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>1525</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="255">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -10231,7 +10231,7 @@
         <v>9</v>
       </c>
       <c r="H290" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="291">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2024/08/31</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>2524</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="353">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>51</v>
       </c>
       <c r="H382" t="n">
-        <v>35961</v>
+        <v>36235</v>
       </c>
     </row>
     <row r="383">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="n">
-        <v>11086</v>
+        <v>11088</v>
       </c>
     </row>
     <row r="395">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>15406</v>
+        <v>15422</v>
       </c>
     </row>
     <row r="409">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="484">
@@ -18096,7 +18096,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="n">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="523">
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2024/08/18</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -19037,7 +19037,7 @@
         <v>3</v>
       </c>
       <c r="H549" t="n">
-        <v>11846</v>
+        <v>11911</v>
       </c>
     </row>
     <row r="550">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -19071,7 +19071,7 @@
         <v>6</v>
       </c>
       <c r="H550" t="n">
-        <v>2874</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="551">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>2568</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="584">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -21961,7 +21961,7 @@
         <v>0</v>
       </c>
       <c r="H635" t="n">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="636">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="H690" t="n">
-        <v>6181</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="691">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>171</v>
       </c>
       <c r="H704" t="n">
-        <v>7142</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="705">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>1</v>
       </c>
       <c r="H739" t="n">
-        <v>4778</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="740">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -27684,7 +27684,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="H804" t="n">
-        <v>2979</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="805">
@@ -28024,7 +28024,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2024/08/17</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -28047,7 +28047,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="n">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="815">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="H815" t="n">
-        <v>16347</v>
+        <v>18548</v>
       </c>
     </row>
     <row r="816">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="H866" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="867">
@@ -30438,7 +30438,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="886">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -30665,7 +30665,7 @@
         <v>0</v>
       </c>
       <c r="H891" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="892">
@@ -31220,7 +31220,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -31322,7 +31322,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -31345,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="H911" t="n">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="912">
@@ -31662,7 +31662,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -31685,7 +31685,7 @@
         <v>0</v>
       </c>
       <c r="H921" t="n">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="922">
@@ -32138,7 +32138,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -32161,7 +32161,7 @@
         <v>0</v>
       </c>
       <c r="H935" t="n">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="936">
@@ -35368,7 +35368,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -35391,7 +35391,7 @@
         <v>0</v>
       </c>
       <c r="H1030" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1031">
@@ -36184,7 +36184,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -36207,7 +36207,7 @@
         <v>0</v>
       </c>
       <c r="H1054" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1055">
@@ -37952,7 +37952,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -37975,7 +37975,7 @@
         <v>0</v>
       </c>
       <c r="H1106" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1107">
@@ -38190,7 +38190,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -38349,7 +38349,7 @@
         <v>0</v>
       </c>
       <c r="H1117" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1118">
@@ -38904,7 +38904,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/17</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -38927,7 +38927,7 @@
         <v>0</v>
       </c>
       <c r="H1134" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1135">
@@ -40162,7 +40162,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>2024/08/10</t>
+          <t>2024/09/16</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>8373</v>
+        <v>8513</v>
       </c>
     </row>
     <row r="75">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>1034</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="109">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4315,7 +4315,7 @@
         <v>58</v>
       </c>
       <c r="H116" t="n">
-        <v>9244</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="117">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>5012</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="172">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7103,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>692</v>
+        <v>719</v>
       </c>
     </row>
     <row r="199">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>6065</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="202">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="204">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/08/17</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>3014</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="243">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>2</v>
       </c>
       <c r="H285" t="n">
-        <v>1869</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="286">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -10469,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>6581</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="298">
@@ -10854,7 +10854,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -10877,7 +10877,7 @@
         <v>11</v>
       </c>
       <c r="H309" t="n">
-        <v>1654</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="310">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -11990,7 +11990,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="343">
@@ -12894,12 +12894,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2024/08/31</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>CFT de la Región de Coquimbo</t>
+          <t>Centro de Formación Técnica Estatal Región de Coquimbo</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>31689</v>
+        <v>31991</v>
       </c>
     </row>
     <row r="384">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14209,7 +14209,7 @@
         <v>2</v>
       </c>
       <c r="H407" t="n">
-        <v>23736</v>
+        <v>23747</v>
       </c>
     </row>
     <row r="408">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -14866,7 +14866,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>756</v>
+        <v>796</v>
       </c>
     </row>
     <row r="428">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>417</v>
+        <v>459</v>
       </c>
     </row>
     <row r="437">
@@ -15274,7 +15274,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>1105</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="440">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="445">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="462">
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="n">
-        <v>683</v>
+        <v>377</v>
       </c>
     </row>
     <row r="481">
@@ -16770,7 +16770,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>213</v>
+        <v>278</v>
       </c>
     </row>
     <row r="484">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="H488" t="n">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="489">
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17790,7 +17790,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -18028,7 +18028,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -18334,7 +18334,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="n">
-        <v>4858</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="530">
@@ -18980,7 +18980,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="549">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="553">
@@ -19218,7 +19218,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="H555" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="556">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>5</v>
       </c>
       <c r="H559" t="n">
-        <v>8206</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="560">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="H565" t="n">
-        <v>1973</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="566">
@@ -19592,7 +19592,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -19615,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="H566" t="n">
-        <v>3362</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="567">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -20465,7 +20465,7 @@
         <v>35</v>
       </c>
       <c r="H591" t="n">
-        <v>3951</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="592">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -20941,7 +20941,7 @@
         <v>2</v>
       </c>
       <c r="H605" t="n">
-        <v>5078</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="606">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -21247,7 +21247,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="615">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="H623" t="n">
-        <v>5582</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="624">
@@ -21564,7 +21564,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>183</v>
       </c>
       <c r="H624" t="n">
-        <v>18431</v>
+        <v>18591</v>
       </c>
     </row>
     <row r="625">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>120</v>
       </c>
       <c r="H649" t="n">
-        <v>12439</v>
+        <v>12493</v>
       </c>
     </row>
     <row r="650">
@@ -22584,7 +22584,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2024/06/27</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="H654" t="n">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="655">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22641,7 +22641,7 @@
         <v>33</v>
       </c>
       <c r="H655" t="n">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="656">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22777,7 +22777,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>2728</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="660">
@@ -22788,7 +22788,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="H660" t="n">
-        <v>7163</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="661">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="H667" t="n">
-        <v>3728</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="668">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -23978,7 +23978,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -24001,7 +24001,7 @@
         <v>1</v>
       </c>
       <c r="H695" t="n">
-        <v>8114</v>
+        <v>8119</v>
       </c>
     </row>
     <row r="696">
@@ -24012,7 +24012,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -24035,7 +24035,7 @@
         <v>581</v>
       </c>
       <c r="H696" t="n">
-        <v>12729</v>
+        <v>12745</v>
       </c>
     </row>
     <row r="697">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>7</v>
       </c>
       <c r="H700" t="n">
-        <v>4394</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="701">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="H714" t="n">
-        <v>1564</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="715">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24681,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="H715" t="n">
-        <v>5733</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="716">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24715,7 +24715,7 @@
         <v>5</v>
       </c>
       <c r="H716" t="n">
-        <v>7824</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="717">
@@ -25032,7 +25032,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -25055,7 +25055,7 @@
         <v>0</v>
       </c>
       <c r="H726" t="n">
-        <v>4160</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="727">
@@ -25270,7 +25270,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -25293,7 +25293,7 @@
         <v>213</v>
       </c>
       <c r="H733" t="n">
-        <v>3823</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="734">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="H740" t="n">
-        <v>4211</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="741">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>4863</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="751">
@@ -26324,7 +26324,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>1</v>
       </c>
       <c r="H764" t="n">
-        <v>9900</v>
+        <v>9923</v>
       </c>
     </row>
     <row r="765">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26415,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="H766" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="767">
@@ -26494,7 +26494,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -26562,7 +26562,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -26868,7 +26868,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -26891,7 +26891,7 @@
         <v>0</v>
       </c>
       <c r="H780" t="n">
-        <v>6237</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="781">
@@ -26902,7 +26902,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -27140,7 +27140,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -27208,7 +27208,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -27231,7 +27231,7 @@
         <v>6</v>
       </c>
       <c r="H790" t="n">
-        <v>5398</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="791">
@@ -28262,7 +28262,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -28285,7 +28285,7 @@
         <v>3</v>
       </c>
       <c r="H821" t="n">
-        <v>17126</v>
+        <v>17198</v>
       </c>
     </row>
     <row r="822">
@@ -28704,7 +28704,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -28727,7 +28727,7 @@
         <v>19</v>
       </c>
       <c r="H834" t="n">
-        <v>11100</v>
+        <v>11102</v>
       </c>
     </row>
     <row r="835">
@@ -29044,7 +29044,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -29067,7 +29067,7 @@
         <v>0</v>
       </c>
       <c r="H844" t="n">
-        <v>1567</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="845">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>13</v>
       </c>
       <c r="H846" t="n">
-        <v>2954</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="847">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2024/08/25</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="H872" t="n">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="873">
@@ -30302,7 +30302,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -30325,7 +30325,7 @@
         <v>0</v>
       </c>
       <c r="H881" t="n">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="882">
@@ -31084,7 +31084,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
       <c r="H904" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="905">
@@ -31356,7 +31356,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -31379,7 +31379,7 @@
         <v>0</v>
       </c>
       <c r="H912" t="n">
-        <v>1156</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="913">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -32875,7 +32875,7 @@
         <v>0</v>
       </c>
       <c r="H956" t="n">
-        <v>744</v>
+        <v>751</v>
       </c>
     </row>
     <row r="957">
@@ -33430,7 +33430,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -33668,7 +33668,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -33691,7 +33691,7 @@
         <v>0</v>
       </c>
       <c r="H980" t="n">
-        <v>1143</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="981">
@@ -34008,7 +34008,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -34031,7 +34031,7 @@
         <v>0</v>
       </c>
       <c r="H990" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="991">
@@ -34042,7 +34042,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -34518,7 +34518,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -34541,7 +34541,7 @@
         <v>0</v>
       </c>
       <c r="H1005" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1006">
@@ -34654,7 +34654,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -34677,7 +34677,7 @@
         <v>0</v>
       </c>
       <c r="H1009" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1010">
@@ -35096,7 +35096,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -36592,7 +36592,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -36615,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="H1066" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1067">
@@ -37034,7 +37034,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -37057,7 +37057,7 @@
         <v>0</v>
       </c>
       <c r="H1079" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1080">
@@ -37306,7 +37306,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -37340,7 +37340,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -37363,7 +37363,7 @@
         <v>0</v>
       </c>
       <c r="H1088" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1089">
@@ -38292,7 +38292,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -38315,7 +38315,7 @@
         <v>0</v>
       </c>
       <c r="H1116" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1117">
@@ -38326,7 +38326,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -38564,7 +38564,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -38587,7 +38587,7 @@
         <v>0</v>
       </c>
       <c r="H1124" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1125">
@@ -40468,7 +40468,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -40808,7 +40808,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -40831,7 +40831,7 @@
         <v>0</v>
       </c>
       <c r="H1190" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1191">
@@ -40876,7 +40876,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -40899,7 +40899,7 @@
         <v>0</v>
       </c>
       <c r="H1192" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1193">
@@ -41352,7 +41352,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -41375,7 +41375,7 @@
         <v>0</v>
       </c>
       <c r="H1206" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1207">
@@ -41420,7 +41420,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -41443,7 +41443,7 @@
         <v>0</v>
       </c>
       <c r="H1208" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1209">

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>8648</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="75">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="99">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,7 +6593,7 @@
         <v>85</v>
       </c>
       <c r="H183" t="n">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="184">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6661,7 +6661,7 @@
         <v>7</v>
       </c>
       <c r="H185" t="n">
-        <v>876</v>
+        <v>893</v>
       </c>
     </row>
     <row r="186">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>6122</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="203">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>1166</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="205">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>10552</v>
+        <v>10779</v>
       </c>
     </row>
     <row r="221">
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="251">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="n">
-        <v>3213</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="260">
@@ -9936,7 +9936,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -9959,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="H282" t="n">
-        <v>807</v>
+        <v>831</v>
       </c>
     </row>
     <row r="283">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="n">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="285">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -10911,7 +10911,7 @@
         <v>11</v>
       </c>
       <c r="H310" t="n">
-        <v>1662</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="311">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>2680</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="313">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>2659</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="354">
@@ -12792,7 +12792,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -12815,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="n">
-        <v>427</v>
+        <v>460</v>
       </c>
     </row>
     <row r="367">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>2605</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="374">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>194</v>
+        <v>272</v>
       </c>
     </row>
     <row r="383">
@@ -13676,7 +13676,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14039,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>7223</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="403">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="n">
-        <v>7441</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="406">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14243,7 +14243,7 @@
         <v>2</v>
       </c>
       <c r="H408" t="n">
-        <v>23748</v>
+        <v>23757</v>
       </c>
     </row>
     <row r="409">
@@ -14254,7 +14254,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>15429</v>
+        <v>15430</v>
       </c>
     </row>
     <row r="410">
@@ -14662,7 +14662,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2024/10/01</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -14934,7 +14934,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="n">
-        <v>796</v>
+        <v>864</v>
       </c>
     </row>
     <row r="430">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="438">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>459</v>
+        <v>508</v>
       </c>
     </row>
     <row r="439">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -15773,7 +15773,7 @@
         <v>7</v>
       </c>
       <c r="H453" t="n">
-        <v>761</v>
+        <v>780</v>
       </c>
     </row>
     <row r="454">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -15909,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="H457" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="458">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>5360</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="463">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -16430,7 +16430,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>27</v>
       </c>
       <c r="H479" t="n">
-        <v>7619</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="480">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -17178,7 +17178,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -17201,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="H495" t="n">
-        <v>1089</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="496">
@@ -17280,7 +17280,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -17303,7 +17303,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="499">
@@ -17858,7 +17858,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -18164,7 +18164,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="n">
-        <v>743</v>
+        <v>798</v>
       </c>
     </row>
     <row r="525">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>6</v>
       </c>
       <c r="H552" t="n">
-        <v>2956</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="553">
@@ -19184,7 +19184,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="H554" t="n">
-        <v>1006</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="555">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>5</v>
       </c>
       <c r="H559" t="n">
-        <v>14833</v>
+        <v>14976</v>
       </c>
     </row>
     <row r="560">
@@ -19388,7 +19388,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>5</v>
       </c>
       <c r="H561" t="n">
-        <v>8240</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="562">
@@ -19456,7 +19456,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -19479,7 +19479,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="n">
-        <v>7125</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="563">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -19649,7 +19649,7 @@
         <v>0</v>
       </c>
       <c r="H567" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="568">
@@ -19694,7 +19694,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -19717,7 +19717,7 @@
         <v>48</v>
       </c>
       <c r="H569" t="n">
-        <v>12568</v>
+        <v>12757</v>
       </c>
     </row>
     <row r="570">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20533,7 +20533,7 @@
         <v>35</v>
       </c>
       <c r="H593" t="n">
-        <v>3978</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="594">
@@ -20952,7 +20952,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="H606" t="n">
-        <v>1531</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="607">
@@ -21020,7 +21020,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -21122,7 +21122,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -21145,7 +21145,7 @@
         <v>0</v>
       </c>
       <c r="H611" t="n">
-        <v>2574</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="612">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -21315,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="n">
-        <v>462</v>
+        <v>499</v>
       </c>
     </row>
     <row r="617">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>2</v>
       </c>
       <c r="H627" t="n">
-        <v>7019</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="628">
@@ -21768,7 +21768,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -21995,7 +21995,7 @@
         <v>24</v>
       </c>
       <c r="H636" t="n">
-        <v>17807</v>
+        <v>18141</v>
       </c>
     </row>
     <row r="637">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="638">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="H638" t="n">
-        <v>2557</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="639">
@@ -22074,7 +22074,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="H639" t="n">
-        <v>1767</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="640">
@@ -22244,7 +22244,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>6</v>
       </c>
       <c r="H644" t="n">
-        <v>13406</v>
+        <v>13451</v>
       </c>
     </row>
     <row r="645">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>120</v>
       </c>
       <c r="H651" t="n">
-        <v>12538</v>
+        <v>12547</v>
       </c>
     </row>
     <row r="652">
@@ -22686,7 +22686,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -22709,7 +22709,7 @@
         <v>33</v>
       </c>
       <c r="H657" t="n">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="658">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="H661" t="n">
-        <v>2737</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="662">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -22981,7 +22981,7 @@
         <v>5</v>
       </c>
       <c r="H665" t="n">
-        <v>2445</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="666">
@@ -22992,7 +22992,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -23015,7 +23015,7 @@
         <v>0</v>
       </c>
       <c r="H666" t="n">
-        <v>2415</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="667">
@@ -23026,7 +23026,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -23094,7 +23094,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H669" t="n">
-        <v>4267</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="670">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23332,7 +23332,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="H676" t="n">
-        <v>700</v>
+        <v>731</v>
       </c>
     </row>
     <row r="677">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="H685" t="n">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="686">
@@ -23672,7 +23672,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -23695,7 +23695,7 @@
         <v>14</v>
       </c>
       <c r="H686" t="n">
-        <v>5426</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="687">
@@ -23740,7 +23740,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24137,7 +24137,7 @@
         <v>9</v>
       </c>
       <c r="H699" t="n">
-        <v>12643</v>
+        <v>12662</v>
       </c>
     </row>
     <row r="700">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24420,7 +24420,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="H708" t="n">
-        <v>4703</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="709">
@@ -24613,7 +24613,7 @@
         <v>7</v>
       </c>
       <c r="H713" t="n">
-        <v>16097</v>
+        <v>16571</v>
       </c>
     </row>
     <row r="714">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -24749,7 +24749,7 @@
         <v>1</v>
       </c>
       <c r="H717" t="n">
-        <v>6147</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="718">
@@ -25304,7 +25304,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -25327,7 +25327,7 @@
         <v>16</v>
       </c>
       <c r="H734" t="n">
-        <v>2133</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="735">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -25361,7 +25361,7 @@
         <v>213</v>
       </c>
       <c r="H735" t="n">
-        <v>4005</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="736">
@@ -25440,7 +25440,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -25531,7 +25531,7 @@
         <v>0</v>
       </c>
       <c r="H740" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="741">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -26415,7 +26415,7 @@
         <v>1</v>
       </c>
       <c r="H766" t="n">
-        <v>9923</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="767">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -26687,7 +26687,7 @@
         <v>34</v>
       </c>
       <c r="H774" t="n">
-        <v>8895</v>
+        <v>8898</v>
       </c>
     </row>
     <row r="775">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/10/05</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -26959,7 +26959,7 @@
         <v>0</v>
       </c>
       <c r="H782" t="n">
-        <v>6441</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="783">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
       <c r="H786" t="n">
-        <v>3117</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="787">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -27367,7 +27367,7 @@
         <v>4</v>
       </c>
       <c r="H794" t="n">
-        <v>4017</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="795">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="H796" t="n">
-        <v>912</v>
+        <v>976</v>
       </c>
     </row>
     <row r="797">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -27537,7 +27537,7 @@
         <v>253</v>
       </c>
       <c r="H799" t="n">
-        <v>5109</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="800">
@@ -27752,7 +27752,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -27775,7 +27775,7 @@
         <v>0</v>
       </c>
       <c r="H806" t="n">
-        <v>3005</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="807">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2024/08/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -28092,7 +28092,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -28115,7 +28115,7 @@
         <v>0</v>
       </c>
       <c r="H816" t="n">
-        <v>392</v>
+        <v>458</v>
       </c>
     </row>
     <row r="817">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -28319,7 +28319,7 @@
         <v>4</v>
       </c>
       <c r="H822" t="n">
-        <v>6759</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="823">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -28387,7 +28387,7 @@
         <v>4</v>
       </c>
       <c r="H824" t="n">
-        <v>13229</v>
+        <v>13343</v>
       </c>
     </row>
     <row r="825">
@@ -28432,7 +28432,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -28455,7 +28455,7 @@
         <v>0</v>
       </c>
       <c r="H826" t="n">
-        <v>810</v>
+        <v>825</v>
       </c>
     </row>
     <row r="827">
@@ -28602,7 +28602,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -28625,7 +28625,7 @@
         <v>39</v>
       </c>
       <c r="H831" t="n">
-        <v>23919</v>
+        <v>23920</v>
       </c>
     </row>
     <row r="832">
@@ -28795,7 +28795,7 @@
         <v>19</v>
       </c>
       <c r="H836" t="n">
-        <v>11150</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="837">
@@ -29520,7 +29520,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -29860,7 +29860,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -29883,7 +29883,7 @@
         <v>0</v>
       </c>
       <c r="H868" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="869">
@@ -30098,7 +30098,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -30121,7 +30121,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="876">
@@ -31594,7 +31594,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -31617,7 +31617,7 @@
         <v>95</v>
       </c>
       <c r="H919" t="n">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="920">
@@ -31764,7 +31764,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -31832,7 +31832,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -31855,7 +31855,7 @@
         <v>0</v>
       </c>
       <c r="H926" t="n">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="927">
@@ -32070,7 +32070,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -32093,7 +32093,7 @@
         <v>0</v>
       </c>
       <c r="H933" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="934">
@@ -32206,7 +32206,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -32229,7 +32229,7 @@
         <v>0</v>
       </c>
       <c r="H937" t="n">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="938">
@@ -32478,7 +32478,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -32501,7 +32501,7 @@
         <v>0</v>
       </c>
       <c r="H945" t="n">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="946">
@@ -33226,7 +33226,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -33249,7 +33249,7 @@
         <v>0</v>
       </c>
       <c r="H967" t="n">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="968">
@@ -33464,7 +33464,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -33487,7 +33487,7 @@
         <v>0</v>
       </c>
       <c r="H974" t="n">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="975">
@@ -33532,7 +33532,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -33555,7 +33555,7 @@
         <v>0</v>
       </c>
       <c r="H976" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="977">
@@ -33872,7 +33872,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -33895,7 +33895,7 @@
         <v>0</v>
       </c>
       <c r="H986" t="n">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="987">
@@ -34484,7 +34484,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -34507,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="H1004" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1005">
@@ -34620,7 +34620,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -35232,7 +35232,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="H1026" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1027">
@@ -35266,7 +35266,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -35289,7 +35289,7 @@
         <v>0</v>
       </c>
       <c r="H1027" t="n">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="1028">
@@ -35470,7 +35470,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -35810,7 +35810,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -36320,7 +36320,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="H1058" t="n">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1059">
@@ -36660,7 +36660,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="H1068" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1069">
@@ -37680,7 +37680,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="H1098" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1099">
@@ -38360,7 +38360,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -38383,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="H1118" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1119">
@@ -38496,7 +38496,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -38519,7 +38519,7 @@
         <v>0</v>
       </c>
       <c r="H1122" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1123">
@@ -38564,7 +38564,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -38587,7 +38587,7 @@
         <v>0</v>
       </c>
       <c r="H1124" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1125">
@@ -38700,7 +38700,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -38723,7 +38723,7 @@
         <v>0</v>
       </c>
       <c r="H1128" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1129">
@@ -38972,7 +38972,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2024/09/17</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -38995,7 +38995,7 @@
         <v>0</v>
       </c>
       <c r="H1136" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1137">
@@ -39448,7 +39448,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -39471,7 +39471,7 @@
         <v>0</v>
       </c>
       <c r="H1150" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1151">
@@ -40298,7 +40298,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -40321,7 +40321,7 @@
         <v>0</v>
       </c>
       <c r="H1175" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1176">
@@ -40366,7 +40366,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -40389,7 +40389,7 @@
         <v>0</v>
       </c>
       <c r="H1177" t="n">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1178">
@@ -40842,7 +40842,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -40865,7 +40865,7 @@
         <v>0</v>
       </c>
       <c r="H1191" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1192">
@@ -41080,7 +41080,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
@@ -41103,7 +41103,7 @@
         <v>0</v>
       </c>
       <c r="H1198" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1199">
@@ -41284,7 +41284,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
@@ -41307,7 +41307,7 @@
         <v>0</v>
       </c>
       <c r="H1204" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1205">
@@ -41386,7 +41386,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -41409,7 +41409,7 @@
         <v>0</v>
       </c>
       <c r="H1207" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1208">
@@ -41454,7 +41454,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
@@ -41477,7 +41477,7 @@
         <v>0</v>
       </c>
       <c r="H1209" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1210">
@@ -41488,7 +41488,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
@@ -41511,7 +41511,7 @@
         <v>0</v>
       </c>
       <c r="H1210" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1211">

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1225</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="61">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>969</v>
+        <v>973</v>
       </c>
     </row>
     <row r="129">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>7780</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="162">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6604,7 +6604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>85</v>
       </c>
       <c r="H184" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="185">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>6180</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="204">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="210">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2024/09/29</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>13220</v>
+        <v>13432</v>
       </c>
     </row>
     <row r="224">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -8134,7 +8134,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -8780,7 +8780,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2024/09/16</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>1536</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="257">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9415,7 +9415,7 @@
         <v>22</v>
       </c>
       <c r="H266" t="n">
-        <v>1650</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="267">
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>2354</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="269">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="282">
@@ -10276,7 +10276,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10299,7 +10299,7 @@
         <v>9</v>
       </c>
       <c r="H292" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="293">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>2696</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="314">
@@ -11772,7 +11772,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12214,7 +12214,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12237,7 +12237,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>939</v>
+        <v>959</v>
       </c>
     </row>
     <row r="350">
@@ -12554,7 +12554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="372">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>4539</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="375">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13427,7 +13427,7 @@
         <v>51</v>
       </c>
       <c r="H384" t="n">
-        <v>36437</v>
+        <v>36679</v>
       </c>
     </row>
     <row r="385">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2024/11/16</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>7232</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="404">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>973</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="420">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>465</v>
+        <v>513</v>
       </c>
     </row>
     <row r="434">
@@ -15206,7 +15206,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="439">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>508</v>
+        <v>554</v>
       </c>
     </row>
     <row r="441">
@@ -15818,7 +15818,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -15841,7 +15841,7 @@
         <v>7</v>
       </c>
       <c r="H455" t="n">
-        <v>780</v>
+        <v>828</v>
       </c>
     </row>
     <row r="456">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="H462" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="463">
@@ -16294,7 +16294,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="H479" t="n">
-        <v>13434</v>
+        <v>16939</v>
       </c>
     </row>
     <row r="480">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="n">
-        <v>1149</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="498">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="500">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="501">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2024/11/17</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="n">
-        <v>1049</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="519">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="553">
@@ -19150,7 +19150,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -19173,7 +19173,7 @@
         <v>3</v>
       </c>
       <c r="H553" t="n">
-        <v>12017</v>
+        <v>12107</v>
       </c>
     </row>
     <row r="554">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="557">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>2071</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="560">
@@ -19422,7 +19422,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -19445,7 +19445,7 @@
         <v>5</v>
       </c>
       <c r="H561" t="n">
-        <v>14976</v>
+        <v>15209</v>
       </c>
     </row>
     <row r="562">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -19513,7 +19513,7 @@
         <v>5</v>
       </c>
       <c r="H563" t="n">
-        <v>8249</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="564">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -20544,7 +20544,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2024/11/16</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="H594" t="n">
-        <v>7196</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="595">
@@ -20850,7 +20850,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -21111,7 +21111,7 @@
         <v>112</v>
       </c>
       <c r="H610" t="n">
-        <v>11260</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="611">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -21281,7 +21281,7 @@
         <v>3</v>
       </c>
       <c r="H615" t="n">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="616">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -21553,7 +21553,7 @@
         <v>14</v>
       </c>
       <c r="H623" t="n">
-        <v>20887</v>
+        <v>21069</v>
       </c>
     </row>
     <row r="624">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -21655,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="H626" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="627">
@@ -21904,7 +21904,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="H634" t="n">
-        <v>3944</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="635">
@@ -21972,7 +21972,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22063,7 +22063,7 @@
         <v>24</v>
       </c>
       <c r="H638" t="n">
-        <v>18298</v>
+        <v>18478</v>
       </c>
     </row>
     <row r="639">
@@ -22108,7 +22108,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -22131,7 +22131,7 @@
         <v>0</v>
       </c>
       <c r="H640" t="n">
-        <v>2576</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="641">
@@ -22210,7 +22210,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -22233,7 +22233,7 @@
         <v>7</v>
       </c>
       <c r="H643" t="n">
-        <v>25883</v>
+        <v>25917</v>
       </c>
     </row>
     <row r="644">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="652">
@@ -22573,7 +22573,7 @@
         <v>120</v>
       </c>
       <c r="H653" t="n">
-        <v>12720</v>
+        <v>13016</v>
       </c>
     </row>
     <row r="654">
@@ -22618,7 +22618,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2024/10/02</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22777,7 +22777,7 @@
         <v>33</v>
       </c>
       <c r="H659" t="n">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="660">
@@ -22890,7 +22890,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="H663" t="n">
-        <v>2744</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="664">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="H678" t="n">
-        <v>731</v>
+        <v>790</v>
       </c>
     </row>
     <row r="679">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>7901</v>
+        <v>7994</v>
       </c>
     </row>
     <row r="684">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="H690" t="n">
-        <v>2851</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="691">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -23899,7 +23899,7 @@
         <v>8</v>
       </c>
       <c r="H692" t="n">
-        <v>2342</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="693">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -23967,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="H694" t="n">
-        <v>6410</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="695">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -24103,7 +24103,7 @@
         <v>4</v>
       </c>
       <c r="H698" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="699">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -24318,7 +24318,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -24488,7 +24488,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="H710" t="n">
-        <v>4742</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="711">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -24817,7 +24817,7 @@
         <v>1</v>
       </c>
       <c r="H719" t="n">
-        <v>6281</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="720">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -25338,7 +25338,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -25361,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="H735" t="n">
-        <v>961</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="736">
@@ -25406,7 +25406,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -25429,7 +25429,7 @@
         <v>213</v>
       </c>
       <c r="H737" t="n">
-        <v>4171</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="738">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>1</v>
       </c>
       <c r="H739" t="n">
-        <v>1626</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="740">
@@ -25542,7 +25542,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -25565,7 +25565,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="n">
-        <v>652</v>
+        <v>672</v>
       </c>
     </row>
     <row r="742">
@@ -25678,7 +25678,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -25701,7 +25701,7 @@
         <v>0</v>
       </c>
       <c r="H745" t="n">
-        <v>1115</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="746">
@@ -25780,7 +25780,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -25803,7 +25803,7 @@
         <v>8</v>
       </c>
       <c r="H748" t="n">
-        <v>2875</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="749">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="H750" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="751">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -25905,7 +25905,7 @@
         <v>4</v>
       </c>
       <c r="H751" t="n">
-        <v>14740</v>
+        <v>14916</v>
       </c>
     </row>
     <row r="752">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -26245,7 +26245,7 @@
         <v>28</v>
       </c>
       <c r="H761" t="n">
-        <v>1119</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="762">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -26551,7 +26551,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="771">
@@ -26630,7 +26630,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26721,7 +26721,7 @@
         <v>4</v>
       </c>
       <c r="H775" t="n">
-        <v>3301</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="776">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>34</v>
       </c>
       <c r="H776" t="n">
-        <v>8906</v>
+        <v>8947</v>
       </c>
     </row>
     <row r="777">
@@ -27072,7 +27072,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -27129,7 +27129,7 @@
         <v>23</v>
       </c>
       <c r="H787" t="n">
-        <v>5440</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="788">
@@ -27140,7 +27140,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -27344,7 +27344,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2024/10/03</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -27367,7 +27367,7 @@
         <v>6</v>
       </c>
       <c r="H794" t="n">
-        <v>5452</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="795">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27435,7 +27435,7 @@
         <v>4</v>
       </c>
       <c r="H796" t="n">
-        <v>4148</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="797">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27582,7 +27582,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -27605,7 +27605,7 @@
         <v>253</v>
       </c>
       <c r="H801" t="n">
-        <v>5231</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="802">
@@ -27616,7 +27616,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -28160,7 +28160,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
       <c r="H818" t="n">
-        <v>458</v>
+        <v>728</v>
       </c>
     </row>
     <row r="819">
@@ -28194,7 +28194,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>19</v>
       </c>
       <c r="H838" t="n">
-        <v>11273</v>
+        <v>11275</v>
       </c>
     </row>
     <row r="839">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -29135,7 +29135,7 @@
         <v>70</v>
       </c>
       <c r="H846" t="n">
-        <v>17624</v>
+        <v>17648</v>
       </c>
     </row>
     <row r="847">
@@ -29418,7 +29418,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -29441,7 +29441,7 @@
         <v>0</v>
       </c>
       <c r="H855" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="856">
@@ -29588,7 +29588,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -29690,7 +29690,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -29713,7 +29713,7 @@
         <v>0</v>
       </c>
       <c r="H863" t="n">
-        <v>1158</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="864">
@@ -29894,7 +29894,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="H869" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="870">
@@ -29928,7 +29928,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="H870" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="871">
@@ -30336,7 +30336,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -30370,7 +30370,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -30393,7 +30393,7 @@
         <v>0</v>
       </c>
       <c r="H883" t="n">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="884">
@@ -30982,7 +30982,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -31005,7 +31005,7 @@
         <v>0</v>
       </c>
       <c r="H901" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="902">
@@ -31084,7 +31084,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -31107,7 +31107,7 @@
         <v>0</v>
       </c>
       <c r="H904" t="n">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="905">
@@ -31798,7 +31798,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -31821,7 +31821,7 @@
         <v>0</v>
       </c>
       <c r="H925" t="n">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="926">
@@ -32002,7 +32002,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -32104,7 +32104,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2024/10/07</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -32127,7 +32127,7 @@
         <v>0</v>
       </c>
       <c r="H934" t="n">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="935">
@@ -32138,7 +32138,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -32161,7 +32161,7 @@
         <v>0</v>
       </c>
       <c r="H935" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="936">
@@ -32444,7 +32444,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2024/11/09</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="H944" t="n">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="945">
@@ -32988,7 +32988,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -33011,7 +33011,7 @@
         <v>0</v>
       </c>
       <c r="H960" t="n">
-        <v>758</v>
+        <v>765</v>
       </c>
     </row>
     <row r="961">
@@ -33158,7 +33158,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -33181,7 +33181,7 @@
         <v>0</v>
       </c>
       <c r="H965" t="n">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="966">
@@ -33226,7 +33226,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2024/10/04</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -33249,7 +33249,7 @@
         <v>0</v>
       </c>
       <c r="H967" t="n">
-        <v>474</v>
+        <v>492</v>
       </c>
     </row>
     <row r="968">
@@ -33294,7 +33294,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -33317,7 +33317,7 @@
         <v>0</v>
       </c>
       <c r="H969" t="n">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="970">
@@ -34110,7 +34110,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -34133,7 +34133,7 @@
         <v>0</v>
       </c>
       <c r="H993" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="994">
@@ -34620,7 +34620,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -34643,7 +34643,7 @@
         <v>0</v>
       </c>
       <c r="H1008" t="n">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1009">
@@ -34688,7 +34688,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -34711,7 +34711,7 @@
         <v>0</v>
       </c>
       <c r="H1010" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1011">
@@ -35878,7 +35878,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -36388,7 +36388,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -36411,7 +36411,7 @@
         <v>0</v>
       </c>
       <c r="H1060" t="n">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1061">
@@ -37510,17 +37510,17 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Maule (Gore Maule)</t>
+          <t>Municipalidad de Teodoro Schmidt</t>
         </is>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>AB083</t>
+          <t>MU317</t>
         </is>
       </c>
       <c r="E1093" t="n">
@@ -37533,7 +37533,7 @@
         <v>0</v>
       </c>
       <c r="H1093" t="n">
-        <v>224</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1094">
@@ -37544,17 +37544,17 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>Dirección General de Concesiones (DGC)</t>
+          <t>Gobierno Regional del Maule (Gore Maule)</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
-          <t>AM014</t>
+          <t>AB083</t>
         </is>
       </c>
       <c r="E1094" t="n">
@@ -37567,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="H1094" t="n">
-        <v>11</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1095">
@@ -37578,17 +37578,17 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
         <is>
-          <t>Fundación Integra</t>
+          <t>Dirección General de Concesiones (DGC)</t>
         </is>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>FU001</t>
+          <t>AM014</t>
         </is>
       </c>
       <c r="E1095" t="n">
@@ -37612,17 +37612,17 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>Municipalidad de Colina</t>
+          <t>Fundación Integra</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
-          <t>MU057</t>
+          <t>FU001</t>
         </is>
       </c>
       <c r="E1096" t="n">
@@ -37635,7 +37635,7 @@
         <v>0</v>
       </c>
       <c r="H1096" t="n">
-        <v>176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1097">
@@ -37646,17 +37646,17 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t>Municipalidad de San José de Maipo</t>
+          <t>Municipalidad de Colina</t>
         </is>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>MU292</t>
+          <t>MU057</t>
         </is>
       </c>
       <c r="E1097" t="n">
@@ -37669,7 +37669,7 @@
         <v>0</v>
       </c>
       <c r="H1097" t="n">
-        <v>70</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1098">
@@ -37680,17 +37680,17 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2024/11/09</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Aysén (GORE Aysén)</t>
+          <t>Municipalidad de San José de Maipo</t>
         </is>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>AB088</t>
+          <t>MU292</t>
         </is>
       </c>
       <c r="E1098" t="n">
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="H1098" t="n">
-        <v>167</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1099">
@@ -37714,17 +37714,17 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>2024/11/03</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de Arauco</t>
+          <t>Gobierno Regional de Aysén (GORE Aysén)</t>
         </is>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>MA015</t>
+          <t>AB088</t>
         </is>
       </c>
       <c r="E1099" t="n">
@@ -37737,7 +37737,7 @@
         <v>0</v>
       </c>
       <c r="H1099" t="n">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1100">
@@ -37748,17 +37748,17 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/03</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t>Subsecretaría de Evaluación Social</t>
+          <t>Asociación de Municipalidades de la Provincia de Arauco</t>
         </is>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>AI001</t>
+          <t>MA015</t>
         </is>
       </c>
       <c r="E1100" t="n">
@@ -37771,7 +37771,7 @@
         <v>0</v>
       </c>
       <c r="H1100" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1101">
@@ -37787,12 +37787,12 @@
       </c>
       <c r="C1101" t="inlineStr">
         <is>
-          <t>Municipalidad de Villa Alegre</t>
+          <t>Subsecretaría de Evaluación Social</t>
         </is>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>MU337</t>
+          <t>AI001</t>
         </is>
       </c>
       <c r="E1101" t="n">
@@ -37805,7 +37805,7 @@
         <v>0</v>
       </c>
       <c r="H1101" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1102">
@@ -37821,12 +37821,12 @@
       </c>
       <c r="C1102" t="inlineStr">
         <is>
-          <t>Municipalidad de San Clemente</t>
+          <t>Municipalidad de Villa Alegre</t>
         </is>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>MU283</t>
+          <t>MU337</t>
         </is>
       </c>
       <c r="E1102" t="n">
@@ -37839,7 +37839,7 @@
         <v>0</v>
       </c>
       <c r="H1102" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1103">
@@ -37850,17 +37850,17 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t>Municipalidad de Licantén</t>
+          <t>Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>MU138</t>
+          <t>MU283</t>
         </is>
       </c>
       <c r="E1103" t="n">
@@ -37884,17 +37884,17 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
         <is>
-          <t>Municipalidad de Quemchi</t>
+          <t>Municipalidad de Licantén</t>
         </is>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>MU248</t>
+          <t>MU138</t>
         </is>
       </c>
       <c r="E1104" t="n">
@@ -37907,7 +37907,7 @@
         <v>0</v>
       </c>
       <c r="H1104" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1105">
@@ -37918,17 +37918,17 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de OHiggins</t>
+          <t>Municipalidad de Quemchi</t>
         </is>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
-          <t>AO046</t>
+          <t>MU248</t>
         </is>
       </c>
       <c r="E1105" t="n">
@@ -37941,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1106">
@@ -37952,17 +37952,17 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Espejo</t>
+          <t>SEREMI de Salud de OHiggins</t>
         </is>
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>MU145</t>
+          <t>AO046</t>
         </is>
       </c>
       <c r="E1106" t="n">
@@ -37975,7 +37975,7 @@
         <v>0</v>
       </c>
       <c r="H1106" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107">
@@ -37986,17 +37986,17 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Sistema de Empresas  SEP</t>
+          <t>Municipalidad de Lo Espejo</t>
         </is>
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>EP025</t>
+          <t>MU145</t>
         </is>
       </c>
       <c r="E1107" t="n">
@@ -38009,7 +38009,7 @@
         <v>0</v>
       </c>
       <c r="H1107" t="n">
-        <v>144</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1108">
@@ -38020,17 +38020,17 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
         <is>
-          <t>Subsecretaría de Desarrollo Regional y Administrativo (SUBDERE)</t>
+          <t>Sistema de Empresas  SEP</t>
         </is>
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>AB002</t>
+          <t>EP025</t>
         </is>
       </c>
       <c r="E1108" t="n">
@@ -38043,7 +38043,7 @@
         <v>0</v>
       </c>
       <c r="H1108" t="n">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="1109">
@@ -38054,17 +38054,17 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2024/11/09</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t>Municipalidad de Cerrillos</t>
+          <t>Subsecretaría de Desarrollo Regional y Administrativo (SUBDERE)</t>
         </is>
       </c>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>MU034</t>
+          <t>AB002</t>
         </is>
       </c>
       <c r="E1109" t="n">
@@ -38077,7 +38077,7 @@
         <v>0</v>
       </c>
       <c r="H1109" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1110">
@@ -38088,17 +38088,17 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
         <is>
-          <t>Municipalidad de San Ignacio</t>
+          <t>Municipalidad de Cerrillos</t>
         </is>
       </c>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>MU289</t>
+          <t>MU034</t>
         </is>
       </c>
       <c r="E1110" t="n">
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="H1110" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1111">
@@ -38122,17 +38122,17 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
         <is>
-          <t>Municipalidad de Coelemu</t>
+          <t>Municipalidad de San Ignacio</t>
         </is>
       </c>
       <c r="D1111" t="inlineStr">
         <is>
-          <t>MU052</t>
+          <t>MU289</t>
         </is>
       </c>
       <c r="E1111" t="n">
@@ -38156,17 +38156,17 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t>Municipalidad de Valparaíso</t>
+          <t>Municipalidad de Coelemu</t>
         </is>
       </c>
       <c r="D1112" t="inlineStr">
         <is>
-          <t>MU332</t>
+          <t>MU052</t>
         </is>
       </c>
       <c r="E1112" t="n">
@@ -38179,7 +38179,7 @@
         <v>0</v>
       </c>
       <c r="H1112" t="n">
-        <v>110</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1113">
@@ -38190,17 +38190,17 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
         <is>
-          <t>Municipalidad de Máfil</t>
+          <t>Municipalidad de Valparaíso</t>
         </is>
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>MU162</t>
+          <t>MU332</t>
         </is>
       </c>
       <c r="E1113" t="n">
@@ -38213,7 +38213,7 @@
         <v>0</v>
       </c>
       <c r="H1113" t="n">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1114">
@@ -38224,17 +38224,17 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
+          <t>Municipalidad de Máfil</t>
         </is>
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>AB089</t>
+          <t>MU162</t>
         </is>
       </c>
       <c r="E1114" t="n">
@@ -38247,7 +38247,7 @@
         <v>0</v>
       </c>
       <c r="H1114" t="n">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1115">
@@ -38258,17 +38258,17 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Municipalidad de Andacollo</t>
+          <t>Gobierno Regional de Magallanes y de la Antártica Chilena (GORE Magallanes)</t>
         </is>
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>MU007</t>
+          <t>AB089</t>
         </is>
       </c>
       <c r="E1115" t="n">
@@ -38281,7 +38281,7 @@
         <v>0</v>
       </c>
       <c r="H1115" t="n">
-        <v>60</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1116">
@@ -38292,17 +38292,17 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de Los Ríos</t>
+          <t>Municipalidad de Andacollo</t>
         </is>
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>AO050</t>
+          <t>MU007</t>
         </is>
       </c>
       <c r="E1116" t="n">
@@ -38315,7 +38315,7 @@
         <v>0</v>
       </c>
       <c r="H1116" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1117">
@@ -38326,17 +38326,17 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
         <is>
-          <t>Municipalidad de Quilpué</t>
+          <t>SEREMI de Salud de Los Ríos</t>
         </is>
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>MU254</t>
+          <t>AO050</t>
         </is>
       </c>
       <c r="E1117" t="n">
@@ -38349,7 +38349,7 @@
         <v>0</v>
       </c>
       <c r="H1117" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1118">
@@ -38360,17 +38360,17 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t>Municipalidad de San Antonio</t>
+          <t>Municipalidad de Quilpué</t>
         </is>
       </c>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>MU280</t>
+          <t>MU254</t>
         </is>
       </c>
       <c r="E1118" t="n">
@@ -38383,7 +38383,7 @@
         <v>0</v>
       </c>
       <c r="H1118" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1119">
@@ -38394,17 +38394,17 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
         <is>
-          <t>Municipalidad de Quillota</t>
+          <t>Municipalidad de San Antonio</t>
         </is>
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>MU253</t>
+          <t>MU280</t>
         </is>
       </c>
       <c r="E1119" t="n">
@@ -38417,7 +38417,7 @@
         <v>0</v>
       </c>
       <c r="H1119" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1120">
@@ -38428,17 +38428,17 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>Municipalidad de Malloa</t>
+          <t>Municipalidad de Quillota</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>MU164</t>
+          <t>MU253</t>
         </is>
       </c>
       <c r="E1120" t="n">
@@ -38451,7 +38451,7 @@
         <v>0</v>
       </c>
       <c r="H1120" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1121">
@@ -38462,17 +38462,17 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t>Municipalidad de Villarrica</t>
+          <t>Municipalidad de Malloa</t>
         </is>
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>MU339</t>
+          <t>MU164</t>
         </is>
       </c>
       <c r="E1121" t="n">
@@ -38485,7 +38485,7 @@
         <v>0</v>
       </c>
       <c r="H1121" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1122">
@@ -38496,17 +38496,17 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
         <is>
-          <t>Municipalidad de Río Ibáñez</t>
+          <t>Municipalidad de Villarrica</t>
         </is>
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>MU273</t>
+          <t>MU339</t>
         </is>
       </c>
       <c r="E1122" t="n">
@@ -38519,7 +38519,7 @@
         <v>0</v>
       </c>
       <c r="H1122" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1123">
@@ -38535,12 +38535,12 @@
       </c>
       <c r="C1123" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo Región de Magallanes y Antártica Chilena</t>
+          <t>Municipalidad de Río Ibáñez</t>
         </is>
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>AP034</t>
+          <t>MU273</t>
         </is>
       </c>
       <c r="E1123" t="n">
@@ -38553,7 +38553,7 @@
         <v>0</v>
       </c>
       <c r="H1123" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1124">
@@ -38564,17 +38564,17 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t>Municipalidad de Pitrufquén</t>
+          <t>SEREMI de Vivienda y Urbanismo Región de Magallanes y Antártica Chilena</t>
         </is>
       </c>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>MU222</t>
+          <t>AP034</t>
         </is>
       </c>
       <c r="E1124" t="n">
@@ -38587,7 +38587,7 @@
         <v>0</v>
       </c>
       <c r="H1124" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1125">
@@ -38598,17 +38598,17 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
         <is>
-          <t>Municipalidad de Nogales</t>
+          <t>Municipalidad de Pitrufquén</t>
         </is>
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>MU183</t>
+          <t>MU222</t>
         </is>
       </c>
       <c r="E1125" t="n">
@@ -38621,7 +38621,7 @@
         <v>0</v>
       </c>
       <c r="H1125" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1126">
@@ -38632,17 +38632,17 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>Municipalidad de Molina</t>
+          <t>Municipalidad de Nogales</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>MU174</t>
+          <t>MU183</t>
         </is>
       </c>
       <c r="E1126" t="n">
@@ -38655,7 +38655,7 @@
         <v>0</v>
       </c>
       <c r="H1126" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1127">
@@ -38666,17 +38666,17 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t>Municipalidad de Tiltil</t>
+          <t>Municipalidad de Molina</t>
         </is>
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>MU319</t>
+          <t>MU174</t>
         </is>
       </c>
       <c r="E1127" t="n">
@@ -38689,7 +38689,7 @@
         <v>0</v>
       </c>
       <c r="H1127" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1128">
@@ -38700,17 +38700,17 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
         <is>
-          <t>Municipalidad de Melipeuco</t>
+          <t>Municipalidad de Tiltil</t>
         </is>
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>MU172</t>
+          <t>MU319</t>
         </is>
       </c>
       <c r="E1128" t="n">
@@ -38723,7 +38723,7 @@
         <v>0</v>
       </c>
       <c r="H1128" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1129">
@@ -38734,17 +38734,17 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
         <is>
-          <t>Municipalidad de Putaendo</t>
+          <t>Municipalidad de Melipeuco</t>
         </is>
       </c>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>MU243</t>
+          <t>MU172</t>
         </is>
       </c>
       <c r="E1129" t="n">
@@ -38757,7 +38757,7 @@
         <v>0</v>
       </c>
       <c r="H1129" t="n">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1130">
@@ -38768,17 +38768,17 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t>Municipalidad de Diego de Almagro</t>
+          <t>Municipalidad de Putaendo</t>
         </is>
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>MU080</t>
+          <t>MU243</t>
         </is>
       </c>
       <c r="E1130" t="n">
@@ -38802,17 +38802,17 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
         <is>
-          <t>Servicio de Salud Antofagasta</t>
+          <t>Municipalidad de Diego de Almagro</t>
         </is>
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>AO018</t>
+          <t>MU080</t>
         </is>
       </c>
       <c r="E1131" t="n">
@@ -38825,7 +38825,7 @@
         <v>0</v>
       </c>
       <c r="H1131" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1132">
@@ -38836,17 +38836,17 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
         <is>
-          <t>Municipalidad de Talca</t>
+          <t>Servicio de Salud Antofagasta</t>
         </is>
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>MU312</t>
+          <t>AO018</t>
         </is>
       </c>
       <c r="E1132" t="n">
@@ -38859,7 +38859,7 @@
         <v>0</v>
       </c>
       <c r="H1132" t="n">
-        <v>110</v>
+        <v>53</v>
       </c>
     </row>
     <row r="1133">
@@ -38875,12 +38875,12 @@
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Superintendencia de Educación Dirección Nacional</t>
+          <t>Municipalidad de Talca</t>
         </is>
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>AJ011</t>
+          <t>MU312</t>
         </is>
       </c>
       <c r="E1133" t="n">
@@ -38893,7 +38893,7 @@
         <v>0</v>
       </c>
       <c r="H1133" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1134">
@@ -38904,17 +38904,17 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Puente Alto</t>
+          <t>Superintendencia de Educación Dirección Nacional</t>
         </is>
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>CM044</t>
+          <t>AJ011</t>
         </is>
       </c>
       <c r="E1134" t="n">
@@ -38927,7 +38927,7 @@
         <v>0</v>
       </c>
       <c r="H1134" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1135">
@@ -38938,17 +38938,17 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Antofagasta</t>
+          <t>Corporación Municipal de Puente Alto</t>
         </is>
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>AO041</t>
+          <t>CM044</t>
         </is>
       </c>
       <c r="E1135" t="n">
@@ -38961,7 +38961,7 @@
         <v>0</v>
       </c>
       <c r="H1135" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1136">
@@ -38972,17 +38972,17 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t>Municipalidad de Papudo</t>
+          <t>SEREMI de Salud  de Antofagasta</t>
         </is>
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>MU202</t>
+          <t>AO041</t>
         </is>
       </c>
       <c r="E1136" t="n">
@@ -38995,7 +38995,7 @@
         <v>0</v>
       </c>
       <c r="H1136" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1137">
@@ -39011,12 +39011,12 @@
       </c>
       <c r="C1137" t="inlineStr">
         <is>
-          <t>Municipalidad de Calera de Tango</t>
+          <t>Municipalidad de Papudo</t>
         </is>
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>MU022</t>
+          <t>MU202</t>
         </is>
       </c>
       <c r="E1137" t="n">
@@ -39029,7 +39029,7 @@
         <v>0</v>
       </c>
       <c r="H1137" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1138">
@@ -39040,17 +39040,17 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
         <is>
-          <t>Municipalidad de Doñihue</t>
+          <t>Municipalidad de Calera de Tango</t>
         </is>
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>MU081</t>
+          <t>MU022</t>
         </is>
       </c>
       <c r="E1138" t="n">
@@ -39063,7 +39063,7 @@
         <v>0</v>
       </c>
       <c r="H1138" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1139">
@@ -39074,17 +39074,17 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  de Valparaíso</t>
+          <t>Municipalidad de Doñihue</t>
         </is>
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>AO044</t>
+          <t>MU081</t>
         </is>
       </c>
       <c r="E1139" t="n">
@@ -39097,7 +39097,7 @@
         <v>0</v>
       </c>
       <c r="H1139" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1140">
@@ -39108,17 +39108,17 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
         <is>
-          <t>Municipalidad de Pelluhue</t>
+          <t>SEREMI de Salud  de Valparaíso</t>
         </is>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>MU207</t>
+          <t>AO044</t>
         </is>
       </c>
       <c r="E1140" t="n">
@@ -39131,7 +39131,7 @@
         <v>0</v>
       </c>
       <c r="H1140" t="n">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1141">
@@ -39142,17 +39142,17 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>Municipalidad de Copiapó</t>
+          <t>Municipalidad de Pelluhue</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>MU066</t>
+          <t>MU207</t>
         </is>
       </c>
       <c r="E1141" t="n">
@@ -39165,7 +39165,7 @@
         <v>0</v>
       </c>
       <c r="H1141" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1142">
@@ -39181,12 +39181,12 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>Municipalidad de Macul</t>
+          <t>Municipalidad de Copiapó</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>MU161</t>
+          <t>MU066</t>
         </is>
       </c>
       <c r="E1142" t="n">
@@ -39199,7 +39199,7 @@
         <v>0</v>
       </c>
       <c r="H1142" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1143">
@@ -39210,17 +39210,17 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
+          <t>Municipalidad de Macul</t>
         </is>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>CM043</t>
+          <t>MU161</t>
         </is>
       </c>
       <c r="E1143" t="n">
@@ -39233,7 +39233,7 @@
         <v>0</v>
       </c>
       <c r="H1143" t="n">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1144">
@@ -39244,17 +39244,17 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
         <is>
-          <t>Municipalidad de Maullín</t>
+          <t>Corporación Municipal de Salud y Educación de Panguipulli</t>
         </is>
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>MU170</t>
+          <t>CM043</t>
         </is>
       </c>
       <c r="E1144" t="n">
@@ -39267,7 +39267,7 @@
         <v>0</v>
       </c>
       <c r="H1144" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1145">
@@ -39283,12 +39283,12 @@
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
+          <t>Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>AI002</t>
+          <t>MU170</t>
         </is>
       </c>
       <c r="E1145" t="n">
@@ -39301,7 +39301,7 @@
         <v>0</v>
       </c>
       <c r="H1145" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1146">
@@ -39312,17 +39312,17 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
         <is>
-          <t>Municipalidad de El Bosque</t>
+          <t>Corporación Nacional de Desarrollo Indígena (CONADI)</t>
         </is>
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>MU082</t>
+          <t>AI002</t>
         </is>
       </c>
       <c r="E1146" t="n">
@@ -39335,7 +39335,7 @@
         <v>0</v>
       </c>
       <c r="H1146" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147">
@@ -39346,17 +39346,17 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
         <is>
-          <t>Presidencia de la República</t>
+          <t>Municipalidad de El Bosque</t>
         </is>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>AA001</t>
+          <t>MU082</t>
         </is>
       </c>
       <c r="E1147" t="n">
@@ -39369,7 +39369,7 @@
         <v>0</v>
       </c>
       <c r="H1147" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1148">
@@ -39380,17 +39380,17 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>2024/10/05</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t>Municipalidad de La Ligua</t>
+          <t>Presidencia de la República</t>
         </is>
       </c>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>MU123</t>
+          <t>AA001</t>
         </is>
       </c>
       <c r="E1148" t="n">
@@ -39403,7 +39403,7 @@
         <v>0</v>
       </c>
       <c r="H1148" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1149">
@@ -39414,17 +39414,17 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/10/05</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
         <is>
-          <t>Subsecretaría de las Culturas y las Artes</t>
+          <t>Municipalidad de La Ligua</t>
         </is>
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>BC001</t>
+          <t>MU123</t>
         </is>
       </c>
       <c r="E1149" t="n">
@@ -39437,7 +39437,7 @@
         <v>0</v>
       </c>
       <c r="H1149" t="n">
-        <v>394</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1150">
@@ -39448,17 +39448,17 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
         <is>
-          <t>Municipalidad de Constitución</t>
+          <t>Subsecretaría de las Culturas y las Artes</t>
         </is>
       </c>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>MU064</t>
+          <t>BC001</t>
         </is>
       </c>
       <c r="E1150" t="n">
@@ -39471,7 +39471,7 @@
         <v>0</v>
       </c>
       <c r="H1150" t="n">
-        <v>60</v>
+        <v>394</v>
       </c>
     </row>
     <row r="1151">
@@ -39482,17 +39482,17 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t>Municipalidad de Peñaflor</t>
+          <t>Municipalidad de Constitución</t>
         </is>
       </c>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>MU211</t>
+          <t>MU064</t>
         </is>
       </c>
       <c r="E1151" t="n">
@@ -39505,7 +39505,7 @@
         <v>0</v>
       </c>
       <c r="H1151" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1152">
@@ -39516,17 +39516,17 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
         <is>
-          <t>SEREMI de Salud de Aysén</t>
+          <t>Municipalidad de Peñaflor</t>
         </is>
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>AO052</t>
+          <t>MU211</t>
         </is>
       </c>
       <c r="E1152" t="n">
@@ -39539,7 +39539,7 @@
         <v>0</v>
       </c>
       <c r="H1152" t="n">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1153">
@@ -39550,17 +39550,17 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
         <is>
-          <t>Municipalidad de Tirúa</t>
+          <t>SEREMI de Salud de Aysén</t>
         </is>
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>MU321</t>
+          <t>AO052</t>
         </is>
       </c>
       <c r="E1153" t="n">
@@ -39573,7 +39573,7 @@
         <v>0</v>
       </c>
       <c r="H1153" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1154">
@@ -39584,17 +39584,17 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t>Municipalidad de San Miguel</t>
+          <t>Municipalidad de Tirúa</t>
         </is>
       </c>
       <c r="D1154" t="inlineStr">
         <is>
-          <t>MU294</t>
+          <t>MU321</t>
         </is>
       </c>
       <c r="E1154" t="n">
@@ -39607,7 +39607,7 @@
         <v>0</v>
       </c>
       <c r="H1154" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1155">
@@ -39623,12 +39623,12 @@
       </c>
       <c r="C1155" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa María</t>
+          <t>Municipalidad de San Miguel</t>
         </is>
       </c>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>MU307</t>
+          <t>MU294</t>
         </is>
       </c>
       <c r="E1155" t="n">
@@ -39641,7 +39641,7 @@
         <v>0</v>
       </c>
       <c r="H1155" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1156">
@@ -39652,17 +39652,17 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
         <is>
-          <t>Municipalidad de Lo Prado</t>
+          <t>Municipalidad de Santa María</t>
         </is>
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>MU146</t>
+          <t>MU307</t>
         </is>
       </c>
       <c r="E1156" t="n">
@@ -39675,7 +39675,7 @@
         <v>0</v>
       </c>
       <c r="H1156" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1157">
@@ -39686,17 +39686,17 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t>Municipalidad de Santa Bárbara</t>
+          <t>Municipalidad de Lo Prado</t>
         </is>
       </c>
       <c r="D1157" t="inlineStr">
         <is>
-          <t>MU304</t>
+          <t>MU146</t>
         </is>
       </c>
       <c r="E1157" t="n">
@@ -39709,7 +39709,7 @@
         <v>0</v>
       </c>
       <c r="H1157" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1158">
@@ -39720,17 +39720,17 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Municipalidad de Maule</t>
+          <t>Municipalidad de Santa Bárbara</t>
         </is>
       </c>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>MU169</t>
+          <t>MU304</t>
         </is>
       </c>
       <c r="E1158" t="n">
@@ -39743,7 +39743,7 @@
         <v>0</v>
       </c>
       <c r="H1158" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1159">
@@ -39754,17 +39754,17 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
         <is>
-          <t>Municipalidad de Collipulli</t>
+          <t>Municipalidad de Maule</t>
         </is>
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>MU058</t>
+          <t>MU169</t>
         </is>
       </c>
       <c r="E1159" t="n">
@@ -39788,17 +39788,17 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t>SEREMI de Salud  Metropolitano de Santiago</t>
+          <t>Municipalidad de Collipulli</t>
         </is>
       </c>
       <c r="D1160" t="inlineStr">
         <is>
-          <t>AO045</t>
+          <t>MU058</t>
         </is>
       </c>
       <c r="E1160" t="n">
@@ -39811,7 +39811,7 @@
         <v>0</v>
       </c>
       <c r="H1160" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1161">
@@ -39822,17 +39822,17 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Tarapacá (GORE)</t>
+          <t>SEREMI de Salud  Metropolitano de Santiago</t>
         </is>
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>AB076</t>
+          <t>AO045</t>
         </is>
       </c>
       <c r="E1161" t="n">
@@ -39845,7 +39845,7 @@
         <v>0</v>
       </c>
       <c r="H1161" t="n">
-        <v>276</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1162">
@@ -39856,17 +39856,17 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
         <is>
-          <t>Municipalidad de Ovalle</t>
+          <t>Gobierno Regional de Tarapacá (GORE)</t>
         </is>
       </c>
       <c r="D1162" t="inlineStr">
         <is>
-          <t>MU192</t>
+          <t>AB076</t>
         </is>
       </c>
       <c r="E1162" t="n">
@@ -39879,7 +39879,7 @@
         <v>0</v>
       </c>
       <c r="H1162" t="n">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1163">
@@ -39890,17 +39890,17 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t>Municipalidad de Pudahuel</t>
+          <t>Municipalidad de Ovalle</t>
         </is>
       </c>
       <c r="D1163" t="inlineStr">
         <is>
-          <t>MU231</t>
+          <t>MU192</t>
         </is>
       </c>
       <c r="E1163" t="n">
@@ -39913,7 +39913,7 @@
         <v>0</v>
       </c>
       <c r="H1163" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1164">
@@ -39924,17 +39924,17 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
         <is>
-          <t>Municipalidad de Vichuquén</t>
+          <t>Municipalidad de Pudahuel</t>
         </is>
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>MU333</t>
+          <t>MU231</t>
         </is>
       </c>
       <c r="E1164" t="n">
@@ -39947,7 +39947,7 @@
         <v>0</v>
       </c>
       <c r="H1164" t="n">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1165">
@@ -39958,17 +39958,17 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
         <is>
-          <t>Municipalidad de Lanco</t>
+          <t>Municipalidad de Vichuquén</t>
         </is>
       </c>
       <c r="D1165" t="inlineStr">
         <is>
-          <t>MU133</t>
+          <t>MU333</t>
         </is>
       </c>
       <c r="E1165" t="n">
@@ -39981,7 +39981,7 @@
         <v>0</v>
       </c>
       <c r="H1165" t="n">
-        <v>283</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1166">
@@ -39992,17 +39992,17 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>2024/11/03</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Zona Central y Costa (AMUCC)</t>
+          <t>Municipalidad de Lanco</t>
         </is>
       </c>
       <c r="D1166" t="inlineStr">
         <is>
-          <t>MA042</t>
+          <t>MU133</t>
         </is>
       </c>
       <c r="E1166" t="n">
@@ -40015,7 +40015,7 @@
         <v>0</v>
       </c>
       <c r="H1166" t="n">
-        <v>13</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1167">
@@ -40026,17 +40026,17 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/03</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
         <is>
-          <t>Municipalidad de Algarrobo</t>
+          <t>Asociación de Municipalidades de la Zona Central y Costa (AMUCC)</t>
         </is>
       </c>
       <c r="D1167" t="inlineStr">
         <is>
-          <t>MU001</t>
+          <t>MA042</t>
         </is>
       </c>
       <c r="E1167" t="n">
@@ -40049,7 +40049,7 @@
         <v>0</v>
       </c>
       <c r="H1167" t="n">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1168">
@@ -40060,17 +40060,17 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Coquimbo  GORECOQUIMBO</t>
+          <t>Municipalidad de Algarrobo</t>
         </is>
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>AB079</t>
+          <t>MU001</t>
         </is>
       </c>
       <c r="E1168" t="n">
@@ -40083,7 +40083,7 @@
         <v>0</v>
       </c>
       <c r="H1168" t="n">
-        <v>139</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1169">
@@ -40094,17 +40094,17 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública Llanquihue</t>
+          <t>Gobierno Regional de Coquimbo  GORECOQUIMBO</t>
         </is>
       </c>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>AJ028</t>
+          <t>AB079</t>
         </is>
       </c>
       <c r="E1169" t="n">
@@ -40117,7 +40117,7 @@
         <v>0</v>
       </c>
       <c r="H1169" t="n">
-        <v>56</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1170">
@@ -40128,17 +40128,17 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>Municipalidad de La Serena</t>
+          <t>Servicio Local de Educación Pública Llanquihue</t>
         </is>
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>MU126</t>
+          <t>AJ028</t>
         </is>
       </c>
       <c r="E1170" t="n">
@@ -40151,7 +40151,7 @@
         <v>0</v>
       </c>
       <c r="H1170" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1171">
@@ -40162,17 +40162,17 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Talagante</t>
+          <t>Municipalidad de La Serena</t>
         </is>
       </c>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>CM052</t>
+          <t>MU126</t>
         </is>
       </c>
       <c r="E1171" t="n">
@@ -40185,7 +40185,7 @@
         <v>0</v>
       </c>
       <c r="H1171" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1172">
@@ -40196,17 +40196,17 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Subsecretaría de la Niñez</t>
+          <t>Corporación Municipal de Talagante</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>AI009</t>
+          <t>CM052</t>
         </is>
       </c>
       <c r="E1172" t="n">
@@ -40219,7 +40219,7 @@
         <v>0</v>
       </c>
       <c r="H1172" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1173">
@@ -40230,17 +40230,17 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>Universidad de Magallanes</t>
+          <t>Subsecretaría de la Niñez</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>UN016</t>
+          <t>AI009</t>
         </is>
       </c>
       <c r="E1173" t="n">
@@ -40253,7 +40253,7 @@
         <v>0</v>
       </c>
       <c r="H1173" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174">
@@ -40264,17 +40264,17 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Provincia de San Antonio (AMPSA)</t>
+          <t>Universidad de Magallanes</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>MA061</t>
+          <t>UN016</t>
         </is>
       </c>
       <c r="E1174" t="n">
@@ -40287,7 +40287,7 @@
         <v>0</v>
       </c>
       <c r="H1174" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1175">
@@ -40298,17 +40298,17 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Municipalidad de Primavera</t>
+          <t>Asociación de Municipalidades de la Provincia de San Antonio (AMPSA)</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>MU227</t>
+          <t>MA061</t>
         </is>
       </c>
       <c r="E1175" t="n">
@@ -40321,7 +40321,7 @@
         <v>0</v>
       </c>
       <c r="H1175" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1176">
@@ -40332,17 +40332,17 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>Servicio Local de educación Pública Punilla Cordillera</t>
+          <t>Municipalidad de Primavera</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>AJ033</t>
+          <t>MU227</t>
         </is>
       </c>
       <c r="E1176" t="n">
@@ -40355,7 +40355,7 @@
         <v>0</v>
       </c>
       <c r="H1176" t="n">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1177">
@@ -40366,17 +40366,17 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Los Lagos (Gore Los Lagos)</t>
+          <t>Servicio Local de educación Pública Punilla Cordillera</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>AB087</t>
+          <t>AJ033</t>
         </is>
       </c>
       <c r="E1177" t="n">
@@ -40389,7 +40389,7 @@
         <v>0</v>
       </c>
       <c r="H1177" t="n">
-        <v>160</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1178">
@@ -40405,12 +40405,12 @@
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
+          <t>Gobierno Regional de Los Lagos (Gore Los Lagos)</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>AB084</t>
+          <t>AB087</t>
         </is>
       </c>
       <c r="E1178" t="n">
@@ -40423,7 +40423,7 @@
         <v>0</v>
       </c>
       <c r="H1178" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1179">
@@ -40434,17 +40434,17 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>Municipalidad de Santo Domingo</t>
+          <t>Gobierno Regional del Bío Bío (Gore Bío Bío)</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>MU309</t>
+          <t>AB084</t>
         </is>
       </c>
       <c r="E1179" t="n">
@@ -40457,7 +40457,7 @@
         <v>0</v>
       </c>
       <c r="H1179" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1180">
@@ -40473,12 +40473,12 @@
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo Región de Los Ríos</t>
+          <t>Municipalidad de Santo Domingo</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>AP031</t>
+          <t>MU309</t>
         </is>
       </c>
       <c r="E1180" t="n">
@@ -40491,7 +40491,7 @@
         <v>0</v>
       </c>
       <c r="H1180" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1181">
@@ -40502,17 +40502,17 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Municipalidad de San Gregorio</t>
+          <t>SEREMI de Vivienda y Urbanismo Región de Los Ríos</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>MU288</t>
+          <t>AP031</t>
         </is>
       </c>
       <c r="E1181" t="n">
@@ -40525,7 +40525,7 @@
         <v>0</v>
       </c>
       <c r="H1181" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1182">
@@ -40536,21 +40536,21 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>Dirección de Planeamiento (DIRPLAN)</t>
+          <t>Municipalidad de San Gregorio</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>AM009</t>
+          <t>MU288</t>
         </is>
       </c>
       <c r="E1182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F1182" t="n">
         <v>0</v>
@@ -40559,7 +40559,7 @@
         <v>0</v>
       </c>
       <c r="H1182" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1183">
@@ -40570,21 +40570,21 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>Municipalidad de Renca</t>
+          <t>Dirección de Planeamiento (DIRPLAN)</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>MU265</t>
+          <t>AM009</t>
         </is>
       </c>
       <c r="E1183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1183" t="n">
         <v>0</v>
@@ -40593,7 +40593,7 @@
         <v>0</v>
       </c>
       <c r="H1183" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1184">
@@ -40604,17 +40604,17 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>2024/11/09</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>Municipalidad de San Rosendo</t>
+          <t>Municipalidad de Renca</t>
         </is>
       </c>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>MU302</t>
+          <t>MU265</t>
         </is>
       </c>
       <c r="E1184" t="n">
@@ -40627,7 +40627,7 @@
         <v>0</v>
       </c>
       <c r="H1184" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1185">
@@ -40638,17 +40638,17 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
         <is>
-          <t>SERVIU Región de la Araucanía</t>
+          <t>Municipalidad de San Rosendo</t>
         </is>
       </c>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>AP011</t>
+          <t>MU302</t>
         </is>
       </c>
       <c r="E1185" t="n">
@@ -40661,7 +40661,7 @@
         <v>0</v>
       </c>
       <c r="H1185" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1186">
@@ -40672,17 +40672,17 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Valparaíso  (GORE)</t>
+          <t>SERVIU Región de la Araucanía</t>
         </is>
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>AB080</t>
+          <t>AP011</t>
         </is>
       </c>
       <c r="E1186" t="n">
@@ -40695,7 +40695,7 @@
         <v>0</v>
       </c>
       <c r="H1186" t="n">
-        <v>294</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1187">
@@ -40706,17 +40706,17 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t>Municipalidad de Ercilla</t>
+          <t>Gobierno Regional de Valparaíso  (GORE)</t>
         </is>
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>MU088</t>
+          <t>AB080</t>
         </is>
       </c>
       <c r="E1187" t="n">
@@ -40729,7 +40729,7 @@
         <v>0</v>
       </c>
       <c r="H1187" t="n">
-        <v>54</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1188">
@@ -40740,17 +40740,17 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Gobierno Regional de La Araucanía (Gore Araucanía)</t>
+          <t>Municipalidad de Ercilla</t>
         </is>
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>AB085</t>
+          <t>MU088</t>
         </is>
       </c>
       <c r="E1188" t="n">
@@ -40763,7 +40763,7 @@
         <v>0</v>
       </c>
       <c r="H1188" t="n">
-        <v>220</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1189">
@@ -40774,17 +40774,17 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
         <is>
-          <t>Comisión Administradora del Sistema de Créditos para Estudios Superiores (INGRESA)</t>
+          <t>Gobierno Regional de La Araucanía (Gore Araucanía)</t>
         </is>
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>AJ004</t>
+          <t>AB085</t>
         </is>
       </c>
       <c r="E1189" t="n">
@@ -40797,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="H1189" t="n">
-        <v>158</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1190">
@@ -40808,17 +40808,17 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la cuenca del Lago Llanquihue</t>
+          <t>Comisión Administradora del Sistema de Créditos para Estudios Superiores (INGRESA)</t>
         </is>
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>MA052</t>
+          <t>AJ004</t>
         </is>
       </c>
       <c r="E1190" t="n">
@@ -40831,7 +40831,7 @@
         <v>0</v>
       </c>
       <c r="H1190" t="n">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1191">
@@ -40842,17 +40842,17 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Municipalidad de San Nicolás</t>
+          <t>Asociación de Municipalidades de la cuenca del Lago Llanquihue</t>
         </is>
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>MU295</t>
+          <t>MA052</t>
         </is>
       </c>
       <c r="E1191" t="n">
@@ -40865,7 +40865,7 @@
         <v>0</v>
       </c>
       <c r="H1191" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1192">
@@ -40876,17 +40876,17 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
         <is>
-          <t>Municipalidad de Vilcún</t>
+          <t>Municipalidad de San Nicolás</t>
         </is>
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>MU336</t>
+          <t>MU295</t>
         </is>
       </c>
       <c r="E1192" t="n">
@@ -40910,17 +40910,17 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t>Municipalidad de Chanco</t>
+          <t>Municipalidad de Vilcún</t>
         </is>
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>MU037</t>
+          <t>MU336</t>
         </is>
       </c>
       <c r="E1193" t="n">
@@ -40933,7 +40933,7 @@
         <v>0</v>
       </c>
       <c r="H1193" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1194">
@@ -40944,17 +40944,17 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
         <is>
-          <t>Municipalidad de Lago Ranco</t>
+          <t>Municipalidad de Chanco</t>
         </is>
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>MU128</t>
+          <t>MU037</t>
         </is>
       </c>
       <c r="E1194" t="n">
@@ -40967,7 +40967,7 @@
         <v>0</v>
       </c>
       <c r="H1194" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1195">
@@ -40978,17 +40978,17 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
         <is>
-          <t>Municipalidad de Empedrado</t>
+          <t>Municipalidad de Lago Ranco</t>
         </is>
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>MU087</t>
+          <t>MU128</t>
         </is>
       </c>
       <c r="E1195" t="n">
@@ -41001,7 +41001,7 @@
         <v>0</v>
       </c>
       <c r="H1195" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1196">
@@ -41012,17 +41012,17 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t>Universidad de Atacama</t>
+          <t>Municipalidad de Empedrado</t>
         </is>
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>UN004</t>
+          <t>MU087</t>
         </is>
       </c>
       <c r="E1196" t="n">
@@ -41035,7 +41035,7 @@
         <v>0</v>
       </c>
       <c r="H1196" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1197">
@@ -41046,17 +41046,17 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>Servicio Local de Educación Pública de Andalién Costa</t>
+          <t>Universidad de Atacama</t>
         </is>
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>AJ038</t>
+          <t>UN004</t>
         </is>
       </c>
       <c r="E1197" t="n">
@@ -41069,7 +41069,7 @@
         <v>0</v>
       </c>
       <c r="H1197" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1198">
@@ -41080,17 +41080,17 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
         <is>
-          <t>Municipalidad de Teno</t>
+          <t>Servicio Local de Educación Pública de Andalién Costa</t>
         </is>
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>MU316</t>
+          <t>AJ038</t>
         </is>
       </c>
       <c r="E1198" t="n">
@@ -41103,7 +41103,7 @@
         <v>0</v>
       </c>
       <c r="H1198" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1199">
@@ -41114,17 +41114,17 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Educación y Salud de San Bernardo</t>
+          <t>Municipalidad de Teno</t>
         </is>
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>CM033</t>
+          <t>MU316</t>
         </is>
       </c>
       <c r="E1199" t="n">
@@ -41137,7 +41137,7 @@
         <v>0</v>
       </c>
       <c r="H1199" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1200">
@@ -41148,17 +41148,17 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
         <is>
-          <t>Municipalidad de Los Alamos</t>
+          <t>Corporación Municipal de Educación y Salud de San Bernardo</t>
         </is>
       </c>
       <c r="D1200" t="inlineStr">
         <is>
-          <t>MU151</t>
+          <t>CM033</t>
         </is>
       </c>
       <c r="E1200" t="n">
@@ -41171,7 +41171,7 @@
         <v>0</v>
       </c>
       <c r="H1200" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1201">
@@ -41182,17 +41182,17 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
         <is>
-          <t>Municipalidad de Sierra Gorda</t>
+          <t>Municipalidad de Los Alamos</t>
         </is>
       </c>
       <c r="D1201" t="inlineStr">
         <is>
-          <t>MU310</t>
+          <t>MU151</t>
         </is>
       </c>
       <c r="E1201" t="n">
@@ -41205,7 +41205,7 @@
         <v>0</v>
       </c>
       <c r="H1201" t="n">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1202">
@@ -41216,17 +41216,17 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/08/12</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t>Municipalidad de Arauco</t>
+          <t>Municipalidad de Sierra Gorda</t>
         </is>
       </c>
       <c r="D1202" t="inlineStr">
         <is>
-          <t>MU011</t>
+          <t>MU310</t>
         </is>
       </c>
       <c r="E1202" t="n">
@@ -41239,7 +41239,7 @@
         <v>0</v>
       </c>
       <c r="H1202" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1203">
@@ -41250,17 +41250,17 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de la Región del Biobío</t>
+          <t>Municipalidad de Arauco</t>
         </is>
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>MA036</t>
+          <t>MU011</t>
         </is>
       </c>
       <c r="E1203" t="n">
@@ -41273,7 +41273,7 @@
         <v>0</v>
       </c>
       <c r="H1203" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1204">
@@ -41284,17 +41284,17 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Los Ríos (GORE de Los Ríos)</t>
+          <t>Asociación de Municipalidades de la Región del Biobío</t>
         </is>
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>AB086</t>
+          <t>MA036</t>
         </is>
       </c>
       <c r="E1204" t="n">
@@ -41307,7 +41307,7 @@
         <v>0</v>
       </c>
       <c r="H1204" t="n">
-        <v>126</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1205">
@@ -41318,17 +41318,17 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Consejo Nacional de Televisión (CNTV)</t>
+          <t>Gobierno Regional de Los Ríos (GORE de Los Ríos)</t>
         </is>
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>AG003</t>
+          <t>AB086</t>
         </is>
       </c>
       <c r="E1205" t="n">
@@ -41341,7 +41341,7 @@
         <v>0</v>
       </c>
       <c r="H1205" t="n">
-        <v>92</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1206">
@@ -41352,17 +41352,17 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>Municipalidad de San Carlos</t>
+          <t>Consejo Nacional de Televisión (CNTV)</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>MU282</t>
+          <t>AG003</t>
         </is>
       </c>
       <c r="E1206" t="n">
@@ -41375,7 +41375,7 @@
         <v>0</v>
       </c>
       <c r="H1206" t="n">
-        <v>36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1207">
@@ -41386,17 +41386,17 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
         <is>
-          <t>Municipalidad de Monte Patria</t>
+          <t>Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>MU175</t>
+          <t>MU282</t>
         </is>
       </c>
       <c r="E1207" t="n">
@@ -41409,7 +41409,7 @@
         <v>0</v>
       </c>
       <c r="H1207" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1208">
@@ -41420,17 +41420,17 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t>Municipalidad de Huara</t>
+          <t>Municipalidad de Monte Patria</t>
         </is>
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>MU107</t>
+          <t>MU175</t>
         </is>
       </c>
       <c r="E1208" t="n">
@@ -41443,7 +41443,7 @@
         <v>0</v>
       </c>
       <c r="H1208" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1209">
@@ -41454,17 +41454,17 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
         <is>
-          <t>Municipalidad de Ninhue</t>
+          <t>Municipalidad de Huara</t>
         </is>
       </c>
       <c r="D1209" t="inlineStr">
         <is>
-          <t>MU182</t>
+          <t>MU107</t>
         </is>
       </c>
       <c r="E1209" t="n">
@@ -41488,17 +41488,17 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>Municipalidad de Puchuncaví</t>
+          <t>Municipalidad de Ninhue</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
-          <t>MU229</t>
+          <t>MU182</t>
         </is>
       </c>
       <c r="E1210" t="n">
@@ -41511,7 +41511,7 @@
         <v>0</v>
       </c>
       <c r="H1210" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1211">
@@ -41522,17 +41522,17 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>Gobierno Regional de Atacama (GORE)</t>
+          <t>Municipalidad de Puchuncaví</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
-          <t>AB078</t>
+          <t>MU229</t>
         </is>
       </c>
       <c r="E1211" t="n">
@@ -41545,7 +41545,7 @@
         <v>0</v>
       </c>
       <c r="H1211" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1212">
@@ -41556,17 +41556,17 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>Defensoría de los Derechos de la Niñez</t>
+          <t>Gobierno Regional de Atacama (GORE)</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>CO005</t>
+          <t>AB078</t>
         </is>
       </c>
       <c r="E1212" t="n">
@@ -41579,7 +41579,7 @@
         <v>0</v>
       </c>
       <c r="H1212" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1213">
@@ -41590,17 +41590,17 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>SEREMI de Salud del Ñuble</t>
+          <t>Defensoría de los Derechos de la Niñez</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>AO117</t>
+          <t>CO005</t>
         </is>
       </c>
       <c r="E1213" t="n">
@@ -41613,7 +41613,7 @@
         <v>0</v>
       </c>
       <c r="H1213" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214">
@@ -41624,17 +41624,17 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
+          <t>SEREMI de Salud del Ñuble</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>MA043</t>
+          <t>AO117</t>
         </is>
       </c>
       <c r="E1214" t="n">
@@ -41647,7 +41647,7 @@
         <v>0</v>
       </c>
       <c r="H1214" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1215">
@@ -41658,17 +41658,17 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>Municipalidad de Buin</t>
+          <t>Asociación de Municipalidades para la Preservación de la Biodiversidad en el Territorio de Nonguén y otros Ecosistemas</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>MU014</t>
+          <t>MA043</t>
         </is>
       </c>
       <c r="E1215" t="n">
@@ -41681,7 +41681,7 @@
         <v>0</v>
       </c>
       <c r="H1215" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1216">
@@ -41692,17 +41692,17 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>Corporación Cultural Aldea del Encuentro La Reina</t>
+          <t>Municipalidad de Buin</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>CM065</t>
+          <t>MU014</t>
         </is>
       </c>
       <c r="E1216" t="n">
@@ -41715,7 +41715,7 @@
         <v>0</v>
       </c>
       <c r="H1216" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1217">
@@ -41726,17 +41726,17 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
+          <t>Corporación Cultural Aldea del Encuentro La Reina</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>MA008</t>
+          <t>CM065</t>
         </is>
       </c>
       <c r="E1217" t="n">
@@ -41749,7 +41749,7 @@
         <v>0</v>
       </c>
       <c r="H1217" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1218">
@@ -41760,17 +41760,17 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Colina</t>
+          <t>Asociación de Municipalidades Malleco Norte AMMN</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>CM026</t>
+          <t>MA008</t>
         </is>
       </c>
       <c r="E1218" t="n">
@@ -41783,7 +41783,7 @@
         <v>0</v>
       </c>
       <c r="H1218" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="1219">
@@ -41799,12 +41799,12 @@
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Desarrollo Social de Ñuñoa</t>
+          <t>Corporación Municipal de Colina</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>CM001</t>
+          <t>CM026</t>
         </is>
       </c>
       <c r="E1219" t="n">
@@ -41817,7 +41817,7 @@
         <v>0</v>
       </c>
       <c r="H1219" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220">
@@ -41828,17 +41828,17 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades de La Región de Los Ríos</t>
+          <t>Corporación Municipal de Desarrollo Social de Ñuñoa</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr">
         <is>
-          <t>MA004</t>
+          <t>CM001</t>
         </is>
       </c>
       <c r="E1220" t="n">
@@ -41851,7 +41851,7 @@
         <v>0</v>
       </c>
       <c r="H1220" t="n">
-        <v>322</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1221">
@@ -41862,17 +41862,17 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
         <is>
-          <t>Fundación del deporte de Punta Arenas</t>
+          <t>Asociación de Municipalidades de La Región de Los Ríos</t>
         </is>
       </c>
       <c r="D1221" t="inlineStr">
         <is>
-          <t>FU016</t>
+          <t>MA004</t>
         </is>
       </c>
       <c r="E1221" t="n">
@@ -41885,7 +41885,7 @@
         <v>0</v>
       </c>
       <c r="H1221" t="n">
-        <v>10</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1222">
@@ -41896,17 +41896,17 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>2024/11/09</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
         <is>
-          <t>Asociación de Municipios Ciudad Sur</t>
+          <t>Fundación del deporte de Punta Arenas</t>
         </is>
       </c>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>MA031</t>
+          <t>FU016</t>
         </is>
       </c>
       <c r="E1222" t="n">
@@ -41919,7 +41919,7 @@
         <v>0</v>
       </c>
       <c r="H1222" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1223">
@@ -41930,17 +41930,17 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/09</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>Corporación Municipal de San Joaquin</t>
+          <t>Asociación de Municipios Ciudad Sur</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>CM030</t>
+          <t>MA031</t>
         </is>
       </c>
       <c r="E1223" t="n">
@@ -41953,7 +41953,7 @@
         <v>0</v>
       </c>
       <c r="H1223" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1224">
@@ -41969,12 +41969,12 @@
       </c>
       <c r="C1224" t="inlineStr">
         <is>
-          <t>Municipalidad de Putre</t>
+          <t>Corporación Municipal de San Joaquin</t>
         </is>
       </c>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>MU244</t>
+          <t>CM030</t>
         </is>
       </c>
       <c r="E1224" t="n">
@@ -41987,7 +41987,7 @@
         <v>0</v>
       </c>
       <c r="H1224" t="n">
-        <v>203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225">
@@ -41998,17 +41998,17 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Administración Sitio Patrimonio Mundial Área Histórica de la Cuidad Puerto de Valparaíso</t>
+          <t>Municipalidad de Putre</t>
         </is>
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>CM139</t>
+          <t>MU244</t>
         </is>
       </c>
       <c r="E1225" t="n">
@@ -42021,7 +42021,7 @@
         <v>0</v>
       </c>
       <c r="H1225" t="n">
-        <v>4</v>
+        <v>203</v>
       </c>
     </row>
     <row r="1226">
@@ -42032,17 +42032,17 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t>Corporación Cultural de Peñalolén</t>
+          <t>Corporación Municipal de Administración Sitio Patrimonio Mundial Área Histórica de la Cuidad Puerto de Valparaíso</t>
         </is>
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>CM083</t>
+          <t>CM139</t>
         </is>
       </c>
       <c r="E1226" t="n">
@@ -42055,7 +42055,7 @@
         <v>0</v>
       </c>
       <c r="H1226" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1227">
@@ -42066,17 +42066,17 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
         <is>
-          <t>Subsecretaría de Redes Asistenciales</t>
+          <t>Corporación Cultural de Peñalolén</t>
         </is>
       </c>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>AO002</t>
+          <t>CM083</t>
         </is>
       </c>
       <c r="E1227" t="n">
@@ -42089,7 +42089,7 @@
         <v>0</v>
       </c>
       <c r="H1227" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1228">
@@ -42105,12 +42105,12 @@
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Subsecretaría de Salud Pública (MINSAL)</t>
+          <t>Subsecretaría de Redes Asistenciales</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>AO001</t>
+          <t>AO002</t>
         </is>
       </c>
       <c r="E1228" t="n">
@@ -42123,7 +42123,7 @@
         <v>0</v>
       </c>
       <c r="H1228" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1229">
@@ -42139,12 +42139,12 @@
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Comunas Costeras de PuchuncavíQuintero</t>
+          <t>Subsecretaría de Salud Pública (MINSAL)</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>MA060</t>
+          <t>AO001</t>
         </is>
       </c>
       <c r="E1229" t="n">
@@ -42157,7 +42157,7 @@
         <v>0</v>
       </c>
       <c r="H1229" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1230">
@@ -42168,17 +42168,17 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Municipalidad de Teodoro Schmidt</t>
+          <t>Asociación de Municipalidades Comunas Costeras de PuchuncavíQuintero</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>MU317</t>
+          <t>MA060</t>
         </is>
       </c>
       <c r="E1230" t="n">
@@ -42191,7 +42191,7 @@
         <v>0</v>
       </c>
       <c r="H1230" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1231">

--- a/consolidado_historico7.xlsx
+++ b/consolidado_historico7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1234"/>
+  <dimension ref="A1:H1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>8976</v>
+        <v>9034</v>
       </c>
     </row>
     <row r="76">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7477,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="210">
@@ -7522,7 +7522,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="212">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>17739</v>
+        <v>17852</v>
       </c>
     </row>
     <row r="215">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7919,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>2951</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="223">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7953,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="H223" t="n">
-        <v>13432</v>
+        <v>13645</v>
       </c>
     </row>
     <row r="224">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10061,7 +10061,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="n">
-        <v>755</v>
+        <v>762</v>
       </c>
     </row>
     <row r="286">
@@ -10106,7 +10106,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -10129,7 +10129,7 @@
         <v>2</v>
       </c>
       <c r="H287" t="n">
-        <v>1912</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="288">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12622,7 +12622,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="362">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="n">
-        <v>4910</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="375">
@@ -13744,7 +13744,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>20681</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="395">
@@ -13846,7 +13846,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>1069</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="420">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -17439,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="n">
-        <v>813</v>
+        <v>837</v>
       </c>
     </row>
     <row r="503">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -17677,7 +17677,7 @@
         <v>3</v>
       </c>
       <c r="H509" t="n">
-        <v>454</v>
+        <v>502</v>
       </c>
     </row>
     <row r="510">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2024/10/13</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -18833,7 +18833,7 @@
         <v>11</v>
       </c>
       <c r="H543" t="n">
-        <v>2477</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="544">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
       <c r="H552" t="n">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="553">
@@ -19252,7 +19252,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -19275,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>1045</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="557">
@@ -19354,7 +19354,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="n">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="560">
@@ -19762,7 +19762,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -19785,7 +19785,7 @@
         <v>48</v>
       </c>
       <c r="H571" t="n">
-        <v>12945</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="572">
@@ -20102,7 +20102,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/23</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="n">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="582">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="H583" t="n">
-        <v>2051</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="584">
@@ -21666,7 +21666,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2024/10/27</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -21689,7 +21689,7 @@
         <v>0</v>
       </c>
       <c r="H627" t="n">
-        <v>5646</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="628">
@@ -22040,7 +22040,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -22142,7 +22142,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -22165,7 +22165,7 @@
         <v>1</v>
       </c>
       <c r="H641" t="n">
-        <v>1854</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="642">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -22414,7 +22414,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2024/07/27</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -22437,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="H649" t="n">
-        <v>5587</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="650">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -22505,7 +22505,7 @@
         <v>0</v>
       </c>
       <c r="H651" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="652">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -22777,7 +22777,7 @@
         <v>33</v>
       </c>
       <c r="H659" t="n">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="660">
@@ -22822,7 +22822,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -22845,7 +22845,7 @@
         <v>209</v>
       </c>
       <c r="H661" t="n">
-        <v>31478</v>
+        <v>31813</v>
       </c>
     </row>
     <row r="662">
@@ -23162,7 +23162,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="H671" t="n">
-        <v>4612</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="672">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="H672" t="n">
-        <v>2736</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="673">
@@ -23230,7 +23230,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -23253,7 +23253,7 @@
         <v>9</v>
       </c>
       <c r="H673" t="n">
-        <v>23304</v>
+        <v>23312</v>
       </c>
     </row>
     <row r="674">
@@ -23570,7 +23570,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -23593,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="H683" t="n">
-        <v>7994</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="684">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -24137,7 +24137,7 @@
         <v>1</v>
       </c>
       <c r="H699" t="n">
-        <v>8226</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="700">
@@ -24148,7 +24148,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -24171,7 +24171,7 @@
         <v>581</v>
       </c>
       <c r="H700" t="n">
-        <v>12797</v>
+        <v>13024</v>
       </c>
     </row>
     <row r="701">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>7</v>
       </c>
       <c r="H704" t="n">
-        <v>4508</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="705">
@@ -24692,7 +24692,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H718" t="n">
-        <v>1606</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="719">
@@ -24930,7 +24930,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -24953,7 +24953,7 @@
         <v>0</v>
       </c>
       <c r="H723" t="n">
-        <v>2513</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="724">
@@ -25474,7 +25474,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -25497,7 +25497,7 @@
         <v>1</v>
       </c>
       <c r="H739" t="n">
-        <v>1683</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="740">
@@ -25576,7 +25576,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -26256,7 +26256,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -26279,7 +26279,7 @@
         <v>57</v>
       </c>
       <c r="H762" t="n">
-        <v>13832</v>
+        <v>14032</v>
       </c>
     </row>
     <row r="763">
@@ -26664,7 +26664,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/24</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -26687,7 +26687,7 @@
         <v>20</v>
       </c>
       <c r="H774" t="n">
-        <v>7601</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="775">
@@ -26698,7 +26698,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -26721,7 +26721,7 @@
         <v>4</v>
       </c>
       <c r="H775" t="n">
-        <v>3303</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="776">
@@ -26732,7 +26732,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -26755,7 +26755,7 @@
         <v>34</v>
       </c>
       <c r="H776" t="n">
-        <v>8947</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="777">
@@ -27004,7 +27004,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H784" t="n">
-        <v>6607</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="785">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
       <c r="H789" t="n">
-        <v>396</v>
+        <v>449</v>
       </c>
     </row>
     <row r="790">
@@ -27412,7 +27412,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -27435,7 +27435,7 @@
         <v>4</v>
       </c>
       <c r="H796" t="n">
-        <v>4242</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="797">
@@ -27480,7 +27480,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="H798" t="n">
-        <v>1160</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="799">
@@ -28126,7 +28126,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2024/10/13</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -28149,7 +28149,7 @@
         <v>21</v>
       </c>
       <c r="H817" t="n">
-        <v>13626</v>
+        <v>13661</v>
       </c>
     </row>
     <row r="818">
@@ -28840,7 +28840,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -28863,7 +28863,7 @@
         <v>19</v>
       </c>
       <c r="H838" t="n">
-        <v>11275</v>
+        <v>11285</v>
       </c>
     </row>
     <row r="839">
@@ -30132,7 +30132,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2024/10/27</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="H876" t="n">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="877">
@@ -30438,7 +30438,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -30461,7 +30461,7 @@
         <v>0</v>
       </c>
       <c r="H885" t="n">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="886">
@@ -30880,7 +30880,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -30903,7 +30903,7 @@
         <v>0</v>
       </c>
       <c r="H898" t="n">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="899">
@@ -31186,7 +31186,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -32274,7 +32274,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -32297,7 +32297,7 @@
         <v>0</v>
       </c>
       <c r="H939" t="n">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="940">
@@ -32580,7 +32580,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2024/10/13</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -32603,7 +32603,7 @@
         <v>0</v>
       </c>
       <c r="H948" t="n">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="949">
@@ -32784,7 +32784,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -32807,7 +32807,7 @@
         <v>0</v>
       </c>
       <c r="H954" t="n">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="955">
@@ -32988,7 +32988,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -33396,7 +33396,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -33419,7 +33419,7 @@
         <v>0</v>
       </c>
       <c r="H972" t="n">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="973">
@@ -33430,7 +33430,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -33453,7 +33453,7 @@
         <v>0</v>
       </c>
       <c r="H973" t="n">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="974">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -33623,7 +33623,7 @@
         <v>0</v>
       </c>
       <c r="H978" t="n">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="979">
@@ -34178,7 +34178,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -35368,7 +35368,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -36966,7 +36966,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="H1077" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1078">
@@ -39244,7 +39244,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -40060,7 +40060,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -42100,17 +42100,17 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
         <is>
-          <t>Subsecretaría de Redes Asistenciales</t>
+          <t>Asociación de Municipalidades del Punilla</t>
         </is>
       </c>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>AO002</t>
+          <t>MA022</t>
         </is>
       </c>
       <c r="E1228" t="n">
@@ -42123,7 +42123,7 @@
         <v>0</v>
       </c>
       <c r="H1228" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1229">
@@ -42139,12 +42139,12 @@
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>Subsecretaría de Salud Pública (MINSAL)</t>
+          <t>Subsecretaría de Redes Asistenciales</t>
         </is>
       </c>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>AO001</t>
+          <t>AO002</t>
         </is>
       </c>
       <c r="E1229" t="n">
@@ -42157,7 +42157,7 @@
         <v>0</v>
       </c>
       <c r="H1229" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1230">
@@ -42168,17 +42168,17 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Comunas Costeras de PuchuncavíQuintero</t>
+          <t>Subsecretaría de Salud Pública (MINSAL)</t>
         </is>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>MA060</t>
+          <t>AO001</t>
         </is>
       </c>
       <c r="E1230" t="n">
@@ -42191,7 +42191,7 @@
         <v>0</v>
       </c>
       <c r="H1230" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1231">
@@ -42202,17 +42202,17 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Fondo Nacional de Salud (FONASA)</t>
+          <t>Asociación de Municipalidades Comunas Costeras de PuchuncavíQuintero</t>
         </is>
       </c>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>AO004</t>
+          <t>MA060</t>
         </is>
       </c>
       <c r="E1231" t="n">
@@ -42225,7 +42225,7 @@
         <v>0</v>
       </c>
       <c r="H1231" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1232">
@@ -42236,17 +42236,17 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t>Corporación Municipal de Desarrollo Económico de Peñalolén (YUNUS)</t>
+          <t>Fondo Nacional de Salud (FONASA)</t>
         </is>
       </c>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>CM234</t>
+          <t>AO004</t>
         </is>
       </c>
       <c r="E1232" t="n">
@@ -42259,7 +42259,7 @@
         <v>0</v>
       </c>
       <c r="H1232" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233">
@@ -42275,12 +42275,12 @@
       </c>
       <c r="C1233" t="inlineStr">
         <is>
-          <t>Delegación Presidencial Provincial de General Carrera</t>
+          <t>Corporación Municipal de Desarrollo Económico de Peñalolén (YUNUS)</t>
         </is>
       </c>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>AB063</t>
+          <t>CM234</t>
         </is>
       </c>
       <c r="E1233" t="n">
@@ -42293,7 +42293,7 @@
         <v>0</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1234">
@@ -42309,24 +42309,58 @@
       </c>
       <c r="C1234" t="inlineStr">
         <is>
+          <t>Delegación Presidencial Provincial de General Carrera</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>AB063</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>TA_Otras_autoridades</t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2024/11/15</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
           <t>Corporación Municipal de San Vicente</t>
         </is>
       </c>
-      <c r="D1234" t="inlineStr">
+      <c r="D1235" t="inlineStr">
         <is>
           <t>CM051</t>
         </is>
       </c>
-      <c r="E1234" t="n">
+      <c r="E1235" t="n">
         <v>1</v>
       </c>
-      <c r="F1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1234" t="n">
+      <c r="F1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1235" t="n">
         <v>1</v>
       </c>
     </row>
